--- a/data/analysisFiles/Momentum-Series1.xlsx
+++ b/data/analysisFiles/Momentum-Series1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitgupta/Documents/STUDY/git/anks/github_page/data/analysisFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B07A19-B38F-5E4B-82BF-CADCB90DCAC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0D696E-A9CE-4042-B207-AEF820AE9491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="2" xr2:uid="{002A3E7F-AFC8-3B44-ABFB-1DAEE9CF9586}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{002A3E7F-AFC8-3B44-ABFB-1DAEE9CF9586}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="36">
   <si>
     <t>Nifty 200 Momentum 30 Index</t>
   </si>
@@ -152,35 +152,6 @@
     <t>Base Momentum Prototype - 2008 Onwards</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Table 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Base Prototype Performance. </t>
-    </r>
-  </si>
-  <si>
-    <t>(b): Period: 1 Jan 2020 - 31 May 2024</t>
-  </si>
-  <si>
-    <t>(a): Period: 1 Jan 2008 -  May 2024</t>
-  </si>
-  <si>
     <t>Base Momentum Prototype - 2010 Onwards</t>
   </si>
   <si>
@@ -215,6 +186,151 @@
   <si>
     <t>Max Drawdown (%)</t>
   </si>
+  <si>
+    <t>If invested Rs. 100</t>
+  </si>
+  <si>
+    <t>Base Momentum Prototype - 1st April 2020 Onwards</t>
+  </si>
+  <si>
+    <t>Base Momentum Prototype -  Last 1 year</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 2(a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Period: 1 Jan 2008 -  May 2024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 2(b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Period: 1 Jan 2010 -  May 2024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 2(c)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Period: 1 Apr 2020 -  May 2024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 2(d)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Period: 1 June 2023 -  May 2024</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -222,9 +338,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="mmm\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="mmm\ yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,8 +442,46 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +515,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,16 +587,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -462,12 +616,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -490,6 +638,29 @@
     <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1517,19 +1688,19 @@
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="2:14" s="7" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -1565,7 +1736,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>39722</v>
       </c>
       <c r="C4" s="3">
@@ -1578,7 +1749,7 @@
         <f>IF(C4&gt;D4,"Momentum Index", "Nifty 200")</f>
         <v>Momentum Index</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>43922</v>
       </c>
       <c r="H4" s="1">
@@ -1591,18 +1762,18 @@
         <f>IF(H4&gt;I4,"Momentum Index", "Nifty 200")</f>
         <v>Nifty 200</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="13">
         <v>39448</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="13">
         <v>45463</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>39448</v>
       </c>
       <c r="C5" s="1">
@@ -1615,7 +1786,7 @@
         <f t="shared" ref="E5:E13" si="0">IF(C5&gt;D5,"Momentum Index", "Nifty 200")</f>
         <v>Nifty 200</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <v>39630</v>
       </c>
       <c r="H5" s="3">
@@ -1628,18 +1799,18 @@
         <f t="shared" ref="J5:J13" si="1">IF(H5&gt;I5,"Momentum Index", "Nifty 200")</f>
         <v>Momentum Index</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="12">
         <v>796.02440000000001</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="12">
         <v>292.62939999999998</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>39600</v>
       </c>
       <c r="C6" s="1">
@@ -1652,7 +1823,7 @@
         <f t="shared" si="0"/>
         <v>Nifty 200</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <v>39539</v>
       </c>
       <c r="H6" s="3">
@@ -1665,18 +1836,18 @@
         <f t="shared" si="1"/>
         <v>Momentum Index</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="12">
         <v>14.2316</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="12">
         <v>8.6532</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>43891</v>
       </c>
       <c r="C7" s="3">
@@ -1689,7 +1860,7 @@
         <f t="shared" si="0"/>
         <v>Momentum Index</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <v>45231</v>
       </c>
       <c r="H7" s="3">
@@ -1702,18 +1873,18 @@
         <f t="shared" si="1"/>
         <v>Momentum Index</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="12">
         <v>26.286000000000001</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="12">
         <v>24.897300000000001</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>39692</v>
       </c>
       <c r="C8" s="1">
@@ -1726,7 +1897,7 @@
         <f t="shared" si="0"/>
         <v>Nifty 200</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <v>39873</v>
       </c>
       <c r="H8" s="3">
@@ -1739,18 +1910,18 @@
         <f t="shared" si="1"/>
         <v>Momentum Index</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="12">
         <v>-67.889499999999998</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="12">
         <v>-64.038200000000003</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>39508</v>
       </c>
       <c r="C9" s="1">
@@ -1763,7 +1934,7 @@
         <f t="shared" si="0"/>
         <v>Nifty 200</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <v>40118</v>
       </c>
       <c r="H9" s="3">
@@ -1776,18 +1947,18 @@
         <f t="shared" si="1"/>
         <v>Momentum Index</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="12">
         <v>0.54139999999999999</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="12">
         <v>0.34760000000000002</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>40544</v>
       </c>
       <c r="C10" s="3">
@@ -1800,7 +1971,7 @@
         <f t="shared" si="0"/>
         <v>Momentum Index</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="11">
         <v>42736</v>
       </c>
       <c r="H10" s="3">
@@ -1813,18 +1984,18 @@
         <f t="shared" si="1"/>
         <v>Momentum Index</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="12">
         <v>0.82930000000000004</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="12">
         <v>0.54</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>39569</v>
       </c>
       <c r="C11" s="1">
@@ -1837,7 +2008,7 @@
         <f t="shared" si="0"/>
         <v>Nifty 200</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>39934</v>
       </c>
       <c r="H11" s="1">
@@ -1850,16 +2021,16 @@
         <f t="shared" si="1"/>
         <v>Nifty 200</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="12">
         <v>0.96179999999999999</v>
       </c>
-      <c r="N11" s="14"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>42401</v>
       </c>
       <c r="C12" s="1">
@@ -1872,7 +2043,7 @@
         <f t="shared" si="0"/>
         <v>Nifty 200</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="11">
         <v>44743</v>
       </c>
       <c r="H12" s="3">
@@ -1885,16 +2056,16 @@
         <f t="shared" si="1"/>
         <v>Momentum Index</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="12">
         <v>0.10879999999999999</v>
       </c>
-      <c r="N12" s="14"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>43647</v>
       </c>
       <c r="C13" s="1">
@@ -1907,7 +2078,7 @@
         <f t="shared" si="0"/>
         <v>Nifty 200</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="11">
         <v>39995</v>
       </c>
       <c r="H13" s="3">
@@ -1920,13 +2091,13 @@
         <f t="shared" si="1"/>
         <v>Momentum Index</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="12">
         <v>0.51259999999999994</v>
       </c>
-      <c r="N13" s="14"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
@@ -1965,612 +2136,1088 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322F6168-EE58-3140-8958-4F2142B3E126}">
-  <dimension ref="B2:N31"/>
+  <dimension ref="B3:N47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="18" customWidth="1"/>
-    <col min="3" max="6" width="12.83203125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="0.6640625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="16" style="18"/>
-    <col min="10" max="13" width="14" style="18" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="18" customWidth="1"/>
-    <col min="15" max="16384" width="16" style="18"/>
+    <col min="1" max="1" width="6.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="16" customWidth="1"/>
+    <col min="3" max="6" width="12.83203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="0.6640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" style="16" customWidth="1"/>
+    <col min="10" max="13" width="14" style="16" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="16" customWidth="1"/>
+    <col min="15" max="16384" width="16" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+    <row r="3" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="I2" s="24" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="I3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+    </row>
+    <row r="4" spans="2:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="34">
+        <v>1280.0467000000001</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1103.5152</v>
+      </c>
+      <c r="E5" s="34">
+        <v>1207.3042</v>
+      </c>
+      <c r="F5" s="34">
+        <v>769.09299999999996</v>
+      </c>
+      <c r="G5" s="34">
+        <v>358.53039999999999</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="34">
+        <v>1487.0641000000001</v>
+      </c>
+      <c r="K5" s="34">
+        <v>825.22860000000003</v>
+      </c>
+      <c r="L5" s="34">
+        <v>819.24530000000004</v>
+      </c>
+      <c r="M5" s="34">
+        <v>556.53589999999997</v>
+      </c>
+      <c r="N5" s="34">
+        <v>422.26150000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="34">
+        <v>16.797000000000001</v>
+      </c>
+      <c r="D6" s="34">
+        <v>15.7462</v>
+      </c>
+      <c r="E6" s="34">
+        <v>16.381499999999999</v>
+      </c>
+      <c r="F6" s="34">
+        <v>13.228899999999999</v>
+      </c>
+      <c r="G6" s="34">
+        <v>8.0864999999999991</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="34">
+        <v>20.586500000000001</v>
+      </c>
+      <c r="K6" s="34">
+        <v>15.761100000000001</v>
+      </c>
+      <c r="L6" s="34">
+        <v>15.7027</v>
+      </c>
+      <c r="M6" s="34">
+        <v>12.641500000000001</v>
+      </c>
+      <c r="N6" s="34">
+        <v>10.5052</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="34">
+        <v>19.933299999999999</v>
+      </c>
+      <c r="D7" s="34">
+        <v>20.9405</v>
+      </c>
+      <c r="E7" s="34">
+        <v>20.752300000000002</v>
+      </c>
+      <c r="F7" s="34">
+        <v>20.664100000000001</v>
+      </c>
+      <c r="G7" s="34">
+        <v>20.328600000000002</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="34">
+        <v>18.387699999999999</v>
+      </c>
+      <c r="K7" s="34">
+        <v>18.623000000000001</v>
+      </c>
+      <c r="L7" s="34">
+        <v>18.347300000000001</v>
+      </c>
+      <c r="M7" s="34">
+        <v>17.818200000000001</v>
+      </c>
+      <c r="N7" s="34">
+        <v>16.356300000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="34">
+        <v>-59.4771</v>
+      </c>
+      <c r="D8" s="34">
+        <v>-53.552599999999998</v>
+      </c>
+      <c r="E8" s="34">
+        <v>-54.8996</v>
+      </c>
+      <c r="F8" s="34">
+        <v>-55.833599999999997</v>
+      </c>
+      <c r="G8" s="34">
+        <v>-58.866799999999998</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="34">
+        <v>-37.325499999999998</v>
+      </c>
+      <c r="K8" s="34">
+        <v>-45.206699999999998</v>
+      </c>
+      <c r="L8" s="34">
+        <v>-43.596400000000003</v>
+      </c>
+      <c r="M8" s="34">
+        <v>-48.158999999999999</v>
+      </c>
+      <c r="N8" s="34">
+        <v>-38.114100000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="34">
+        <v>0.8427</v>
+      </c>
+      <c r="D9" s="34">
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="E9" s="34">
+        <v>0.78939999999999999</v>
+      </c>
+      <c r="F9" s="34">
+        <v>0.64019999999999999</v>
+      </c>
+      <c r="G9" s="34">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="34">
+        <v>1.1195999999999999</v>
+      </c>
+      <c r="K9" s="34">
+        <v>0.84630000000000005</v>
+      </c>
+      <c r="L9" s="34">
+        <v>0.85589999999999999</v>
+      </c>
+      <c r="M9" s="34">
+        <v>0.70950000000000002</v>
+      </c>
+      <c r="N9" s="34">
+        <v>0.64229999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="34">
+        <v>1.2685999999999999</v>
+      </c>
+      <c r="D10" s="34">
+        <v>1.1422000000000001</v>
+      </c>
+      <c r="E10" s="34">
+        <v>1.2203999999999999</v>
+      </c>
+      <c r="F10" s="34">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G10" s="34">
+        <v>0.60740000000000005</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="34">
+        <v>1.6956</v>
+      </c>
+      <c r="K10" s="34">
+        <v>1.2551000000000001</v>
+      </c>
+      <c r="L10" s="34">
+        <v>1.304</v>
+      </c>
+      <c r="M10" s="34">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="N10" s="34">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="34">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="D11" s="34">
+        <v>0.8226</v>
+      </c>
+      <c r="E11" s="34">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="F11" s="34">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="I11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="34">
+        <v>0.88649999999999995</v>
+      </c>
+      <c r="K11" s="34">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="L11" s="34">
+        <v>0.8841</v>
+      </c>
+      <c r="M11" s="34">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="N11" s="34"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="34">
+        <v>0.13370000000000001</v>
+      </c>
+      <c r="D12" s="34">
+        <v>0.13109999999999999</v>
+      </c>
+      <c r="E12" s="34">
+        <v>0.12809999999999999</v>
+      </c>
+      <c r="F12" s="34">
+        <v>0.1231</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="I12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="34">
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="K12" s="34">
+        <v>0.1158</v>
+      </c>
+      <c r="L12" s="34">
+        <v>0.1145</v>
+      </c>
+      <c r="M12" s="34">
+        <v>0.1057</v>
+      </c>
+      <c r="N12" s="34"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="34">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0.58430000000000004</v>
+      </c>
+      <c r="E13" s="34">
+        <v>0.64759999999999995</v>
+      </c>
+      <c r="F13" s="34">
+        <v>0.41770000000000002</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="I13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="34">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="K13" s="34">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="L13" s="34">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="M13" s="34">
+        <v>0.2021</v>
+      </c>
+      <c r="N13" s="34"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="18" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="I18" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+    </row>
+    <row r="19" spans="2:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="34">
+        <v>319.76299999999998</v>
+      </c>
+      <c r="D20" s="34">
+        <v>301.41609999999997</v>
+      </c>
+      <c r="E20" s="34">
+        <v>314.05239999999998</v>
+      </c>
+      <c r="F20" s="34">
+        <v>274.26659999999998</v>
+      </c>
+      <c r="G20" s="34">
+        <v>257.46429999999998</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="34">
+        <v>138.9331</v>
+      </c>
+      <c r="K20" s="34">
+        <v>137.4727</v>
+      </c>
+      <c r="L20" s="34">
+        <v>132.17590000000001</v>
+      </c>
+      <c r="M20" s="34">
+        <v>133.15459999999999</v>
+      </c>
+      <c r="N20" s="34">
+        <v>120.5167</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="34">
+        <v>32.148400000000002</v>
+      </c>
+      <c r="D21" s="34">
+        <v>30.289100000000001</v>
+      </c>
+      <c r="E21" s="34">
+        <v>31.578600000000002</v>
+      </c>
+      <c r="F21" s="34">
+        <v>27.373000000000001</v>
+      </c>
+      <c r="G21" s="34">
+        <v>25.456499999999998</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="34">
+        <v>38.933100000000003</v>
+      </c>
+      <c r="K21" s="34">
+        <v>37.472700000000003</v>
+      </c>
+      <c r="L21" s="34">
+        <v>32.175899999999999</v>
+      </c>
+      <c r="M21" s="34">
+        <v>33.154600000000002</v>
+      </c>
+      <c r="N21" s="34">
+        <v>20.5167</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="34">
+        <v>19.230899999999998</v>
+      </c>
+      <c r="D22" s="34">
+        <v>19.2699</v>
+      </c>
+      <c r="E22" s="34">
+        <v>18.5137</v>
+      </c>
+      <c r="F22" s="34">
+        <v>18.2851</v>
+      </c>
+      <c r="G22" s="34">
+        <v>16.0182</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="34">
+        <v>13.271599999999999</v>
+      </c>
+      <c r="K22" s="34">
+        <v>13.530799999999999</v>
+      </c>
+      <c r="L22" s="34">
+        <v>12.9902</v>
+      </c>
+      <c r="M22" s="34">
+        <v>12.4384</v>
+      </c>
+      <c r="N22" s="34">
+        <v>9.6164000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="34">
+        <v>-19.399899999999999</v>
+      </c>
+      <c r="D23" s="34">
+        <v>-22.342600000000001</v>
+      </c>
+      <c r="E23" s="34">
+        <v>-27.772500000000001</v>
+      </c>
+      <c r="F23" s="34">
+        <v>-22.961600000000001</v>
+      </c>
+      <c r="G23" s="34">
+        <v>-17.131799999999998</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="34">
+        <v>-6.8754999999999997</v>
+      </c>
+      <c r="K23" s="34">
+        <v>-6.4333999999999998</v>
+      </c>
+      <c r="L23" s="34">
+        <v>-7.0643000000000002</v>
+      </c>
+      <c r="M23" s="34">
+        <v>-7.0824999999999996</v>
+      </c>
+      <c r="N23" s="34">
+        <v>-6.5774999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="34">
+        <v>1.6717</v>
+      </c>
+      <c r="D24" s="34">
+        <v>1.5718000000000001</v>
+      </c>
+      <c r="E24" s="34">
+        <v>1.7057</v>
+      </c>
+      <c r="F24" s="34">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="G24" s="34">
+        <v>1.5891999999999999</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="34">
+        <v>2.9336000000000002</v>
+      </c>
+      <c r="K24" s="34">
+        <v>2.7694000000000001</v>
+      </c>
+      <c r="L24" s="34">
+        <v>2.4769000000000001</v>
+      </c>
+      <c r="M24" s="34">
+        <v>2.6655000000000002</v>
+      </c>
+      <c r="N24" s="34">
+        <v>2.1335000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="34">
+        <v>2.6212</v>
+      </c>
+      <c r="D25" s="34">
+        <v>2.5225</v>
+      </c>
+      <c r="E25" s="34">
+        <v>2.7707000000000002</v>
+      </c>
+      <c r="F25" s="34">
+        <v>2.4014000000000002</v>
+      </c>
+      <c r="G25" s="34">
+        <v>2.5722</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="34">
+        <v>4.7426000000000004</v>
+      </c>
+      <c r="K25" s="34">
+        <v>4.6555999999999997</v>
+      </c>
+      <c r="L25" s="34">
+        <v>4.0343</v>
+      </c>
+      <c r="M25" s="34">
+        <v>4.4790999999999999</v>
+      </c>
+      <c r="N25" s="34">
+        <v>3.4851999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="34">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="D26" s="34">
+        <v>0.8841</v>
+      </c>
+      <c r="E26" s="34">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="F26" s="34">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="34">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="K26" s="34">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="L26" s="34">
+        <v>0.96619999999999995</v>
+      </c>
+      <c r="M26" s="34">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="N26" s="34"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="34">
+        <v>0.12909999999999999</v>
+      </c>
+      <c r="D27" s="34">
+        <v>0.13189999999999999</v>
+      </c>
+      <c r="E27" s="34">
+        <v>0.121</v>
+      </c>
+      <c r="F27" s="34">
+        <v>0.114</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="34">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="K27" s="34">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="L27" s="34">
+        <v>9.0700000000000003E-2</v>
+      </c>
+      <c r="M27" s="34">
+        <v>8.48E-2</v>
+      </c>
+      <c r="N27" s="34"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="34">
+        <v>0.51829999999999998</v>
+      </c>
+      <c r="D28" s="34">
+        <v>0.36609999999999998</v>
+      </c>
+      <c r="E28" s="34">
+        <v>0.50560000000000005</v>
+      </c>
+      <c r="F28" s="34">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="I28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="34">
+        <v>2.0042</v>
+      </c>
+      <c r="K28" s="34">
+        <v>1.7487999999999999</v>
+      </c>
+      <c r="L28" s="34">
+        <v>1.2834000000000001</v>
+      </c>
+      <c r="M28" s="34">
+        <v>1.488</v>
+      </c>
+      <c r="N28" s="34"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="14"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="I30" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="19"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="19"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="19"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="19"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+    </row>
+    <row r="37" spans="2:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0.87705200000000005</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.81367100000000003</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0.75576500000000002</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0.77960600000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0.87705200000000005</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.89122900000000005</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0.80469299999999999</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0.79859500000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="25">
+        <v>0.81367100000000003</v>
+      </c>
+      <c r="D40" s="25">
+        <v>0.89122900000000005</v>
+      </c>
+      <c r="E40" s="12">
+        <v>1</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0.84242399999999995</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0.805728</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="27">
+        <v>0.75576500000000002</v>
+      </c>
+      <c r="D41" s="25">
+        <v>0.80469299999999999</v>
+      </c>
+      <c r="E41" s="25">
+        <v>0.84242399999999995</v>
+      </c>
+      <c r="F41" s="12">
+        <v>1</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0.81971700000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="28">
+        <v>0.77960600000000002</v>
+      </c>
+      <c r="D42" s="26">
+        <v>0.79859500000000005</v>
+      </c>
+      <c r="E42" s="26">
+        <v>0.805728</v>
+      </c>
+      <c r="F42" s="26">
+        <v>0.81971700000000003</v>
+      </c>
+      <c r="G42" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="17">
+        <v>16.797000000000001</v>
+      </c>
+      <c r="D43" s="17">
+        <v>15.7462</v>
+      </c>
+      <c r="E43" s="17">
+        <v>16.381499999999999</v>
+      </c>
+      <c r="F43" s="17">
+        <v>13.228899999999999</v>
+      </c>
+      <c r="G43" s="17">
+        <v>8.0864999999999991</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B44" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="17">
+        <v>0.8427</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="E44" s="17">
+        <v>0.78939999999999999</v>
+      </c>
+      <c r="F44" s="17">
+        <v>0.64019999999999999</v>
+      </c>
+      <c r="G44" s="17">
+        <v>0.39779999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B45" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="17">
+        <v>-59.4771</v>
+      </c>
+      <c r="D45" s="17">
+        <v>-53.552599999999998</v>
+      </c>
+      <c r="E45" s="17">
+        <v>-54.8996</v>
+      </c>
+      <c r="F45" s="17">
+        <v>-55.833599999999997</v>
+      </c>
+      <c r="G45" s="17">
+        <v>-58.866799999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-    </row>
-    <row r="3" spans="2:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="19">
-        <v>1180.0467000000001</v>
-      </c>
-      <c r="D4" s="19">
-        <v>1003.5152</v>
-      </c>
-      <c r="E4" s="19">
-        <v>1107.3042</v>
-      </c>
-      <c r="F4" s="19">
-        <v>669.09299999999996</v>
-      </c>
-      <c r="G4" s="19">
-        <v>258.53039999999999</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="14">
-        <v>1387.0641000000001</v>
-      </c>
-      <c r="K4" s="14">
-        <v>725.22860000000003</v>
-      </c>
-      <c r="L4" s="14">
-        <v>719.24530000000004</v>
-      </c>
-      <c r="M4" s="14">
-        <v>456.53590000000003</v>
-      </c>
-      <c r="N4" s="14">
-        <v>322.26150000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="19">
-        <v>16.797000000000001</v>
-      </c>
-      <c r="D5" s="19">
-        <v>15.7462</v>
-      </c>
-      <c r="E5" s="19">
-        <v>16.381499999999999</v>
-      </c>
-      <c r="F5" s="19">
-        <v>13.228899999999999</v>
-      </c>
-      <c r="G5" s="19">
-        <v>8.0864999999999991</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="14">
-        <v>20.586500000000001</v>
-      </c>
-      <c r="K5" s="14">
-        <v>15.761100000000001</v>
-      </c>
-      <c r="L5" s="14">
-        <v>15.7027</v>
-      </c>
-      <c r="M5" s="14">
-        <v>12.641500000000001</v>
-      </c>
-      <c r="N5" s="14">
-        <v>10.5052</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="19">
-        <v>19.933299999999999</v>
-      </c>
-      <c r="D6" s="19">
-        <v>20.9405</v>
-      </c>
-      <c r="E6" s="19">
-        <v>20.752300000000002</v>
-      </c>
-      <c r="F6" s="19">
-        <v>20.664100000000001</v>
-      </c>
-      <c r="G6" s="19">
-        <v>20.328600000000002</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="14">
-        <v>18.387699999999999</v>
-      </c>
-      <c r="K6" s="14">
-        <v>18.623000000000001</v>
-      </c>
-      <c r="L6" s="14">
-        <v>18.347300000000001</v>
-      </c>
-      <c r="M6" s="14">
-        <v>17.818200000000001</v>
-      </c>
-      <c r="N6" s="14">
-        <v>16.356300000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="19">
-        <v>-59.4771</v>
-      </c>
-      <c r="D7" s="19">
-        <v>-53.552599999999998</v>
-      </c>
-      <c r="E7" s="19">
-        <v>-54.8996</v>
-      </c>
-      <c r="F7" s="19">
-        <v>-55.833599999999997</v>
-      </c>
-      <c r="G7" s="19">
-        <v>-58.866799999999998</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="14">
-        <v>-37.325499999999998</v>
-      </c>
-      <c r="K7" s="14">
-        <v>-45.206699999999998</v>
-      </c>
-      <c r="L7" s="14">
-        <v>-43.596400000000003</v>
-      </c>
-      <c r="M7" s="14">
-        <v>-48.158999999999999</v>
-      </c>
-      <c r="N7" s="14">
-        <v>-38.114100000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0.8427</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0.75190000000000001</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0.78939999999999999</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0.64019999999999999</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0.39779999999999999</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="14">
-        <v>1.1195999999999999</v>
-      </c>
-      <c r="K8" s="14">
-        <v>0.84630000000000005</v>
-      </c>
-      <c r="L8" s="14">
-        <v>0.85589999999999999</v>
-      </c>
-      <c r="M8" s="14">
-        <v>0.70950000000000002</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0.64229999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="19">
-        <v>1.2685999999999999</v>
-      </c>
-      <c r="D9" s="19">
-        <v>1.1422000000000001</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1.2203999999999999</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0.60740000000000005</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="14">
-        <v>1.6956</v>
-      </c>
-      <c r="K9" s="14">
-        <v>1.2551000000000001</v>
-      </c>
-      <c r="L9" s="14">
-        <v>1.304</v>
-      </c>
-      <c r="M9" s="14">
-        <v>1.0880000000000001</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="19">
-        <v>0.76439999999999997</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0.8226</v>
-      </c>
-      <c r="E10" s="19">
-        <v>0.82250000000000001</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0.83320000000000005</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="I10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0.88649999999999995</v>
-      </c>
-      <c r="K10" s="14">
-        <v>0.89759999999999995</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0.8841</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0.88460000000000005</v>
-      </c>
-      <c r="N10" s="14"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="19">
-        <v>0.13370000000000001</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0.13109999999999999</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0.12809999999999999</v>
-      </c>
-      <c r="F11" s="19">
-        <v>0.1231</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="I11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0.11459999999999999</v>
-      </c>
-      <c r="K11" s="14">
-        <v>0.1158</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0.1145</v>
-      </c>
-      <c r="M11" s="14">
-        <v>0.1057</v>
-      </c>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0.65149999999999997</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0.58430000000000004</v>
-      </c>
-      <c r="E12" s="19">
-        <v>0.64759999999999995</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0.41770000000000002</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="I12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0.87980000000000003</v>
-      </c>
-      <c r="K12" s="14">
-        <v>0.45390000000000003</v>
-      </c>
-      <c r="L12" s="14">
-        <v>0.45390000000000003</v>
-      </c>
-      <c r="M12" s="14">
-        <v>0.2021</v>
-      </c>
-      <c r="N12" s="14"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="14">
-        <v>1</v>
-      </c>
-      <c r="D22" s="14">
-        <v>0.87705200000000005</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0.81367100000000003</v>
-      </c>
-      <c r="F22" s="14">
-        <v>0.75576500000000002</v>
-      </c>
-      <c r="G22" s="14">
-        <v>0.77960600000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="29">
-        <v>0.87705200000000005</v>
-      </c>
-      <c r="D23" s="14">
-        <v>1</v>
-      </c>
-      <c r="E23" s="14">
-        <v>0.89122900000000005</v>
-      </c>
-      <c r="F23" s="14">
-        <v>0.80469299999999999</v>
-      </c>
-      <c r="G23" s="14">
-        <v>0.79859500000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="29">
-        <v>0.81367100000000003</v>
-      </c>
-      <c r="D24" s="29">
-        <v>0.89122900000000005</v>
-      </c>
-      <c r="E24" s="14">
-        <v>1</v>
-      </c>
-      <c r="F24" s="14">
-        <v>0.84242399999999995</v>
-      </c>
-      <c r="G24" s="14">
-        <v>0.805728</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="31">
-        <v>0.75576500000000002</v>
-      </c>
-      <c r="D25" s="29">
-        <v>0.80469299999999999</v>
-      </c>
-      <c r="E25" s="29">
-        <v>0.84242399999999995</v>
-      </c>
-      <c r="F25" s="14">
-        <v>1</v>
-      </c>
-      <c r="G25" s="14">
-        <v>0.81971700000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="32">
-        <v>0.77960600000000002</v>
-      </c>
-      <c r="D26" s="30">
-        <v>0.79859500000000005</v>
-      </c>
-      <c r="E26" s="30">
-        <v>0.805728</v>
-      </c>
-      <c r="F26" s="30">
-        <v>0.81971700000000003</v>
-      </c>
-      <c r="G26" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="19">
-        <v>16.797000000000001</v>
-      </c>
-      <c r="D27" s="19">
-        <v>15.7462</v>
-      </c>
-      <c r="E27" s="19">
-        <v>16.381499999999999</v>
-      </c>
-      <c r="F27" s="19">
-        <v>13.228899999999999</v>
-      </c>
-      <c r="G27" s="19">
-        <v>8.0864999999999991</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="19">
-        <v>0.8427</v>
-      </c>
-      <c r="D28" s="19">
-        <v>0.75190000000000001</v>
-      </c>
-      <c r="E28" s="19">
-        <v>0.78939999999999999</v>
-      </c>
-      <c r="F28" s="19">
-        <v>0.64019999999999999</v>
-      </c>
-      <c r="G28" s="19">
-        <v>0.39779999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="19">
-        <v>-59.4771</v>
-      </c>
-      <c r="D29" s="19">
-        <v>-53.552599999999998</v>
-      </c>
-      <c r="E29" s="19">
-        <v>-54.8996</v>
-      </c>
-      <c r="F29" s="19">
-        <v>-55.833599999999997</v>
-      </c>
-      <c r="G29" s="19">
-        <v>-58.866799999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
+  <mergeCells count="4">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="I18:N18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/analysisFiles/Momentum-Series1.xlsx
+++ b/data/analysisFiles/Momentum-Series1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitgupta/Documents/STUDY/git/anks/github_page/data/analysisFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0D696E-A9CE-4042-B207-AEF820AE9491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B47832-91E7-8F43-84D2-F5AAD9F9F5BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{002A3E7F-AFC8-3B44-ABFB-1DAEE9CF9586}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{002A3E7F-AFC8-3B44-ABFB-1DAEE9CF9586}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Article 0" sheetId="1" r:id="rId1"/>
+    <sheet name="Article-1" sheetId="3" r:id="rId2"/>
+    <sheet name="Article - 1 Relative Momentum" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="140">
   <si>
     <t>Nifty 200 Momentum 30 Index</t>
   </si>
@@ -111,29 +111,6 @@
     <t>Period</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Figure 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Relative Momentum Strategies</t>
-    </r>
-  </si>
-  <si>
     <t>Strategy - 12 Month</t>
   </si>
   <si>
@@ -149,9 +126,6 @@
     <t>Indicator - 1 Month</t>
   </si>
   <si>
-    <t>Base Momentum Prototype - 2008 Onwards</t>
-  </si>
-  <si>
     <t>Base Momentum Prototype - 2010 Onwards</t>
   </si>
   <si>
@@ -159,29 +133,6 @@
   </si>
   <si>
     <t>CAGR</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Table 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Base Prototype Return Correlations. </t>
-    </r>
   </si>
   <si>
     <t>Max Drawdown (%)</t>
@@ -205,7 +156,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Table 2(a)</t>
+      <t>Table 1 (a)</t>
     </r>
     <r>
       <rPr>
@@ -239,7 +190,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Table 2(b)</t>
+      <t>Table 1 (b)</t>
     </r>
     <r>
       <rPr>
@@ -273,7 +224,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Table 2(c)</t>
+      <t>Table 1 (c)</t>
     </r>
     <r>
       <rPr>
@@ -307,7 +258,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Table 2(d)</t>
+      <t>Table 1 (d)</t>
     </r>
     <r>
       <rPr>
@@ -331,16 +282,470 @@
       <t>Period: 1 June 2023 -  May 2024</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Base Prototype Return Correlations. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Jan 2008 - June 2024)</t>
+    </r>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>MACD1</t>
+  </si>
+  <si>
+    <t>MACD2</t>
+  </si>
+  <si>
+    <t>MACD3</t>
+  </si>
+  <si>
+    <t>MACD4</t>
+  </si>
+  <si>
+    <t>MACD5</t>
+  </si>
+  <si>
+    <t>Trend Style</t>
+  </si>
+  <si>
+    <t>Returns (12M)</t>
+  </si>
+  <si>
+    <t>Returns (6M)</t>
+  </si>
+  <si>
+    <t>Returns (3M)</t>
+  </si>
+  <si>
+    <t>Returns (1M)</t>
+  </si>
+  <si>
+    <t>RiskAdjustedReturn (12M)</t>
+  </si>
+  <si>
+    <t>RiskAdjustedReturn (6M)</t>
+  </si>
+  <si>
+    <t>RiskAdjustedReturn (3M)</t>
+  </si>
+  <si>
+    <t>ExpMovingAverage (12M)</t>
+  </si>
+  <si>
+    <t>ExpMovingAverage (6M)</t>
+  </si>
+  <si>
+    <t>ExpMovingAverage (3M)</t>
+  </si>
+  <si>
+    <t>MACD (12M, 6M, 3M)</t>
+  </si>
+  <si>
+    <t>MACD (12M, 3M, 1M)</t>
+  </si>
+  <si>
+    <t>MACD (6M, 3M, 1M)</t>
+  </si>
+  <si>
+    <t>MACD (6M, 1M, 10D)</t>
+  </si>
+  <si>
+    <t>MACD (3M, 1M, 10D)</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>MA1</t>
+  </si>
+  <si>
+    <t>MA2</t>
+  </si>
+  <si>
+    <t>MA3</t>
+  </si>
+  <si>
+    <t>XO1</t>
+  </si>
+  <si>
+    <t>XO2</t>
+  </si>
+  <si>
+    <t>XO3</t>
+  </si>
+  <si>
+    <t>Combo (S1, S2)</t>
+  </si>
+  <si>
+    <t>Combo (R1, R3)</t>
+  </si>
+  <si>
+    <t>Combo (R1, S2)</t>
+  </si>
+  <si>
+    <t>Combo (R1, MACD3)</t>
+  </si>
+  <si>
+    <t>Combo (R1, XO2)</t>
+  </si>
+  <si>
+    <t>Combo (R1, XO2, MACD2)</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>MA Cross Over (6M,12M)</t>
+  </si>
+  <si>
+    <t>MA Cross Over( 3M,6M)</t>
+  </si>
+  <si>
+    <t>MA Cross Over (1M,3M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Momentum Prototype - 2010 Onwards					</t>
+  </si>
+  <si>
+    <t>Performance of Momentum Strategies based on different Trend Indicators</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>Jan 2008 - June 2024</t>
+  </si>
+  <si>
+    <t>Jan 2020 - June 2024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Performance of Momentum Strategies based on different Trend Indicators</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Figure i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Relative Momentum Strategies</t>
+    </r>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Rebalancing Day of Month</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>9th</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>11th</t>
+  </si>
+  <si>
+    <t>12th</t>
+  </si>
+  <si>
+    <t>13th</t>
+  </si>
+  <si>
+    <t>14th</t>
+  </si>
+  <si>
+    <t>15th</t>
+  </si>
+  <si>
+    <t>16th</t>
+  </si>
+  <si>
+    <t>17th</t>
+  </si>
+  <si>
+    <t>18th</t>
+  </si>
+  <si>
+    <t>19th</t>
+  </si>
+  <si>
+    <t>20th</t>
+  </si>
+  <si>
+    <t>21st</t>
+  </si>
+  <si>
+    <t>22nd</t>
+  </si>
+  <si>
+    <t>23rd</t>
+  </si>
+  <si>
+    <t>24th</t>
+  </si>
+  <si>
+    <t>25th</t>
+  </si>
+  <si>
+    <t>26th</t>
+  </si>
+  <si>
+    <t>27th</t>
+  </si>
+  <si>
+    <t>28th</t>
+  </si>
+  <si>
+    <t>Performance of Momentum Strategies based on varying rebalancing Days</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>SemiAnnually</t>
+  </si>
+  <si>
+    <t>Rebalancing Frequency</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Performance of Momentum Strategies  with different rebalancing Frequencies</t>
+  </si>
+  <si>
+    <t>Total Cost (INR)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Performance of Momentum Strategies on different rebalancing frequencies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Performance of Momentum Strategies rebalanced on different days of Month</t>
+    </r>
+  </si>
+  <si>
+    <t>One way Cost (in bps)</t>
+  </si>
+  <si>
+    <t>0 bps</t>
+  </si>
+  <si>
+    <t>Impact of Transaction Costs on Momentum Strategies</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Impact of transaction costs on Momentum Strategies</t>
+    </r>
+  </si>
+  <si>
+    <t>6M Trend Indicator</t>
+  </si>
+  <si>
+    <t>12M Trend Indicator</t>
+  </si>
+  <si>
+    <t>3M Trend Indicator</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="mmm\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="#\ &quot;bps&quot;"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -480,8 +885,90 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,8 +1011,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -562,11 +1055,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -638,34 +1221,300 @@
     <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -679,6 +1528,123 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>985344</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>985344</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>109482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8ADFF98-58A4-454E-A4F3-C0DF49807B57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18666810" y="29571292"/>
+          <a:ext cx="0" cy="1182414"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>306551</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>186121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>306551</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>109483</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89436000-C6CB-1546-9580-4A01D2D579B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20363792" y="29571293"/>
+          <a:ext cx="0" cy="1182414"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1657,7 +2623,7 @@
   <dimension ref="B1:N15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1688,19 +2654,19 @@
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="2:14" s="7" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -2114,32 +3080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5503420-18E7-3445-9600-19C8C9F65792}">
-  <dimension ref="G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322F6168-EE58-3140-8958-4F2142B3E126}">
+  <dimension ref="B3:AC169"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322F6168-EE58-3140-8958-4F2142B3E126}">
-  <dimension ref="B3:N47"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O128" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="S158" sqref="S158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2152,96 +3097,103 @@
     <col min="9" max="9" width="21.1640625" style="16" customWidth="1"/>
     <col min="10" max="13" width="14" style="16" customWidth="1"/>
     <col min="14" max="14" width="10.33203125" style="16" customWidth="1"/>
-    <col min="15" max="16384" width="16" style="16"/>
+    <col min="15" max="15" width="16" style="16"/>
+    <col min="16" max="16" width="7.5" style="16" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" style="16" customWidth="1"/>
+    <col min="18" max="18" width="14" style="16" customWidth="1"/>
+    <col min="19" max="19" width="15.1640625" style="16" customWidth="1"/>
+    <col min="20" max="21" width="16" style="16"/>
+    <col min="22" max="22" width="15.1640625" style="16" customWidth="1"/>
+    <col min="23" max="16384" width="16" style="16"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="I3" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+      <c r="B3" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="I3" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
     </row>
     <row r="4" spans="2:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
       <c r="C4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>19</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="34">
+        <v>26</v>
+      </c>
+      <c r="C5" s="30">
         <v>1280.0467000000001</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="30">
         <v>1103.5152</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="30">
         <v>1207.3042</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="30">
         <v>769.09299999999996</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="30">
         <v>358.53039999999999</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="34">
+        <v>26</v>
+      </c>
+      <c r="J5" s="30">
         <v>1487.0641000000001</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="30">
         <v>825.22860000000003</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="30">
         <v>819.24530000000004</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="30">
         <v>556.53589999999997</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="30">
         <v>422.26150000000001</v>
       </c>
     </row>
@@ -2249,37 +3201,37 @@
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="30">
         <v>16.797000000000001</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="30">
         <v>15.7462</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="30">
         <v>16.381499999999999</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="30">
         <v>13.228899999999999</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="30">
         <v>8.0864999999999991</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="30">
         <v>20.586500000000001</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="30">
         <v>15.761100000000001</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="30">
         <v>15.7027</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="30">
         <v>12.641500000000001</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="30">
         <v>10.5052</v>
       </c>
     </row>
@@ -2287,37 +3239,37 @@
       <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="30">
         <v>19.933299999999999</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="30">
         <v>20.9405</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="30">
         <v>20.752300000000002</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="30">
         <v>20.664100000000001</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="30">
         <v>20.328600000000002</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="30">
         <v>18.387699999999999</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="30">
         <v>18.623000000000001</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="30">
         <v>18.347300000000001</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="30">
         <v>17.818200000000001</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="30">
         <v>16.356300000000001</v>
       </c>
     </row>
@@ -2325,37 +3277,37 @@
       <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="30">
         <v>-59.4771</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="30">
         <v>-53.552599999999998</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="30">
         <v>-54.8996</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="30">
         <v>-55.833599999999997</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="30">
         <v>-58.866799999999998</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="30">
         <v>-37.325499999999998</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="30">
         <v>-45.206699999999998</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="30">
         <v>-43.596400000000003</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="30">
         <v>-48.158999999999999</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="30">
         <v>-38.114100000000001</v>
       </c>
     </row>
@@ -2363,37 +3315,37 @@
       <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="30">
         <v>0.8427</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="30">
         <v>0.75190000000000001</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="30">
         <v>0.78939999999999999</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="30">
         <v>0.64019999999999999</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="30">
         <v>0.39779999999999999</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="30">
         <v>1.1195999999999999</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="30">
         <v>0.84630000000000005</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="30">
         <v>0.85589999999999999</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="30">
         <v>0.70950000000000002</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="30">
         <v>0.64229999999999998</v>
       </c>
     </row>
@@ -2401,37 +3353,37 @@
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="30">
         <v>1.2685999999999999</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="30">
         <v>1.1422000000000001</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="30">
         <v>1.2203999999999999</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="30">
         <v>1.0009999999999999</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="30">
         <v>0.60740000000000005</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="30">
         <v>1.6956</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="30">
         <v>1.2551000000000001</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="30">
         <v>1.304</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="30">
         <v>1.0880000000000001</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="30">
         <v>0.97450000000000003</v>
       </c>
     </row>
@@ -2439,110 +3391,110 @@
       <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="30">
         <v>0.76439999999999997</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="30">
         <v>0.8226</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="30">
         <v>0.82250000000000001</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="30">
         <v>0.83320000000000005</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="30"/>
       <c r="I11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="30">
         <v>0.88649999999999995</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="30">
         <v>0.89759999999999995</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="30">
         <v>0.8841</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="30">
         <v>0.88460000000000005</v>
       </c>
-      <c r="N11" s="34"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="30">
         <v>0.13370000000000001</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="30">
         <v>0.13109999999999999</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="30">
         <v>0.12809999999999999</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="30">
         <v>0.1231</v>
       </c>
-      <c r="G12" s="34"/>
+      <c r="G12" s="30"/>
       <c r="I12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="30">
         <v>0.11459999999999999</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="30">
         <v>0.1158</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="30">
         <v>0.1145</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="30">
         <v>0.1057</v>
       </c>
-      <c r="N12" s="34"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="30">
         <v>0.65149999999999997</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="30">
         <v>0.58430000000000004</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="30">
         <v>0.64759999999999995</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="30">
         <v>0.41770000000000002</v>
       </c>
-      <c r="G13" s="34"/>
+      <c r="G13" s="30"/>
       <c r="I13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="30">
         <v>0.87980000000000003</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="30">
         <v>0.45390000000000003</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="30">
         <v>0.45390000000000003</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="30">
         <v>0.2021</v>
       </c>
-      <c r="N13" s="34"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>33</v>
+      <c r="B15" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
@@ -2550,93 +3502,93 @@
       <c r="I16" s="19"/>
     </row>
     <row r="18" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="I18" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
+      <c r="B18" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="I18" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
     </row>
     <row r="19" spans="2:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>19</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="34">
+        <v>26</v>
+      </c>
+      <c r="C20" s="30">
         <v>319.76299999999998</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="30">
         <v>301.41609999999997</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="30">
         <v>314.05239999999998</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="30">
         <v>274.26659999999998</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="30">
         <v>257.46429999999998</v>
       </c>
-      <c r="H20" s="33"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="34">
+        <v>26</v>
+      </c>
+      <c r="J20" s="30">
         <v>138.9331</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="30">
         <v>137.4727</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="30">
         <v>132.17590000000001</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20" s="30">
         <v>133.15459999999999</v>
       </c>
-      <c r="N20" s="34">
+      <c r="N20" s="30">
         <v>120.5167</v>
       </c>
     </row>
@@ -2644,38 +3596,38 @@
       <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="30">
         <v>32.148400000000002</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="30">
         <v>30.289100000000001</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="30">
         <v>31.578600000000002</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="30">
         <v>27.373000000000001</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="30">
         <v>25.456499999999998</v>
       </c>
-      <c r="H21" s="33"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="30">
         <v>38.933100000000003</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="30">
         <v>37.472700000000003</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="30">
         <v>32.175899999999999</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="30">
         <v>33.154600000000002</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N21" s="30">
         <v>20.5167</v>
       </c>
     </row>
@@ -2683,38 +3635,38 @@
       <c r="B22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="30">
         <v>19.230899999999998</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="30">
         <v>19.2699</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="30">
         <v>18.5137</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="30">
         <v>18.2851</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="30">
         <v>16.0182</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="30">
         <v>13.271599999999999</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="30">
         <v>13.530799999999999</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="30">
         <v>12.9902</v>
       </c>
-      <c r="M22" s="34">
+      <c r="M22" s="30">
         <v>12.4384</v>
       </c>
-      <c r="N22" s="34">
+      <c r="N22" s="30">
         <v>9.6164000000000005</v>
       </c>
     </row>
@@ -2722,38 +3674,38 @@
       <c r="B23" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="30">
         <v>-19.399899999999999</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="30">
         <v>-22.342600000000001</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="30">
         <v>-27.772500000000001</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="30">
         <v>-22.961600000000001</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="30">
         <v>-17.131799999999998</v>
       </c>
-      <c r="H23" s="33"/>
+      <c r="H23" s="29"/>
       <c r="I23" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="30">
         <v>-6.8754999999999997</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="30">
         <v>-6.4333999999999998</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="30">
         <v>-7.0643000000000002</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23" s="30">
         <v>-7.0824999999999996</v>
       </c>
-      <c r="N23" s="34">
+      <c r="N23" s="30">
         <v>-6.5774999999999997</v>
       </c>
     </row>
@@ -2761,38 +3713,38 @@
       <c r="B24" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="30">
         <v>1.6717</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="30">
         <v>1.5718000000000001</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="30">
         <v>1.7057</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="30">
         <v>1.4970000000000001</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="30">
         <v>1.5891999999999999</v>
       </c>
-      <c r="H24" s="33"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="30">
         <v>2.9336000000000002</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24" s="30">
         <v>2.7694000000000001</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L24" s="30">
         <v>2.4769000000000001</v>
       </c>
-      <c r="M24" s="34">
+      <c r="M24" s="30">
         <v>2.6655000000000002</v>
       </c>
-      <c r="N24" s="34">
+      <c r="N24" s="30">
         <v>2.1335000000000002</v>
       </c>
     </row>
@@ -2800,38 +3752,38 @@
       <c r="B25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="30">
         <v>2.6212</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="30">
         <v>2.5225</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="30">
         <v>2.7707000000000002</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="30">
         <v>2.4014000000000002</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="30">
         <v>2.5722</v>
       </c>
-      <c r="H25" s="33"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="30">
         <v>4.7426000000000004</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="30">
         <v>4.6555999999999997</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="30">
         <v>4.0343</v>
       </c>
-      <c r="M25" s="34">
+      <c r="M25" s="30">
         <v>4.4790999999999999</v>
       </c>
-      <c r="N25" s="34">
+      <c r="N25" s="30">
         <v>3.4851999999999999</v>
       </c>
     </row>
@@ -2839,217 +3791,217 @@
       <c r="B26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="30">
         <v>0.89580000000000004</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="30">
         <v>0.8841</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="30">
         <v>0.88219999999999998</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="30">
         <v>0.89800000000000002</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="33"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="29"/>
       <c r="I26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26" s="30">
         <v>0.99580000000000002</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="30">
         <v>0.98160000000000003</v>
       </c>
-      <c r="L26" s="34">
+      <c r="L26" s="30">
         <v>0.96619999999999995</v>
       </c>
-      <c r="M26" s="34">
+      <c r="M26" s="30">
         <v>0.94650000000000001</v>
       </c>
-      <c r="N26" s="34"/>
+      <c r="N26" s="30"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="30">
         <v>0.12909999999999999</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="30">
         <v>0.13189999999999999</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="30">
         <v>0.121</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="30">
         <v>0.114</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="33"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27" s="30">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="30">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="30">
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="M27" s="34">
+      <c r="M27" s="30">
         <v>8.48E-2</v>
       </c>
-      <c r="N27" s="34"/>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="30">
         <v>0.51829999999999998</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="30">
         <v>0.36609999999999998</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="30">
         <v>0.50560000000000005</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="30">
         <v>0.16800000000000001</v>
       </c>
-      <c r="G28" s="34"/>
+      <c r="G28" s="30"/>
       <c r="I28" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28" s="30">
         <v>2.0042</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="30">
         <v>1.7487999999999999</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L28" s="30">
         <v>1.2834000000000001</v>
       </c>
-      <c r="M28" s="34">
+      <c r="M28" s="30">
         <v>1.488</v>
       </c>
-      <c r="N28" s="34"/>
+      <c r="N28" s="30"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="14"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="I30" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
+      <c r="B30" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="I30" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="19"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="19"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="19"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="19"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
     </row>
     <row r="37" spans="2:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C37" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="21" t="s">
         <v>18</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B38" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -3069,7 +4021,7 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="25">
         <v>0.87705200000000005</v>
@@ -3089,7 +4041,7 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="25">
         <v>0.81367100000000003</v>
@@ -3109,7 +4061,7 @@
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="27">
         <v>0.75576500000000002</v>
@@ -3129,7 +4081,7 @@
     </row>
     <row r="42" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="28">
         <v>0.77960600000000002</v>
@@ -3149,7 +4101,7 @@
     </row>
     <row r="43" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B43" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43" s="17">
         <v>16.797000000000001</v>
@@ -3189,7 +4141,7 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C45" s="17">
         <v>-59.4771</v>
@@ -3209,16 +4161,2416 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P51" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="61"/>
+      <c r="U51" s="61"/>
+      <c r="V51" s="61"/>
+      <c r="W51" s="61"/>
+    </row>
+    <row r="52" spans="2:23" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="S52" s="59"/>
+      <c r="T52" s="60"/>
+      <c r="U52" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="V52" s="59"/>
+      <c r="W52" s="59"/>
+    </row>
+    <row r="53" spans="2:23" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="29"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="P53" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q53" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T53" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="U53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V53" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W53" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="29"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="P54" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q54" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="R54" s="39">
+        <v>16.797000000000001</v>
+      </c>
+      <c r="S54" s="40">
+        <v>-59.4771</v>
+      </c>
+      <c r="T54" s="42">
+        <v>0.8427</v>
+      </c>
+      <c r="U54" s="12">
+        <v>22.863399999999999</v>
+      </c>
+      <c r="V54" s="40">
+        <v>-37.325499999999998</v>
+      </c>
+      <c r="W54" s="43">
+        <v>1.0513999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B55" s="29"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="P55" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q55" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="R55" s="39">
+        <v>15.7462</v>
+      </c>
+      <c r="S55" s="40">
+        <v>-53.552599999999998</v>
+      </c>
+      <c r="T55" s="41">
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="U55" s="12">
+        <v>17.474299999999999</v>
+      </c>
+      <c r="V55" s="40">
+        <v>-44.574800000000003</v>
+      </c>
+      <c r="W55" s="12">
+        <v>0.78490000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B56" s="29"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="P56" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q56" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="R56" s="39">
+        <v>16.381499999999999</v>
+      </c>
+      <c r="S56" s="40">
+        <v>-54.8996</v>
+      </c>
+      <c r="T56" s="42">
+        <v>0.78939999999999999</v>
+      </c>
+      <c r="U56" s="12">
+        <v>21.067499999999999</v>
+      </c>
+      <c r="V56" s="40">
+        <v>-39.426900000000003</v>
+      </c>
+      <c r="W56" s="43">
+        <v>0.99460000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B57" s="29"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="P57" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q57" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="R57" s="46">
+        <v>13.228899999999999</v>
+      </c>
+      <c r="S57" s="47">
+        <v>-55.833599999999997</v>
+      </c>
+      <c r="T57" s="48">
+        <v>0.64019999999999999</v>
+      </c>
+      <c r="U57" s="46">
+        <v>17.1312</v>
+      </c>
+      <c r="V57" s="47">
+        <v>-37.127200000000002</v>
+      </c>
+      <c r="W57" s="46">
+        <v>0.82540000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B58" s="29"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="P58" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q58" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R58" s="39">
+        <v>15.5825</v>
+      </c>
+      <c r="S58" s="40">
+        <v>-57.328499999999998</v>
+      </c>
+      <c r="T58" s="42">
+        <v>0.82950000000000002</v>
+      </c>
+      <c r="U58" s="12">
+        <v>23.063400000000001</v>
+      </c>
+      <c r="V58" s="40">
+        <v>-34.588999999999999</v>
+      </c>
+      <c r="W58" s="43">
+        <v>1.1198999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B59" s="29"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="P59" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q59" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R59" s="39">
+        <v>16.254200000000001</v>
+      </c>
+      <c r="S59" s="40">
+        <v>-54.241599999999998</v>
+      </c>
+      <c r="T59" s="42">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="U59" s="12">
+        <v>20.995899999999999</v>
+      </c>
+      <c r="V59" s="40">
+        <v>-35.308700000000002</v>
+      </c>
+      <c r="W59" s="43">
+        <v>1.0313000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B60" s="29"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="P60" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q60" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="R60" s="46">
+        <v>16.061199999999999</v>
+      </c>
+      <c r="S60" s="47">
+        <v>-50.0961</v>
+      </c>
+      <c r="T60" s="49">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="U60" s="46">
+        <v>22.404800000000002</v>
+      </c>
+      <c r="V60" s="47">
+        <v>-31.567499999999999</v>
+      </c>
+      <c r="W60" s="50">
+        <v>1.0967</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B61" s="29"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="P61" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q61" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="R61" s="39">
+        <v>13.8233</v>
+      </c>
+      <c r="S61" s="40">
+        <v>-58.176000000000002</v>
+      </c>
+      <c r="T61" s="41">
+        <v>0.71689999999999998</v>
+      </c>
+      <c r="U61" s="12">
+        <v>22.502800000000001</v>
+      </c>
+      <c r="V61" s="40">
+        <v>-32.915399999999998</v>
+      </c>
+      <c r="W61" s="43">
+        <v>1.0972</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B62" s="29"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="P62" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q62" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="R62" s="39">
+        <v>15.4468</v>
+      </c>
+      <c r="S62" s="40">
+        <v>-53.086199999999998</v>
+      </c>
+      <c r="T62" s="41">
+        <v>0.78190000000000004</v>
+      </c>
+      <c r="U62" s="12">
+        <v>20.604900000000001</v>
+      </c>
+      <c r="V62" s="40">
+        <v>-36.920999999999999</v>
+      </c>
+      <c r="W62" s="12">
+        <v>0.97260000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B63" s="29"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="P63" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q63" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="R63" s="46">
+        <v>13.677</v>
+      </c>
+      <c r="S63" s="47">
+        <v>-53.119</v>
+      </c>
+      <c r="T63" s="48">
+        <v>0.67789999999999995</v>
+      </c>
+      <c r="U63" s="46">
+        <v>19.623000000000001</v>
+      </c>
+      <c r="V63" s="47">
+        <v>-34.340200000000003</v>
+      </c>
+      <c r="W63" s="46">
+        <v>0.93289999999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B64" s="29"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="P64" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q64" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="R64" s="39">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="S64" s="40">
+        <v>-53.819800000000001</v>
+      </c>
+      <c r="T64" s="41">
+        <v>0.70709999999999995</v>
+      </c>
+      <c r="U64" s="12">
+        <v>28.192299999999999</v>
+      </c>
+      <c r="V64" s="40">
+        <v>-46.199199999999998</v>
+      </c>
+      <c r="W64" s="43">
+        <v>1.2722</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B65" s="29"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="P65" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q65" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="R65" s="39">
+        <v>16.430700000000002</v>
+      </c>
+      <c r="S65" s="40">
+        <v>-53.604999999999997</v>
+      </c>
+      <c r="T65" s="41">
+        <v>0.74390000000000001</v>
+      </c>
+      <c r="U65" s="12">
+        <v>29.946300000000001</v>
+      </c>
+      <c r="V65" s="40">
+        <v>-40.831899999999997</v>
+      </c>
+      <c r="W65" s="43">
+        <v>1.4200999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B66" s="29"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="P66" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q66" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="R66" s="46">
+        <v>15.485900000000001</v>
+      </c>
+      <c r="S66" s="47">
+        <v>-57.392400000000002</v>
+      </c>
+      <c r="T66" s="48">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="U66" s="46">
+        <v>31.517499999999998</v>
+      </c>
+      <c r="V66" s="47">
+        <v>-38.683199999999999</v>
+      </c>
+      <c r="W66" s="50">
+        <v>1.5310999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B67" s="29"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="P67" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q67" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="R67" s="39">
+        <v>17.399799999999999</v>
+      </c>
+      <c r="S67" s="40">
+        <v>-64.157399999999996</v>
+      </c>
+      <c r="T67" s="41">
+        <v>0.71209999999999996</v>
+      </c>
+      <c r="U67" s="12">
+        <v>24.2742</v>
+      </c>
+      <c r="V67" s="40">
+        <v>-40.955800000000004</v>
+      </c>
+      <c r="W67" s="43">
+        <v>1.0712999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B68" s="29"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="P68" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q68" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="R68" s="39">
+        <v>18.557099999999998</v>
+      </c>
+      <c r="S68" s="40">
+        <v>-59.466799999999999</v>
+      </c>
+      <c r="T68" s="41">
+        <v>0.76080000000000003</v>
+      </c>
+      <c r="U68" s="12">
+        <v>23.785599999999999</v>
+      </c>
+      <c r="V68" s="40">
+        <v>-40.884999999999998</v>
+      </c>
+      <c r="W68" s="43">
+        <v>1.0649</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B69" s="29"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="P69" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q69" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="R69" s="39">
+        <v>16.904699999999998</v>
+      </c>
+      <c r="S69" s="40">
+        <v>-62.497799999999998</v>
+      </c>
+      <c r="T69" s="41">
+        <v>0.70289999999999997</v>
+      </c>
+      <c r="U69" s="12">
+        <v>21.364599999999999</v>
+      </c>
+      <c r="V69" s="40">
+        <v>-42.799500000000002</v>
+      </c>
+      <c r="W69" s="12">
+        <v>0.95740000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B70" s="29"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="P70" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q70" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="R70" s="39">
+        <v>14.882400000000001</v>
+      </c>
+      <c r="S70" s="40">
+        <v>-64.083299999999994</v>
+      </c>
+      <c r="T70" s="41">
+        <v>0.62790000000000001</v>
+      </c>
+      <c r="U70" s="12">
+        <v>20.683700000000002</v>
+      </c>
+      <c r="V70" s="40">
+        <v>-38.629899999999999</v>
+      </c>
+      <c r="W70" s="12">
+        <v>0.95409999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B71" s="29"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="P71" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q71" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="R71" s="46">
+        <v>17.195799999999998</v>
+      </c>
+      <c r="S71" s="47">
+        <v>-59.443199999999997</v>
+      </c>
+      <c r="T71" s="48">
+        <v>0.73519999999999996</v>
+      </c>
+      <c r="U71" s="46">
+        <v>24.0562</v>
+      </c>
+      <c r="V71" s="47">
+        <v>-39.863900000000001</v>
+      </c>
+      <c r="W71" s="50">
+        <v>1.0826</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B72" s="29"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="P72" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q72" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="R72" s="39">
+        <v>17.8276</v>
+      </c>
+      <c r="S72" s="40">
+        <v>-54.994500000000002</v>
+      </c>
+      <c r="T72" s="42">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="U72" s="12">
+        <v>25.783200000000001</v>
+      </c>
+      <c r="V72" s="40">
+        <v>-34.898299999999999</v>
+      </c>
+      <c r="W72" s="43">
+        <v>1.2062999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B73" s="29"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="P73" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q73" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="R73" s="39">
+        <v>16.305199999999999</v>
+      </c>
+      <c r="S73" s="40">
+        <v>-54.333599999999997</v>
+      </c>
+      <c r="T73" s="42">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="U73" s="12">
+        <v>22.0562</v>
+      </c>
+      <c r="V73" s="40">
+        <v>-34.567999999999998</v>
+      </c>
+      <c r="W73" s="43">
+        <v>1.0797000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B74" s="29"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="P74" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q74" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R74" s="39">
+        <v>15.854900000000001</v>
+      </c>
+      <c r="S74" s="40">
+        <v>-54.360799999999998</v>
+      </c>
+      <c r="T74" s="42">
+        <v>0.80889999999999995</v>
+      </c>
+      <c r="U74" s="12">
+        <v>19.096900000000002</v>
+      </c>
+      <c r="V74" s="40">
+        <v>-37.465699999999998</v>
+      </c>
+      <c r="W74" s="12">
+        <v>0.90510000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B75" s="29"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="P75" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q75" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="R75" s="39">
+        <v>17.6479</v>
+      </c>
+      <c r="S75" s="40">
+        <v>-60.674100000000003</v>
+      </c>
+      <c r="T75" s="42">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="U75" s="12">
+        <v>22.183499999999999</v>
+      </c>
+      <c r="V75" s="40">
+        <v>-37.479300000000002</v>
+      </c>
+      <c r="W75" s="43">
+        <v>1.0166999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B76" s="29"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="P76" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q76" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="R76" s="39">
+        <v>16.375599999999999</v>
+      </c>
+      <c r="S76" s="40">
+        <v>-54.057000000000002</v>
+      </c>
+      <c r="T76" s="42">
+        <v>0.77859999999999996</v>
+      </c>
+      <c r="U76" s="12">
+        <v>27.011500000000002</v>
+      </c>
+      <c r="V76" s="40">
+        <v>-40.788800000000002</v>
+      </c>
+      <c r="W76" s="43">
+        <v>1.2662</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B77" s="29"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="P77" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q77" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="R77" s="46">
+        <v>16.026499999999999</v>
+      </c>
+      <c r="S77" s="47">
+        <v>-54.601100000000002</v>
+      </c>
+      <c r="T77" s="49">
+        <v>0.81420000000000003</v>
+      </c>
+      <c r="U77" s="46">
+        <v>19.543900000000001</v>
+      </c>
+      <c r="V77" s="47">
+        <v>-37.5518</v>
+      </c>
+      <c r="W77" s="46">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P78" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q78" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="R78" s="54">
+        <v>8.0864999999999991</v>
+      </c>
+      <c r="S78" s="55">
+        <v>-58.866799999999998</v>
+      </c>
+      <c r="T78" s="56">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="U78" s="54">
+        <v>14.5596</v>
+      </c>
+      <c r="V78" s="55">
+        <v>-38.114100000000001</v>
+      </c>
+      <c r="W78" s="54">
+        <v>0.76139999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P80" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q80" s="51"/>
+      <c r="R80" s="51"/>
+      <c r="S80" s="51"/>
+    </row>
+    <row r="84" spans="17:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q84" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="R84" s="67"/>
+      <c r="S84" s="67"/>
+      <c r="T84" s="67"/>
+      <c r="U84" s="67"/>
+      <c r="V84" s="32"/>
+      <c r="W84" s="32"/>
+    </row>
+    <row r="85" spans="17:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q85" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="R85" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S85" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T85" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="U85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V85" s="32"/>
+      <c r="W85" s="32"/>
+      <c r="X85" s="32"/>
+      <c r="Y85" s="32"/>
+    </row>
+    <row r="86" spans="17:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Q86" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="R86" s="68">
+        <v>1280.0467000000001</v>
+      </c>
+      <c r="S86" s="66">
+        <v>16.797000000000001</v>
+      </c>
+      <c r="T86" s="66">
+        <v>-59.4771</v>
+      </c>
+      <c r="U86" s="66">
+        <v>0.8427</v>
+      </c>
+      <c r="V86" s="29"/>
+      <c r="W86" s="29"/>
+      <c r="X86" s="29"/>
+      <c r="Y86" s="29"/>
+    </row>
+    <row r="87" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q87" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="R87" s="68">
+        <v>1481.1749</v>
+      </c>
+      <c r="S87" s="66">
+        <v>17.839700000000001</v>
+      </c>
+      <c r="T87" s="66">
+        <v>-58.698799999999999</v>
+      </c>
+      <c r="U87" s="66">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="V87" s="29"/>
+      <c r="W87" s="29"/>
+      <c r="X87" s="29"/>
+      <c r="Y87" s="29"/>
+    </row>
+    <row r="88" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q88" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="R88" s="68">
+        <v>1616.5634</v>
+      </c>
+      <c r="S88" s="66">
+        <v>18.469100000000001</v>
+      </c>
+      <c r="T88" s="66">
+        <v>-57.434199999999997</v>
+      </c>
+      <c r="U88" s="66">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="V88" s="29"/>
+      <c r="W88" s="29"/>
+      <c r="X88" s="29"/>
+      <c r="Y88" s="29"/>
+    </row>
+    <row r="89" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q89" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="R89" s="68">
+        <v>1489.4135000000001</v>
+      </c>
+      <c r="S89" s="66">
+        <v>17.8795</v>
+      </c>
+      <c r="T89" s="66">
+        <v>-56.791699999999999</v>
+      </c>
+      <c r="U89" s="66">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="V89" s="29"/>
+      <c r="W89" s="29"/>
+      <c r="X89" s="29"/>
+      <c r="Y89" s="29"/>
+    </row>
+    <row r="90" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q90" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="R90" s="68">
+        <v>1647.4135000000001</v>
+      </c>
+      <c r="S90" s="66">
+        <v>18.605499999999999</v>
+      </c>
+      <c r="T90" s="66">
+        <v>-57.394500000000001</v>
+      </c>
+      <c r="U90" s="66">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="V90" s="29"/>
+      <c r="W90" s="29"/>
+      <c r="X90" s="29"/>
+      <c r="Y90" s="29"/>
+    </row>
+    <row r="91" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q91" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="R91" s="68">
+        <v>1965.4463000000001</v>
+      </c>
+      <c r="S91" s="72">
+        <v>19.8874</v>
+      </c>
+      <c r="T91" s="66">
+        <v>-56.247700000000002</v>
+      </c>
+      <c r="U91" s="72">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="V91" s="29"/>
+      <c r="W91" s="29"/>
+      <c r="X91" s="29"/>
+      <c r="Y91" s="29"/>
+    </row>
+    <row r="92" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q92" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="R92" s="68">
+        <v>1733</v>
+      </c>
+      <c r="S92" s="72">
+        <v>18.971900000000002</v>
+      </c>
+      <c r="T92" s="66">
+        <v>-56.590299999999999</v>
+      </c>
+      <c r="U92" s="72">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="V92" s="29"/>
+      <c r="W92" s="29"/>
+      <c r="X92" s="29"/>
+      <c r="Y92" s="29"/>
+    </row>
+    <row r="93" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q93" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="R93" s="68">
+        <v>1899.2085999999999</v>
+      </c>
+      <c r="S93" s="72">
+        <v>19.6374</v>
+      </c>
+      <c r="T93" s="66">
+        <v>-56.838799999999999</v>
+      </c>
+      <c r="U93" s="72">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="V93" s="29"/>
+      <c r="W93" s="29"/>
+      <c r="X93" s="29"/>
+      <c r="Y93" s="29"/>
+    </row>
+    <row r="94" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q94" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="R94" s="68">
+        <v>2031.5968</v>
+      </c>
+      <c r="S94" s="72">
+        <v>20.129300000000001</v>
+      </c>
+      <c r="T94" s="66">
+        <v>-56.514899999999997</v>
+      </c>
+      <c r="U94" s="72">
+        <v>1.0074000000000001</v>
+      </c>
+      <c r="V94" s="29"/>
+      <c r="W94" s="29"/>
+      <c r="X94" s="29"/>
+      <c r="Y94" s="29"/>
+    </row>
+    <row r="95" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q95" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="R95" s="68">
+        <v>1861.4405999999999</v>
+      </c>
+      <c r="S95" s="72">
+        <v>19.491099999999999</v>
+      </c>
+      <c r="T95" s="66">
+        <v>-59.001199999999997</v>
+      </c>
+      <c r="U95" s="72">
+        <v>0.9748</v>
+      </c>
+      <c r="V95" s="29"/>
+      <c r="W95" s="29"/>
+      <c r="X95" s="29"/>
+      <c r="Y95" s="29"/>
+    </row>
+    <row r="96" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q96" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="R96" s="68">
+        <v>1889.8798999999999</v>
+      </c>
+      <c r="S96" s="72">
+        <v>19.601500000000001</v>
+      </c>
+      <c r="T96" s="66">
+        <v>-58.648099999999999</v>
+      </c>
+      <c r="U96" s="72">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="V96" s="29"/>
+      <c r="W96" s="29"/>
+      <c r="X96" s="29"/>
+      <c r="Y96" s="29"/>
+    </row>
+    <row r="97" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q97" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="R97" s="68">
+        <v>2138.0920000000001</v>
+      </c>
+      <c r="S97" s="72">
+        <v>20.503699999999998</v>
+      </c>
+      <c r="T97" s="66">
+        <v>-56.028100000000002</v>
+      </c>
+      <c r="U97" s="72">
+        <v>1.0279</v>
+      </c>
+      <c r="V97" s="29"/>
+      <c r="W97" s="29"/>
+      <c r="X97" s="29"/>
+      <c r="Y97" s="29"/>
+    </row>
+    <row r="98" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q98" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="R98" s="68">
+        <v>1833.6665</v>
+      </c>
+      <c r="S98" s="72">
+        <v>19.381699999999999</v>
+      </c>
+      <c r="T98" s="66">
+        <v>-56.956899999999997</v>
+      </c>
+      <c r="U98" s="72">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="V98" s="29"/>
+      <c r="W98" s="29"/>
+      <c r="X98" s="29"/>
+      <c r="Y98" s="29"/>
+    </row>
+    <row r="99" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q99" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="R99" s="68">
+        <v>1816.4376</v>
+      </c>
+      <c r="S99" s="72">
+        <v>19.313099999999999</v>
+      </c>
+      <c r="T99" s="66">
+        <v>-58.867699999999999</v>
+      </c>
+      <c r="U99" s="72">
+        <v>0.97109999999999996</v>
+      </c>
+      <c r="V99" s="29"/>
+      <c r="W99" s="29"/>
+      <c r="X99" s="29"/>
+      <c r="Y99" s="29"/>
+    </row>
+    <row r="100" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q100" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="R100" s="68">
+        <v>1761.2787000000001</v>
+      </c>
+      <c r="S100" s="72">
+        <v>19.089300000000001</v>
+      </c>
+      <c r="T100" s="66">
+        <v>-58.9544</v>
+      </c>
+      <c r="U100" s="72">
+        <v>0.95760000000000001</v>
+      </c>
+      <c r="V100" s="29"/>
+      <c r="W100" s="29"/>
+      <c r="X100" s="29"/>
+      <c r="Y100" s="29"/>
+    </row>
+    <row r="101" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q101" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="R101" s="68">
+        <v>1582.6862000000001</v>
+      </c>
+      <c r="S101" s="66">
+        <v>18.316299999999998</v>
+      </c>
+      <c r="T101" s="66">
+        <v>-60.3827</v>
+      </c>
+      <c r="U101" s="66">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="V101" s="29"/>
+      <c r="W101" s="29"/>
+      <c r="X101" s="29"/>
+      <c r="Y101" s="29"/>
+    </row>
+    <row r="102" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q102" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="R102" s="68">
+        <v>1522.5139999999999</v>
+      </c>
+      <c r="S102" s="66">
+        <v>18.037400000000002</v>
+      </c>
+      <c r="T102" s="66">
+        <v>-58.154499999999999</v>
+      </c>
+      <c r="U102" s="66">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="V102" s="29"/>
+      <c r="W102" s="29"/>
+      <c r="X102" s="29"/>
+      <c r="Y102" s="29"/>
+    </row>
+    <row r="103" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q103" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="R103" s="68">
+        <v>1603.866</v>
+      </c>
+      <c r="S103" s="66">
+        <v>18.412199999999999</v>
+      </c>
+      <c r="T103" s="66">
+        <v>-55.0762</v>
+      </c>
+      <c r="U103" s="66">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="V103" s="29"/>
+      <c r="W103" s="29"/>
+      <c r="X103" s="29"/>
+      <c r="Y103" s="29"/>
+    </row>
+    <row r="104" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q104" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="R104" s="68">
+        <v>1803.8217999999999</v>
+      </c>
+      <c r="S104" s="66">
+        <v>19.262499999999999</v>
+      </c>
+      <c r="T104" s="66">
+        <v>-55.299300000000002</v>
+      </c>
+      <c r="U104" s="66">
+        <v>0.95860000000000001</v>
+      </c>
+      <c r="V104" s="29"/>
+      <c r="W104" s="29"/>
+      <c r="X104" s="29"/>
+      <c r="Y104" s="29"/>
+    </row>
+    <row r="105" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q105" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="R105" s="68">
+        <v>1564.1967999999999</v>
+      </c>
+      <c r="S105" s="66">
+        <v>18.2317</v>
+      </c>
+      <c r="T105" s="66">
+        <v>-54.826900000000002</v>
+      </c>
+      <c r="U105" s="66">
+        <v>0.9133</v>
+      </c>
+      <c r="V105" s="29"/>
+      <c r="W105" s="29"/>
+      <c r="X105" s="29"/>
+      <c r="Y105" s="29"/>
+    </row>
+    <row r="106" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q106" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="R106" s="68">
+        <v>1524.4858999999999</v>
+      </c>
+      <c r="S106" s="66">
+        <v>18.046700000000001</v>
+      </c>
+      <c r="T106" s="66">
+        <v>-54.177100000000003</v>
+      </c>
+      <c r="U106" s="66">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="V106" s="29"/>
+      <c r="W106" s="29"/>
+      <c r="X106" s="29"/>
+      <c r="Y106" s="29"/>
+    </row>
+    <row r="107" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q107" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="R107" s="68">
+        <v>1572.0039999999999</v>
+      </c>
+      <c r="S107" s="66">
+        <v>18.267600000000002</v>
+      </c>
+      <c r="T107" s="66">
+        <v>-53.597499999999997</v>
+      </c>
+      <c r="U107" s="66">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="V107" s="29"/>
+      <c r="W107" s="29"/>
+      <c r="X107" s="29"/>
+      <c r="Y107" s="29"/>
+    </row>
+    <row r="108" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q108" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="R108" s="68">
+        <v>1592.4448</v>
+      </c>
+      <c r="S108" s="66">
+        <v>18.360600000000002</v>
+      </c>
+      <c r="T108" s="66">
+        <v>-54.389699999999998</v>
+      </c>
+      <c r="U108" s="66">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="V108" s="29"/>
+      <c r="W108" s="29"/>
+      <c r="X108" s="29"/>
+      <c r="Y108" s="29"/>
+    </row>
+    <row r="109" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q109" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="R109" s="68">
+        <v>1645.1275000000001</v>
+      </c>
+      <c r="S109" s="66">
+        <v>18.595500000000001</v>
+      </c>
+      <c r="T109" s="66">
+        <v>-55.918399999999998</v>
+      </c>
+      <c r="U109" s="66">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="V109" s="29"/>
+      <c r="W109" s="29"/>
+      <c r="X109" s="29"/>
+      <c r="Y109" s="29"/>
+    </row>
+    <row r="110" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q110" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="R110" s="68">
+        <v>1504.3507</v>
+      </c>
+      <c r="S110" s="66">
+        <v>17.9511</v>
+      </c>
+      <c r="T110" s="66">
+        <v>-55.018999999999998</v>
+      </c>
+      <c r="U110" s="66">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="V110" s="29"/>
+      <c r="W110" s="29"/>
+      <c r="X110" s="29"/>
+      <c r="Y110" s="29"/>
+    </row>
+    <row r="111" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q111" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="R111" s="68">
+        <v>1434.2762</v>
+      </c>
+      <c r="S111" s="66">
+        <v>17.609000000000002</v>
+      </c>
+      <c r="T111" s="66">
+        <v>-57.181399999999996</v>
+      </c>
+      <c r="U111" s="66">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="V111" s="29"/>
+      <c r="W111" s="29"/>
+      <c r="X111" s="29"/>
+      <c r="Y111" s="29"/>
+    </row>
+    <row r="112" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q112" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="R112" s="68">
+        <v>1865.6903</v>
+      </c>
+      <c r="S112" s="66">
+        <v>19.5077</v>
+      </c>
+      <c r="T112" s="66">
+        <v>-57.198900000000002</v>
+      </c>
+      <c r="U112" s="66">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="V112" s="29"/>
+      <c r="W112" s="29"/>
+      <c r="X112" s="29"/>
+      <c r="Y112" s="29"/>
+    </row>
+    <row r="113" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q113" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="R113" s="70">
+        <v>1544.0732</v>
+      </c>
+      <c r="S113" s="71">
+        <v>18.138500000000001</v>
+      </c>
+      <c r="T113" s="71">
+        <v>-57.921199999999999</v>
+      </c>
+      <c r="U113" s="71">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="V113" s="29"/>
+      <c r="W113" s="29"/>
+      <c r="X113" s="29"/>
+      <c r="Y113" s="29"/>
+    </row>
+    <row r="114" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q114" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="R114" s="68">
+        <v>358.53039999999999</v>
+      </c>
+      <c r="S114" s="66">
+        <v>8.0864999999999991</v>
+      </c>
+      <c r="T114" s="66">
+        <v>-58.866799999999998</v>
+      </c>
+      <c r="U114" s="66">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="V114" s="29"/>
+      <c r="W114" s="29"/>
+      <c r="X114" s="29"/>
+      <c r="Y114" s="29"/>
+    </row>
+    <row r="116" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q116" s="51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="17:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q118" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="R118" s="79"/>
+      <c r="S118" s="79"/>
+      <c r="T118" s="79"/>
+      <c r="U118" s="79"/>
+      <c r="V118" s="79"/>
+      <c r="X118" s="32"/>
+      <c r="Y118" s="32"/>
+      <c r="Z118" s="32"/>
+    </row>
+    <row r="119" spans="17:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q119" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="R119" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S119" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T119" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U119" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V119" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="X119" s="29"/>
+      <c r="Y119" s="29"/>
+      <c r="Z119" s="29"/>
+    </row>
+    <row r="120" spans="17:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Q120" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="R120" s="78">
+        <v>1280.0467000000001</v>
+      </c>
+      <c r="S120" s="43">
+        <v>16.797000000000001</v>
+      </c>
+      <c r="T120" s="43">
+        <v>-59.4771</v>
+      </c>
+      <c r="U120" s="43">
+        <v>0.8427</v>
+      </c>
+      <c r="V120" s="80">
+        <v>492142.41</v>
+      </c>
+      <c r="X120" s="29"/>
+      <c r="Y120" s="29"/>
+      <c r="Z120" s="29"/>
+    </row>
+    <row r="121" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q121" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="R121" s="73">
+        <v>962.03200000000004</v>
+      </c>
+      <c r="S121" s="12">
+        <v>14.782999999999999</v>
+      </c>
+      <c r="T121" s="12">
+        <v>-53.841700000000003</v>
+      </c>
+      <c r="U121" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="V121" s="81">
+        <v>2262908.7200000002</v>
+      </c>
+      <c r="X121" s="29"/>
+      <c r="Y121" s="29"/>
+      <c r="Z121" s="29"/>
+    </row>
+    <row r="122" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q122" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="R122" s="78">
+        <v>1274.7348999999999</v>
+      </c>
+      <c r="S122" s="43">
+        <v>16.767399999999999</v>
+      </c>
+      <c r="T122" s="43">
+        <v>-56.319200000000002</v>
+      </c>
+      <c r="U122" s="43">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="V122" s="80">
+        <v>1087295.79</v>
+      </c>
+      <c r="X122" s="29"/>
+      <c r="Y122" s="29"/>
+      <c r="Z122" s="29"/>
+    </row>
+    <row r="123" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q123" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="R123" s="73">
+        <v>1112.3502000000001</v>
+      </c>
+      <c r="S123" s="12">
+        <v>15.8024</v>
+      </c>
+      <c r="T123" s="12">
+        <v>-60.101399999999998</v>
+      </c>
+      <c r="U123" s="12">
+        <v>0.77849999999999997</v>
+      </c>
+      <c r="V123" s="81">
+        <v>233745.43</v>
+      </c>
+      <c r="X123" s="29"/>
+      <c r="Y123" s="29"/>
+      <c r="Z123" s="29"/>
+    </row>
+    <row r="124" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q124" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="R124" s="76">
+        <v>868.08090000000004</v>
+      </c>
+      <c r="S124" s="46">
+        <v>14.0669</v>
+      </c>
+      <c r="T124" s="46">
+        <v>-66.542199999999994</v>
+      </c>
+      <c r="U124" s="46">
+        <v>0.68469999999999998</v>
+      </c>
+      <c r="V124" s="82">
+        <v>128262.92</v>
+      </c>
+      <c r="X124" s="29"/>
+      <c r="Y124" s="29"/>
+      <c r="Z124" s="29"/>
+    </row>
+    <row r="125" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q125" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="R125" s="73">
+        <v>358.53039999999999</v>
+      </c>
+      <c r="S125" s="12">
+        <v>8.0864999999999991</v>
+      </c>
+      <c r="T125" s="12">
+        <v>-58.866799999999998</v>
+      </c>
+      <c r="U125" s="12">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="V125" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q127" s="51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="17:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q130" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="R130" s="79"/>
+      <c r="S130" s="79"/>
+      <c r="T130" s="79"/>
+      <c r="U130" s="79"/>
+      <c r="V130" s="79"/>
+      <c r="X130" s="32"/>
+      <c r="Y130" s="32"/>
+      <c r="Z130" s="32"/>
+    </row>
+    <row r="131" spans="17:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q131" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="R131" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S131" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V131" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X131" s="29"/>
+      <c r="Y131" s="29"/>
+      <c r="Z131" s="29"/>
+    </row>
+    <row r="132" spans="17:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Q132" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="R132" s="68">
+        <v>1458.3308</v>
+      </c>
+      <c r="S132" s="66">
+        <v>17.728200000000001</v>
+      </c>
+      <c r="T132" s="66">
+        <v>-59.361600000000003</v>
+      </c>
+      <c r="U132" s="66">
+        <v>0.88859999999999995</v>
+      </c>
+      <c r="V132" s="81">
+        <v>0</v>
+      </c>
+      <c r="X132" s="29"/>
+      <c r="Y132" s="29"/>
+      <c r="Z132" s="29"/>
+    </row>
+    <row r="133" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q133" s="83">
+        <v>5</v>
+      </c>
+      <c r="R133" s="68">
+        <v>1390.2868000000001</v>
+      </c>
+      <c r="S133" s="66">
+        <v>17.386099999999999</v>
+      </c>
+      <c r="T133" s="66">
+        <v>-59.435499999999998</v>
+      </c>
+      <c r="U133" s="66">
+        <v>0.87170000000000003</v>
+      </c>
+      <c r="V133" s="81">
+        <v>186734.11</v>
+      </c>
+      <c r="X133" s="29"/>
+      <c r="Y133" s="29"/>
+      <c r="Z133" s="29"/>
+    </row>
+    <row r="134" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q134" s="83">
+        <v>10</v>
+      </c>
+      <c r="R134" s="68">
+        <v>1332.7424000000001</v>
+      </c>
+      <c r="S134" s="66">
+        <v>17.084299999999999</v>
+      </c>
+      <c r="T134" s="66">
+        <v>-59.435000000000002</v>
+      </c>
+      <c r="U134" s="66">
+        <v>0.8569</v>
+      </c>
+      <c r="V134" s="81">
+        <v>362246.17</v>
+      </c>
+      <c r="X134" s="29"/>
+      <c r="Y134" s="29"/>
+      <c r="Z134" s="29"/>
+    </row>
+    <row r="135" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q135" s="85">
+        <v>14</v>
+      </c>
+      <c r="R135" s="86">
+        <v>1280.0467000000001</v>
+      </c>
+      <c r="S135" s="87">
+        <v>16.797000000000001</v>
+      </c>
+      <c r="T135" s="87">
+        <v>-59.4771</v>
+      </c>
+      <c r="U135" s="87">
+        <v>0.8427</v>
+      </c>
+      <c r="V135" s="88">
+        <v>492142.41</v>
+      </c>
+      <c r="X135" s="29"/>
+      <c r="Y135" s="29"/>
+      <c r="Z135" s="29"/>
+    </row>
+    <row r="136" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q136" s="83">
+        <v>20</v>
+      </c>
+      <c r="R136" s="68">
+        <v>1216.0425</v>
+      </c>
+      <c r="S136" s="66">
+        <v>16.432700000000001</v>
+      </c>
+      <c r="T136" s="66">
+        <v>-59.539700000000003</v>
+      </c>
+      <c r="U136" s="66">
+        <v>0.8246</v>
+      </c>
+      <c r="V136" s="81">
+        <v>677654.12</v>
+      </c>
+      <c r="X136" s="29"/>
+      <c r="Y136" s="29"/>
+      <c r="Z136" s="29"/>
+    </row>
+    <row r="137" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q137" s="83">
+        <v>25</v>
+      </c>
+      <c r="R137" s="68">
+        <v>1162.3788999999999</v>
+      </c>
+      <c r="S137" s="66">
+        <v>16.113099999999999</v>
+      </c>
+      <c r="T137" s="66">
+        <v>-59.669699999999999</v>
+      </c>
+      <c r="U137" s="66">
+        <v>0.80869999999999997</v>
+      </c>
+      <c r="V137" s="81">
+        <v>819193.68</v>
+      </c>
+      <c r="X137" s="29"/>
+      <c r="Y137" s="29"/>
+      <c r="Z137" s="29"/>
+    </row>
+    <row r="138" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q138" s="84">
+        <v>50</v>
+      </c>
+      <c r="R138" s="70">
+        <v>922.31169999999997</v>
+      </c>
+      <c r="S138" s="71">
+        <v>14.4886</v>
+      </c>
+      <c r="T138" s="71">
+        <v>-59.857700000000001</v>
+      </c>
+      <c r="U138" s="71">
+        <v>0.72809999999999997</v>
+      </c>
+      <c r="V138" s="82">
+        <v>1385620.4</v>
+      </c>
+      <c r="X138" s="29"/>
+      <c r="Y138" s="29"/>
+      <c r="Z138" s="29"/>
+    </row>
+    <row r="139" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q139" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="R139" s="68">
+        <v>358.53039999999999</v>
+      </c>
+      <c r="S139" s="66">
+        <v>8.0864999999999991</v>
+      </c>
+      <c r="T139" s="66">
+        <v>-58.866799999999998</v>
+      </c>
+      <c r="U139" s="66">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="V139" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q141" s="51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="143" spans="17:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q143" s="94"/>
+      <c r="R143" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="S143" s="90"/>
+      <c r="T143" s="91"/>
+      <c r="U143" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="V143" s="90"/>
+      <c r="W143" s="91"/>
+      <c r="X143" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y143" s="93"/>
+      <c r="Z143" s="93"/>
+    </row>
+    <row r="144" spans="17:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q144" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="R144" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="S144" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="T144" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="U144" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="V144" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="W144" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="X144" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y144" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z144" s="96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="17:29" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Q145" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="R145" s="39">
+        <v>17.728200000000001</v>
+      </c>
+      <c r="S145" s="39">
+        <v>-59.361600000000003</v>
+      </c>
+      <c r="T145" s="41">
+        <v>0.88859999999999995</v>
+      </c>
+      <c r="U145" s="89">
+        <v>17.043099999999999</v>
+      </c>
+      <c r="V145" s="39">
+        <v>-53.1402</v>
+      </c>
+      <c r="W145" s="41">
+        <v>0.81340000000000001</v>
+      </c>
+      <c r="X145" s="12">
+        <v>18.099399999999999</v>
+      </c>
+      <c r="Y145" s="12">
+        <v>-54.310899999999997</v>
+      </c>
+      <c r="Z145" s="12">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="AC145" s="29"/>
+    </row>
+    <row r="146" spans="17:29" x14ac:dyDescent="0.2">
+      <c r="Q146" s="83">
+        <v>5</v>
+      </c>
+      <c r="R146" s="39">
+        <v>17.386099999999999</v>
+      </c>
+      <c r="S146" s="39">
+        <v>-59.435499999999998</v>
+      </c>
+      <c r="T146" s="41">
+        <v>0.87170000000000003</v>
+      </c>
+      <c r="U146" s="89">
+        <v>16.584099999999999</v>
+      </c>
+      <c r="V146" s="39">
+        <v>-53.281199999999998</v>
+      </c>
+      <c r="W146" s="41">
+        <v>0.79159999999999997</v>
+      </c>
+      <c r="X146" s="12">
+        <v>17.482299999999999</v>
+      </c>
+      <c r="Y146" s="12">
+        <v>-54.537500000000001</v>
+      </c>
+      <c r="Z146" s="12">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="AC146" s="29"/>
+    </row>
+    <row r="147" spans="17:29" x14ac:dyDescent="0.2">
+      <c r="Q147" s="83">
+        <v>10</v>
+      </c>
+      <c r="R147" s="39">
+        <v>17.084299999999999</v>
+      </c>
+      <c r="S147" s="39">
+        <v>-59.435000000000002</v>
+      </c>
+      <c r="T147" s="41">
+        <v>0.8569</v>
+      </c>
+      <c r="U147" s="89">
+        <v>16.105899999999998</v>
+      </c>
+      <c r="V147" s="39">
+        <v>-53.522599999999997</v>
+      </c>
+      <c r="W147" s="41">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="X147" s="12">
+        <v>16.869900000000001</v>
+      </c>
+      <c r="Y147" s="12">
+        <v>-54.706899999999997</v>
+      </c>
+      <c r="Z147" s="12">
+        <v>0.81269999999999998</v>
+      </c>
+      <c r="AC147" s="29"/>
+    </row>
+    <row r="148" spans="17:29" x14ac:dyDescent="0.2">
+      <c r="Q148" s="85">
+        <v>14</v>
+      </c>
+      <c r="R148" s="99">
+        <v>16.797000000000001</v>
+      </c>
+      <c r="S148" s="99">
+        <v>-59.4771</v>
+      </c>
+      <c r="T148" s="100">
+        <v>0.8427</v>
+      </c>
+      <c r="U148" s="101">
+        <v>15.7462</v>
+      </c>
+      <c r="V148" s="99">
+        <v>-53.552599999999998</v>
+      </c>
+      <c r="W148" s="100">
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="X148" s="102">
+        <v>16.381499999999999</v>
+      </c>
+      <c r="Y148" s="102">
+        <v>-54.8996</v>
+      </c>
+      <c r="Z148" s="102">
+        <v>0.78939999999999999</v>
+      </c>
+      <c r="AC148" s="29"/>
+    </row>
+    <row r="149" spans="17:29" x14ac:dyDescent="0.2">
+      <c r="Q149" s="83">
+        <v>20</v>
+      </c>
+      <c r="R149" s="39">
+        <v>16.432700000000001</v>
+      </c>
+      <c r="S149" s="39">
+        <v>-59.539700000000003</v>
+      </c>
+      <c r="T149" s="41">
+        <v>0.8246</v>
+      </c>
+      <c r="U149" s="89">
+        <v>15.216100000000001</v>
+      </c>
+      <c r="V149" s="39">
+        <v>-53.6965</v>
+      </c>
+      <c r="W149" s="41">
+        <v>0.7268</v>
+      </c>
+      <c r="X149" s="12">
+        <v>15.6393</v>
+      </c>
+      <c r="Y149" s="12">
+        <v>-55.139200000000002</v>
+      </c>
+      <c r="Z149" s="12">
+        <v>0.75370000000000004</v>
+      </c>
+      <c r="AC149" s="29"/>
+    </row>
+    <row r="150" spans="17:29" x14ac:dyDescent="0.2">
+      <c r="Q150" s="83">
+        <v>25</v>
+      </c>
+      <c r="R150" s="39">
+        <v>16.113099999999999</v>
+      </c>
+      <c r="S150" s="39">
+        <v>-59.669699999999999</v>
+      </c>
+      <c r="T150" s="41">
+        <v>0.80869999999999997</v>
+      </c>
+      <c r="U150" s="89">
+        <v>14.752000000000001</v>
+      </c>
+      <c r="V150" s="39">
+        <v>-53.885599999999997</v>
+      </c>
+      <c r="W150" s="41">
+        <v>0.70469999999999999</v>
+      </c>
+      <c r="X150" s="12">
+        <v>15.041399999999999</v>
+      </c>
+      <c r="Y150" s="12">
+        <v>-55.350499999999997</v>
+      </c>
+      <c r="Z150" s="12">
+        <v>0.72489999999999999</v>
+      </c>
+      <c r="AC150" s="29"/>
+    </row>
+    <row r="151" spans="17:29" x14ac:dyDescent="0.2">
+      <c r="Q151" s="95">
+        <v>50</v>
+      </c>
+      <c r="R151" s="39">
+        <v>14.4886</v>
+      </c>
+      <c r="S151" s="39">
+        <v>-59.857700000000001</v>
+      </c>
+      <c r="T151" s="41">
+        <v>0.72809999999999997</v>
+      </c>
+      <c r="U151" s="89">
+        <v>12.529</v>
+      </c>
+      <c r="V151" s="39">
+        <v>-54.520099999999999</v>
+      </c>
+      <c r="W151" s="41">
+        <v>0.59860000000000002</v>
+      </c>
+      <c r="X151" s="12">
+        <v>12.061199999999999</v>
+      </c>
+      <c r="Y151" s="12">
+        <v>-56.307299999999998</v>
+      </c>
+      <c r="Z151" s="12">
+        <v>0.58089999999999997</v>
+      </c>
+      <c r="AC151" s="29"/>
+    </row>
+    <row r="153" spans="17:29" x14ac:dyDescent="0.2">
+      <c r="Q153" s="51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="159" spans="17:29" x14ac:dyDescent="0.2">
+      <c r="X159" s="29"/>
+      <c r="Y159" s="29"/>
+      <c r="Z159" s="29"/>
+    </row>
+    <row r="160" spans="17:29" x14ac:dyDescent="0.2">
+      <c r="X160" s="29"/>
+      <c r="Y160" s="29"/>
+      <c r="Z160" s="29"/>
+    </row>
+    <row r="161" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="X161" s="29"/>
+      <c r="Y161" s="29"/>
+      <c r="Z161" s="29"/>
+    </row>
+    <row r="162" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="X162" s="29"/>
+      <c r="Y162" s="29"/>
+      <c r="Z162" s="29"/>
+    </row>
+    <row r="163" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="X163" s="29"/>
+      <c r="Y163" s="29"/>
+      <c r="Z163" s="29"/>
+    </row>
+    <row r="164" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="X164" s="29"/>
+      <c r="Y164" s="29"/>
+      <c r="Z164" s="29"/>
+    </row>
+    <row r="165" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="X165" s="29"/>
+      <c r="Y165" s="29"/>
+      <c r="Z165" s="29"/>
+    </row>
+    <row r="166" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="X166" s="29"/>
+      <c r="Y166" s="29"/>
+      <c r="Z166" s="29"/>
+    </row>
+    <row r="169" spans="17:26" x14ac:dyDescent="0.2">
+      <c r="Q169" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="R169" s="29">
+        <v>8.0864999999999991</v>
+      </c>
+      <c r="S169" s="29">
+        <v>-58.866799999999998</v>
+      </c>
+      <c r="T169" s="29">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="U169" s="29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="13">
+    <mergeCell ref="X143:Z143"/>
+    <mergeCell ref="Q84:U84"/>
+    <mergeCell ref="Q118:V118"/>
+    <mergeCell ref="Q130:V130"/>
+    <mergeCell ref="R143:T143"/>
+    <mergeCell ref="U143:W143"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="U52:W52"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="I18:N18"/>
+    <mergeCell ref="P51:W51"/>
   </mergeCells>
+  <conditionalFormatting sqref="V54:V78">
+    <cfRule type="top10" dxfId="7" priority="5" rank="10"/>
+    <cfRule type="top10" dxfId="6" priority="6" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="7" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="8" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S54:S78">
+    <cfRule type="top10" dxfId="3" priority="1" rank="10"/>
+    <cfRule type="top10" dxfId="2" priority="2" rank="10"/>
+    <cfRule type="top10" dxfId="1" priority="3" rank="10"/>
+    <cfRule type="top10" dxfId="0" priority="4" percent="1" rank="10"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5503420-18E7-3445-9600-19C8C9F65792}">
+  <dimension ref="G23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/analysisFiles/Momentum-Series1.xlsx
+++ b/data/analysisFiles/Momentum-Series1.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitgupta/Documents/STUDY/git/anks/github_page/data/analysisFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B47832-91E7-8F43-84D2-F5AAD9F9F5BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98E01FF-C91A-E544-90CC-A1E466A6C65F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{002A3E7F-AFC8-3B44-ABFB-1DAEE9CF9586}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{002A3E7F-AFC8-3B44-ABFB-1DAEE9CF9586}"/>
   </bookViews>
   <sheets>
     <sheet name="Article 0" sheetId="1" r:id="rId1"/>
     <sheet name="Article-1" sheetId="3" r:id="rId2"/>
-    <sheet name="Article - 1 Relative Momentum" sheetId="2" r:id="rId3"/>
+    <sheet name="Article-2" sheetId="4" r:id="rId3"/>
+    <sheet name="Article - 1 Relative Momentum" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Article-2'!$I$4:$J$52</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="173">
   <si>
     <t>Nifty 200 Momentum 30 Index</t>
   </si>
@@ -734,6 +738,169 @@
   <si>
     <t>3M Trend Indicator</t>
   </si>
+  <si>
+    <t>Volatility (%)</t>
+  </si>
+  <si>
+    <t>Stop Loss Threshold</t>
+  </si>
+  <si>
+    <t>0% (Strategy)</t>
+  </si>
+  <si>
+    <t>Stop Loss improves risk adjusted performance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Table 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StopLoss and its impact on performance</t>
+    </r>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portfolio </t>
+  </si>
+  <si>
+    <t>RiskParity</t>
+  </si>
+  <si>
+    <t>MVO-Risk10</t>
+  </si>
+  <si>
+    <t>MVO-Risk1</t>
+  </si>
+  <si>
+    <t>GMVP</t>
+  </si>
+  <si>
+    <t>Sharpe</t>
+  </si>
+  <si>
+    <t>MaxReturns</t>
+  </si>
+  <si>
+    <t>Asset Allocation Style</t>
+  </si>
+  <si>
+    <t>Asset Allocation doesn’t improve much</t>
+  </si>
+  <si>
+    <t>Strategy - Equal Weighted</t>
+  </si>
+  <si>
+    <t>3 Assets</t>
+  </si>
+  <si>
+    <t>5 Assets</t>
+  </si>
+  <si>
+    <t>15 Assets</t>
+  </si>
+  <si>
+    <t>20 Assets</t>
+  </si>
+  <si>
+    <t>Strategy - 10 Assets</t>
+  </si>
+  <si>
+    <t>Diversification Benefits do occur</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Number of assets deifnitely help in portfolio diversification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Table 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Risk Parity portfolio slightly improves the performance. </t>
+    </r>
+  </si>
+  <si>
+    <t>Price Momentum</t>
+  </si>
+  <si>
+    <t>Earnings Momentum</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>12M Returns</t>
+  </si>
+  <si>
+    <t>12M Risk Adj. Returns</t>
+  </si>
+  <si>
+    <t>12M</t>
+  </si>
+  <si>
+    <t>6M</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inclusion of Earnings momentum helps improve portfolio performance</t>
+    </r>
+  </si>
+  <si>
+    <t>Inclusion of Earnings momentum helps improve portfolio performance</t>
+  </si>
 </sst>
 </file>
 
@@ -743,9 +910,9 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="mmm\ yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="#\ &quot;bps&quot;"/>
+    <numFmt numFmtId="167" formatCode="#\ &quot;bps&quot;"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -967,6 +1134,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1018,7 +1213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1127,6 +1322,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -1145,11 +1351,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1291,12 +1584,225 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1315,119 +1821,50 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1645,6 +2082,67 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>883920</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>883920</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B13FFE71-46CD-A64A-AAF8-54FBE4F06B76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5913120" y="7904480"/>
+          <a:ext cx="0" cy="894080"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2654,19 +3152,19 @@
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
     </row>
     <row r="3" spans="2:14" s="7" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -3083,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322F6168-EE58-3140-8958-4F2142B3E126}">
   <dimension ref="B3:AC169"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O128" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="S158" sqref="S158"/>
+    <sheetView showGridLines="0" topLeftCell="M126" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="Q130" sqref="Q130:V130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3108,22 +3606,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="I3" s="62" t="s">
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="I3" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
     </row>
     <row r="4" spans="2:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
@@ -3502,22 +4000,22 @@
       <c r="I16" s="19"/>
     </row>
     <row r="18" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="I18" s="64" t="s">
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="I18" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
     </row>
     <row r="19" spans="2:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
@@ -4165,16 +4663,16 @@
       </c>
     </row>
     <row r="51" spans="2:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P51" s="61" t="s">
+      <c r="P51" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="61"/>
-      <c r="S51" s="61"/>
-      <c r="T51" s="61"/>
-      <c r="U51" s="61"/>
-      <c r="V51" s="61"/>
-      <c r="W51" s="61"/>
+      <c r="Q51" s="136"/>
+      <c r="R51" s="136"/>
+      <c r="S51" s="136"/>
+      <c r="T51" s="136"/>
+      <c r="U51" s="136"/>
+      <c r="V51" s="136"/>
+      <c r="W51" s="136"/>
     </row>
     <row r="52" spans="2:23" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="32"/>
@@ -4189,16 +4687,16 @@
       <c r="K52" s="33"/>
       <c r="P52" s="18"/>
       <c r="Q52" s="18"/>
-      <c r="R52" s="59" t="s">
+      <c r="R52" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="S52" s="59"/>
-      <c r="T52" s="60"/>
-      <c r="U52" s="59" t="s">
+      <c r="S52" s="134"/>
+      <c r="T52" s="135"/>
+      <c r="U52" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="V52" s="59"/>
-      <c r="W52" s="59"/>
+      <c r="V52" s="134"/>
+      <c r="W52" s="134"/>
     </row>
     <row r="53" spans="2:23" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="29"/>
@@ -5135,30 +5633,30 @@
       <c r="S80" s="51"/>
     </row>
     <row r="84" spans="17:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q84" s="67" t="s">
+      <c r="Q84" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="R84" s="67"/>
-      <c r="S84" s="67"/>
-      <c r="T84" s="67"/>
-      <c r="U84" s="67"/>
+      <c r="R84" s="129"/>
+      <c r="S84" s="129"/>
+      <c r="T84" s="129"/>
+      <c r="U84" s="129"/>
       <c r="V84" s="32"/>
       <c r="W84" s="32"/>
     </row>
     <row r="85" spans="17:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q85" s="6" t="s">
+      <c r="Q85" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="R85" s="6" t="s">
+      <c r="R85" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="S85" s="6" t="s">
+      <c r="S85" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="T85" s="6" t="s">
+      <c r="T85" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="U85" s="6" t="s">
+      <c r="U85" s="82" t="s">
         <v>11</v>
       </c>
       <c r="V85" s="32"/>
@@ -5167,19 +5665,19 @@
       <c r="Y85" s="32"/>
     </row>
     <row r="86" spans="17:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="Q86" s="65" t="s">
+      <c r="Q86" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="R86" s="68">
+      <c r="R86" s="59">
         <v>1280.0467000000001</v>
       </c>
-      <c r="S86" s="66">
+      <c r="S86" s="58">
         <v>16.797000000000001</v>
       </c>
-      <c r="T86" s="66">
+      <c r="T86" s="58">
         <v>-59.4771</v>
       </c>
-      <c r="U86" s="66">
+      <c r="U86" s="58">
         <v>0.8427</v>
       </c>
       <c r="V86" s="29"/>
@@ -5188,19 +5686,19 @@
       <c r="Y86" s="29"/>
     </row>
     <row r="87" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q87" s="65" t="s">
+      <c r="Q87" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="R87" s="68">
+      <c r="R87" s="59">
         <v>1481.1749</v>
       </c>
-      <c r="S87" s="66">
+      <c r="S87" s="58">
         <v>17.839700000000001</v>
       </c>
-      <c r="T87" s="66">
+      <c r="T87" s="58">
         <v>-58.698799999999999</v>
       </c>
-      <c r="U87" s="66">
+      <c r="U87" s="58">
         <v>0.89329999999999998</v>
       </c>
       <c r="V87" s="29"/>
@@ -5209,19 +5707,19 @@
       <c r="Y87" s="29"/>
     </row>
     <row r="88" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q88" s="65" t="s">
+      <c r="Q88" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="R88" s="68">
+      <c r="R88" s="59">
         <v>1616.5634</v>
       </c>
-      <c r="S88" s="66">
+      <c r="S88" s="58">
         <v>18.469100000000001</v>
       </c>
-      <c r="T88" s="66">
+      <c r="T88" s="58">
         <v>-57.434199999999997</v>
       </c>
-      <c r="U88" s="66">
+      <c r="U88" s="58">
         <v>0.92179999999999995</v>
       </c>
       <c r="V88" s="29"/>
@@ -5230,19 +5728,19 @@
       <c r="Y88" s="29"/>
     </row>
     <row r="89" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q89" s="65" t="s">
+      <c r="Q89" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="R89" s="68">
+      <c r="R89" s="59">
         <v>1489.4135000000001</v>
       </c>
-      <c r="S89" s="66">
+      <c r="S89" s="58">
         <v>17.8795</v>
       </c>
-      <c r="T89" s="66">
+      <c r="T89" s="58">
         <v>-56.791699999999999</v>
       </c>
-      <c r="U89" s="66">
+      <c r="U89" s="58">
         <v>0.89049999999999996</v>
       </c>
       <c r="V89" s="29"/>
@@ -5251,19 +5749,19 @@
       <c r="Y89" s="29"/>
     </row>
     <row r="90" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q90" s="65" t="s">
+      <c r="Q90" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="R90" s="68">
+      <c r="R90" s="59">
         <v>1647.4135000000001</v>
       </c>
-      <c r="S90" s="66">
+      <c r="S90" s="58">
         <v>18.605499999999999</v>
       </c>
-      <c r="T90" s="66">
+      <c r="T90" s="58">
         <v>-57.394500000000001</v>
       </c>
-      <c r="U90" s="66">
+      <c r="U90" s="58">
         <v>0.92800000000000005</v>
       </c>
       <c r="V90" s="29"/>
@@ -5272,19 +5770,19 @@
       <c r="Y90" s="29"/>
     </row>
     <row r="91" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q91" s="65" t="s">
+      <c r="Q91" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="R91" s="68">
+      <c r="R91" s="59">
         <v>1965.4463000000001</v>
       </c>
-      <c r="S91" s="72">
+      <c r="S91" s="63">
         <v>19.8874</v>
       </c>
-      <c r="T91" s="66">
+      <c r="T91" s="58">
         <v>-56.247700000000002</v>
       </c>
-      <c r="U91" s="72">
+      <c r="U91" s="63">
         <v>0.99329999999999996</v>
       </c>
       <c r="V91" s="29"/>
@@ -5293,19 +5791,19 @@
       <c r="Y91" s="29"/>
     </row>
     <row r="92" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q92" s="65" t="s">
+      <c r="Q92" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="R92" s="68">
+      <c r="R92" s="59">
         <v>1733</v>
       </c>
-      <c r="S92" s="72">
+      <c r="S92" s="63">
         <v>18.971900000000002</v>
       </c>
-      <c r="T92" s="66">
+      <c r="T92" s="58">
         <v>-56.590299999999999</v>
       </c>
-      <c r="U92" s="72">
+      <c r="U92" s="63">
         <v>0.94940000000000002</v>
       </c>
       <c r="V92" s="29"/>
@@ -5314,19 +5812,19 @@
       <c r="Y92" s="29"/>
     </row>
     <row r="93" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q93" s="65" t="s">
+      <c r="Q93" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="R93" s="68">
+      <c r="R93" s="59">
         <v>1899.2085999999999</v>
       </c>
-      <c r="S93" s="72">
+      <c r="S93" s="63">
         <v>19.6374</v>
       </c>
-      <c r="T93" s="66">
+      <c r="T93" s="58">
         <v>-56.838799999999999</v>
       </c>
-      <c r="U93" s="72">
+      <c r="U93" s="63">
         <v>0.97950000000000004</v>
       </c>
       <c r="V93" s="29"/>
@@ -5335,19 +5833,19 @@
       <c r="Y93" s="29"/>
     </row>
     <row r="94" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q94" s="65" t="s">
+      <c r="Q94" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="R94" s="68">
+      <c r="R94" s="59">
         <v>2031.5968</v>
       </c>
-      <c r="S94" s="72">
+      <c r="S94" s="63">
         <v>20.129300000000001</v>
       </c>
-      <c r="T94" s="66">
+      <c r="T94" s="58">
         <v>-56.514899999999997</v>
       </c>
-      <c r="U94" s="72">
+      <c r="U94" s="63">
         <v>1.0074000000000001</v>
       </c>
       <c r="V94" s="29"/>
@@ -5356,19 +5854,19 @@
       <c r="Y94" s="29"/>
     </row>
     <row r="95" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q95" s="65" t="s">
+      <c r="Q95" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="R95" s="68">
+      <c r="R95" s="59">
         <v>1861.4405999999999</v>
       </c>
-      <c r="S95" s="72">
+      <c r="S95" s="63">
         <v>19.491099999999999</v>
       </c>
-      <c r="T95" s="66">
+      <c r="T95" s="58">
         <v>-59.001199999999997</v>
       </c>
-      <c r="U95" s="72">
+      <c r="U95" s="63">
         <v>0.9748</v>
       </c>
       <c r="V95" s="29"/>
@@ -5377,19 +5875,19 @@
       <c r="Y95" s="29"/>
     </row>
     <row r="96" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q96" s="65" t="s">
+      <c r="Q96" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="R96" s="68">
+      <c r="R96" s="59">
         <v>1889.8798999999999</v>
       </c>
-      <c r="S96" s="72">
+      <c r="S96" s="63">
         <v>19.601500000000001</v>
       </c>
-      <c r="T96" s="66">
+      <c r="T96" s="58">
         <v>-58.648099999999999</v>
       </c>
-      <c r="U96" s="72">
+      <c r="U96" s="63">
         <v>0.97929999999999995</v>
       </c>
       <c r="V96" s="29"/>
@@ -5398,19 +5896,19 @@
       <c r="Y96" s="29"/>
     </row>
     <row r="97" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q97" s="65" t="s">
+      <c r="Q97" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="R97" s="68">
+      <c r="R97" s="59">
         <v>2138.0920000000001</v>
       </c>
-      <c r="S97" s="72">
+      <c r="S97" s="63">
         <v>20.503699999999998</v>
       </c>
-      <c r="T97" s="66">
+      <c r="T97" s="58">
         <v>-56.028100000000002</v>
       </c>
-      <c r="U97" s="72">
+      <c r="U97" s="63">
         <v>1.0279</v>
       </c>
       <c r="V97" s="29"/>
@@ -5419,19 +5917,19 @@
       <c r="Y97" s="29"/>
     </row>
     <row r="98" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q98" s="65" t="s">
+      <c r="Q98" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="R98" s="68">
+      <c r="R98" s="59">
         <v>1833.6665</v>
       </c>
-      <c r="S98" s="72">
+      <c r="S98" s="63">
         <v>19.381699999999999</v>
       </c>
-      <c r="T98" s="66">
+      <c r="T98" s="58">
         <v>-56.956899999999997</v>
       </c>
-      <c r="U98" s="72">
+      <c r="U98" s="63">
         <v>0.97330000000000005</v>
       </c>
       <c r="V98" s="29"/>
@@ -5440,19 +5938,19 @@
       <c r="Y98" s="29"/>
     </row>
     <row r="99" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q99" s="65" t="s">
+      <c r="Q99" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="R99" s="68">
+      <c r="R99" s="59">
         <v>1816.4376</v>
       </c>
-      <c r="S99" s="72">
+      <c r="S99" s="63">
         <v>19.313099999999999</v>
       </c>
-      <c r="T99" s="66">
+      <c r="T99" s="58">
         <v>-58.867699999999999</v>
       </c>
-      <c r="U99" s="72">
+      <c r="U99" s="63">
         <v>0.97109999999999996</v>
       </c>
       <c r="V99" s="29"/>
@@ -5461,19 +5959,19 @@
       <c r="Y99" s="29"/>
     </row>
     <row r="100" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q100" s="65" t="s">
+      <c r="Q100" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="R100" s="68">
+      <c r="R100" s="59">
         <v>1761.2787000000001</v>
       </c>
-      <c r="S100" s="72">
+      <c r="S100" s="63">
         <v>19.089300000000001</v>
       </c>
-      <c r="T100" s="66">
+      <c r="T100" s="58">
         <v>-58.9544</v>
       </c>
-      <c r="U100" s="72">
+      <c r="U100" s="63">
         <v>0.95760000000000001</v>
       </c>
       <c r="V100" s="29"/>
@@ -5482,19 +5980,19 @@
       <c r="Y100" s="29"/>
     </row>
     <row r="101" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q101" s="65" t="s">
+      <c r="Q101" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="R101" s="68">
+      <c r="R101" s="59">
         <v>1582.6862000000001</v>
       </c>
-      <c r="S101" s="66">
+      <c r="S101" s="58">
         <v>18.316299999999998</v>
       </c>
-      <c r="T101" s="66">
+      <c r="T101" s="58">
         <v>-60.3827</v>
       </c>
-      <c r="U101" s="66">
+      <c r="U101" s="58">
         <v>0.92010000000000003</v>
       </c>
       <c r="V101" s="29"/>
@@ -5503,19 +6001,19 @@
       <c r="Y101" s="29"/>
     </row>
     <row r="102" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q102" s="65" t="s">
+      <c r="Q102" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="R102" s="68">
+      <c r="R102" s="59">
         <v>1522.5139999999999</v>
       </c>
-      <c r="S102" s="66">
+      <c r="S102" s="58">
         <v>18.037400000000002</v>
       </c>
-      <c r="T102" s="66">
+      <c r="T102" s="58">
         <v>-58.154499999999999</v>
       </c>
-      <c r="U102" s="66">
+      <c r="U102" s="58">
         <v>0.90580000000000005</v>
       </c>
       <c r="V102" s="29"/>
@@ -5524,19 +6022,19 @@
       <c r="Y102" s="29"/>
     </row>
     <row r="103" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q103" s="65" t="s">
+      <c r="Q103" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="R103" s="68">
+      <c r="R103" s="59">
         <v>1603.866</v>
       </c>
-      <c r="S103" s="66">
+      <c r="S103" s="58">
         <v>18.412199999999999</v>
       </c>
-      <c r="T103" s="66">
+      <c r="T103" s="58">
         <v>-55.0762</v>
       </c>
-      <c r="U103" s="66">
+      <c r="U103" s="58">
         <v>0.92330000000000001</v>
       </c>
       <c r="V103" s="29"/>
@@ -5545,19 +6043,19 @@
       <c r="Y103" s="29"/>
     </row>
     <row r="104" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q104" s="65" t="s">
+      <c r="Q104" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="R104" s="68">
+      <c r="R104" s="59">
         <v>1803.8217999999999</v>
       </c>
-      <c r="S104" s="66">
+      <c r="S104" s="58">
         <v>19.262499999999999</v>
       </c>
-      <c r="T104" s="66">
+      <c r="T104" s="58">
         <v>-55.299300000000002</v>
       </c>
-      <c r="U104" s="66">
+      <c r="U104" s="58">
         <v>0.95860000000000001</v>
       </c>
       <c r="V104" s="29"/>
@@ -5566,19 +6064,19 @@
       <c r="Y104" s="29"/>
     </row>
     <row r="105" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q105" s="65" t="s">
+      <c r="Q105" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="R105" s="68">
+      <c r="R105" s="59">
         <v>1564.1967999999999</v>
       </c>
-      <c r="S105" s="66">
+      <c r="S105" s="58">
         <v>18.2317</v>
       </c>
-      <c r="T105" s="66">
+      <c r="T105" s="58">
         <v>-54.826900000000002</v>
       </c>
-      <c r="U105" s="66">
+      <c r="U105" s="58">
         <v>0.9133</v>
       </c>
       <c r="V105" s="29"/>
@@ -5587,19 +6085,19 @@
       <c r="Y105" s="29"/>
     </row>
     <row r="106" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q106" s="65" t="s">
+      <c r="Q106" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="R106" s="68">
+      <c r="R106" s="59">
         <v>1524.4858999999999</v>
       </c>
-      <c r="S106" s="66">
+      <c r="S106" s="58">
         <v>18.046700000000001</v>
       </c>
-      <c r="T106" s="66">
+      <c r="T106" s="58">
         <v>-54.177100000000003</v>
       </c>
-      <c r="U106" s="66">
+      <c r="U106" s="58">
         <v>0.90280000000000005</v>
       </c>
       <c r="V106" s="29"/>
@@ -5608,19 +6106,19 @@
       <c r="Y106" s="29"/>
     </row>
     <row r="107" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q107" s="65" t="s">
+      <c r="Q107" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="R107" s="68">
+      <c r="R107" s="59">
         <v>1572.0039999999999</v>
       </c>
-      <c r="S107" s="66">
+      <c r="S107" s="58">
         <v>18.267600000000002</v>
       </c>
-      <c r="T107" s="66">
+      <c r="T107" s="58">
         <v>-53.597499999999997</v>
       </c>
-      <c r="U107" s="66">
+      <c r="U107" s="58">
         <v>0.90559999999999996</v>
       </c>
       <c r="V107" s="29"/>
@@ -5629,19 +6127,19 @@
       <c r="Y107" s="29"/>
     </row>
     <row r="108" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q108" s="65" t="s">
+      <c r="Q108" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="R108" s="68">
+      <c r="R108" s="59">
         <v>1592.4448</v>
       </c>
-      <c r="S108" s="66">
+      <c r="S108" s="58">
         <v>18.360600000000002</v>
       </c>
-      <c r="T108" s="66">
+      <c r="T108" s="58">
         <v>-54.389699999999998</v>
       </c>
-      <c r="U108" s="66">
+      <c r="U108" s="58">
         <v>0.91139999999999999</v>
       </c>
       <c r="V108" s="29"/>
@@ -5650,19 +6148,19 @@
       <c r="Y108" s="29"/>
     </row>
     <row r="109" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q109" s="65" t="s">
+      <c r="Q109" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="R109" s="68">
+      <c r="R109" s="59">
         <v>1645.1275000000001</v>
       </c>
-      <c r="S109" s="66">
+      <c r="S109" s="58">
         <v>18.595500000000001</v>
       </c>
-      <c r="T109" s="66">
+      <c r="T109" s="58">
         <v>-55.918399999999998</v>
       </c>
-      <c r="U109" s="66">
+      <c r="U109" s="58">
         <v>0.91810000000000003</v>
       </c>
       <c r="V109" s="29"/>
@@ -5671,19 +6169,19 @@
       <c r="Y109" s="29"/>
     </row>
     <row r="110" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q110" s="65" t="s">
+      <c r="Q110" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="R110" s="68">
+      <c r="R110" s="59">
         <v>1504.3507</v>
       </c>
-      <c r="S110" s="66">
+      <c r="S110" s="58">
         <v>17.9511</v>
       </c>
-      <c r="T110" s="66">
+      <c r="T110" s="58">
         <v>-55.018999999999998</v>
       </c>
-      <c r="U110" s="66">
+      <c r="U110" s="58">
         <v>0.88449999999999995</v>
       </c>
       <c r="V110" s="29"/>
@@ -5692,19 +6190,19 @@
       <c r="Y110" s="29"/>
     </row>
     <row r="111" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q111" s="65" t="s">
+      <c r="Q111" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="R111" s="68">
+      <c r="R111" s="59">
         <v>1434.2762</v>
       </c>
-      <c r="S111" s="66">
+      <c r="S111" s="58">
         <v>17.609000000000002</v>
       </c>
-      <c r="T111" s="66">
+      <c r="T111" s="58">
         <v>-57.181399999999996</v>
       </c>
-      <c r="U111" s="66">
+      <c r="U111" s="58">
         <v>0.87360000000000004</v>
       </c>
       <c r="V111" s="29"/>
@@ -5713,19 +6211,19 @@
       <c r="Y111" s="29"/>
     </row>
     <row r="112" spans="17:25" x14ac:dyDescent="0.2">
-      <c r="Q112" s="65" t="s">
+      <c r="Q112" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="R112" s="68">
+      <c r="R112" s="59">
         <v>1865.6903</v>
       </c>
-      <c r="S112" s="66">
+      <c r="S112" s="58">
         <v>19.5077</v>
       </c>
-      <c r="T112" s="66">
+      <c r="T112" s="58">
         <v>-57.198900000000002</v>
       </c>
-      <c r="U112" s="66">
+      <c r="U112" s="58">
         <v>0.96509999999999996</v>
       </c>
       <c r="V112" s="29"/>
@@ -5734,19 +6232,19 @@
       <c r="Y112" s="29"/>
     </row>
     <row r="113" spans="17:26" x14ac:dyDescent="0.2">
-      <c r="Q113" s="69" t="s">
+      <c r="Q113" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="R113" s="70">
+      <c r="R113" s="61">
         <v>1544.0732</v>
       </c>
-      <c r="S113" s="71">
+      <c r="S113" s="62">
         <v>18.138500000000001</v>
       </c>
-      <c r="T113" s="71">
+      <c r="T113" s="62">
         <v>-57.921199999999999</v>
       </c>
-      <c r="U113" s="71">
+      <c r="U113" s="62">
         <v>0.90190000000000003</v>
       </c>
       <c r="V113" s="29"/>
@@ -5755,19 +6253,19 @@
       <c r="Y113" s="29"/>
     </row>
     <row r="114" spans="17:26" x14ac:dyDescent="0.2">
-      <c r="Q114" s="65" t="s">
+      <c r="Q114" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="R114" s="68">
+      <c r="R114" s="59">
         <v>358.53039999999999</v>
       </c>
-      <c r="S114" s="66">
+      <c r="S114" s="58">
         <v>8.0864999999999991</v>
       </c>
-      <c r="T114" s="66">
+      <c r="T114" s="58">
         <v>-58.866799999999998</v>
       </c>
-      <c r="U114" s="66">
+      <c r="U114" s="58">
         <v>0.39779999999999999</v>
       </c>
       <c r="V114" s="29"/>
@@ -5781,35 +6279,35 @@
       </c>
     </row>
     <row r="118" spans="17:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q118" s="79" t="s">
+      <c r="Q118" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="R118" s="79"/>
-      <c r="S118" s="79"/>
-      <c r="T118" s="79"/>
-      <c r="U118" s="79"/>
-      <c r="V118" s="79"/>
+      <c r="R118" s="130"/>
+      <c r="S118" s="130"/>
+      <c r="T118" s="130"/>
+      <c r="U118" s="130"/>
+      <c r="V118" s="130"/>
       <c r="X118" s="32"/>
       <c r="Y118" s="32"/>
       <c r="Z118" s="32"/>
     </row>
     <row r="119" spans="17:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q119" s="6" t="s">
+      <c r="Q119" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="R119" s="6" t="s">
+      <c r="R119" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="S119" s="6" t="s">
+      <c r="S119" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="T119" s="6" t="s">
+      <c r="T119" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="U119" s="6" t="s">
+      <c r="U119" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="V119" s="6" t="s">
+      <c r="V119" s="82" t="s">
         <v>130</v>
       </c>
       <c r="X119" s="29"/>
@@ -5817,10 +6315,10 @@
       <c r="Z119" s="29"/>
     </row>
     <row r="120" spans="17:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="Q120" s="77" t="s">
+      <c r="Q120" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="R120" s="78">
+      <c r="R120" s="69">
         <v>1280.0467000000001</v>
       </c>
       <c r="S120" s="43">
@@ -5832,7 +6330,7 @@
       <c r="U120" s="43">
         <v>0.8427</v>
       </c>
-      <c r="V120" s="80">
+      <c r="V120" s="70">
         <v>492142.41</v>
       </c>
       <c r="X120" s="29"/>
@@ -5840,10 +6338,10 @@
       <c r="Z120" s="29"/>
     </row>
     <row r="121" spans="17:26" x14ac:dyDescent="0.2">
-      <c r="Q121" s="74" t="s">
+      <c r="Q121" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="R121" s="73">
+      <c r="R121" s="64">
         <v>962.03200000000004</v>
       </c>
       <c r="S121" s="12">
@@ -5855,7 +6353,7 @@
       <c r="U121" s="12">
         <v>0.74</v>
       </c>
-      <c r="V121" s="81">
+      <c r="V121" s="71">
         <v>2262908.7200000002</v>
       </c>
       <c r="X121" s="29"/>
@@ -5863,10 +6361,10 @@
       <c r="Z121" s="29"/>
     </row>
     <row r="122" spans="17:26" x14ac:dyDescent="0.2">
-      <c r="Q122" s="77" t="s">
+      <c r="Q122" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="R122" s="78">
+      <c r="R122" s="69">
         <v>1274.7348999999999</v>
       </c>
       <c r="S122" s="43">
@@ -5878,7 +6376,7 @@
       <c r="U122" s="43">
         <v>0.83660000000000001</v>
       </c>
-      <c r="V122" s="80">
+      <c r="V122" s="70">
         <v>1087295.79</v>
       </c>
       <c r="X122" s="29"/>
@@ -5886,10 +6384,10 @@
       <c r="Z122" s="29"/>
     </row>
     <row r="123" spans="17:26" x14ac:dyDescent="0.2">
-      <c r="Q123" s="74" t="s">
+      <c r="Q123" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="R123" s="73">
+      <c r="R123" s="64">
         <v>1112.3502000000001</v>
       </c>
       <c r="S123" s="12">
@@ -5901,7 +6399,7 @@
       <c r="U123" s="12">
         <v>0.77849999999999997</v>
       </c>
-      <c r="V123" s="81">
+      <c r="V123" s="71">
         <v>233745.43</v>
       </c>
       <c r="X123" s="29"/>
@@ -5909,10 +6407,10 @@
       <c r="Z123" s="29"/>
     </row>
     <row r="124" spans="17:26" x14ac:dyDescent="0.2">
-      <c r="Q124" s="75" t="s">
+      <c r="Q124" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="R124" s="76">
+      <c r="R124" s="67">
         <v>868.08090000000004</v>
       </c>
       <c r="S124" s="46">
@@ -5924,7 +6422,7 @@
       <c r="U124" s="46">
         <v>0.68469999999999998</v>
       </c>
-      <c r="V124" s="82">
+      <c r="V124" s="72">
         <v>128262.92</v>
       </c>
       <c r="X124" s="29"/>
@@ -5932,10 +6430,10 @@
       <c r="Z124" s="29"/>
     </row>
     <row r="125" spans="17:26" x14ac:dyDescent="0.2">
-      <c r="Q125" s="74" t="s">
+      <c r="Q125" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="R125" s="73">
+      <c r="R125" s="64">
         <v>358.53039999999999</v>
       </c>
       <c r="S125" s="12">
@@ -5947,7 +6445,7 @@
       <c r="U125" s="12">
         <v>0.39779999999999999</v>
       </c>
-      <c r="V125" s="73">
+      <c r="V125" s="64">
         <v>0</v>
       </c>
     </row>
@@ -5957,35 +6455,35 @@
       </c>
     </row>
     <row r="130" spans="17:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q130" s="79" t="s">
+      <c r="Q130" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="R130" s="79"/>
-      <c r="S130" s="79"/>
-      <c r="T130" s="79"/>
-      <c r="U130" s="79"/>
-      <c r="V130" s="79"/>
+      <c r="R130" s="130"/>
+      <c r="S130" s="130"/>
+      <c r="T130" s="130"/>
+      <c r="U130" s="130"/>
+      <c r="V130" s="130"/>
       <c r="X130" s="32"/>
       <c r="Y130" s="32"/>
       <c r="Z130" s="32"/>
     </row>
     <row r="131" spans="17:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q131" s="6" t="s">
+      <c r="Q131" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="R131" s="6" t="s">
+      <c r="R131" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="S131" s="6" t="s">
+      <c r="S131" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="T131" s="6" t="s">
+      <c r="T131" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="U131" s="6" t="s">
+      <c r="U131" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="V131" s="6" t="s">
+      <c r="V131" s="82" t="s">
         <v>92</v>
       </c>
       <c r="X131" s="29"/>
@@ -5993,22 +6491,22 @@
       <c r="Z131" s="29"/>
     </row>
     <row r="132" spans="17:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="Q132" s="83" t="s">
+      <c r="Q132" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="R132" s="68">
+      <c r="R132" s="59">
         <v>1458.3308</v>
       </c>
-      <c r="S132" s="66">
+      <c r="S132" s="58">
         <v>17.728200000000001</v>
       </c>
-      <c r="T132" s="66">
+      <c r="T132" s="58">
         <v>-59.361600000000003</v>
       </c>
-      <c r="U132" s="66">
+      <c r="U132" s="58">
         <v>0.88859999999999995</v>
       </c>
-      <c r="V132" s="81">
+      <c r="V132" s="71">
         <v>0</v>
       </c>
       <c r="X132" s="29"/>
@@ -6016,22 +6514,22 @@
       <c r="Z132" s="29"/>
     </row>
     <row r="133" spans="17:26" x14ac:dyDescent="0.2">
-      <c r="Q133" s="83">
+      <c r="Q133" s="73">
         <v>5</v>
       </c>
-      <c r="R133" s="68">
+      <c r="R133" s="59">
         <v>1390.2868000000001</v>
       </c>
-      <c r="S133" s="66">
+      <c r="S133" s="58">
         <v>17.386099999999999</v>
       </c>
-      <c r="T133" s="66">
+      <c r="T133" s="58">
         <v>-59.435499999999998</v>
       </c>
-      <c r="U133" s="66">
+      <c r="U133" s="58">
         <v>0.87170000000000003</v>
       </c>
-      <c r="V133" s="81">
+      <c r="V133" s="71">
         <v>186734.11</v>
       </c>
       <c r="X133" s="29"/>
@@ -6039,22 +6537,22 @@
       <c r="Z133" s="29"/>
     </row>
     <row r="134" spans="17:26" x14ac:dyDescent="0.2">
-      <c r="Q134" s="83">
+      <c r="Q134" s="73">
         <v>10</v>
       </c>
-      <c r="R134" s="68">
+      <c r="R134" s="59">
         <v>1332.7424000000001</v>
       </c>
-      <c r="S134" s="66">
+      <c r="S134" s="58">
         <v>17.084299999999999</v>
       </c>
-      <c r="T134" s="66">
+      <c r="T134" s="58">
         <v>-59.435000000000002</v>
       </c>
-      <c r="U134" s="66">
+      <c r="U134" s="58">
         <v>0.8569</v>
       </c>
-      <c r="V134" s="81">
+      <c r="V134" s="71">
         <v>362246.17</v>
       </c>
       <c r="X134" s="29"/>
@@ -6062,22 +6560,22 @@
       <c r="Z134" s="29"/>
     </row>
     <row r="135" spans="17:26" x14ac:dyDescent="0.2">
-      <c r="Q135" s="85">
+      <c r="Q135" s="75">
         <v>14</v>
       </c>
-      <c r="R135" s="86">
+      <c r="R135" s="76">
         <v>1280.0467000000001</v>
       </c>
-      <c r="S135" s="87">
+      <c r="S135" s="77">
         <v>16.797000000000001</v>
       </c>
-      <c r="T135" s="87">
+      <c r="T135" s="77">
         <v>-59.4771</v>
       </c>
-      <c r="U135" s="87">
+      <c r="U135" s="77">
         <v>0.8427</v>
       </c>
-      <c r="V135" s="88">
+      <c r="V135" s="78">
         <v>492142.41</v>
       </c>
       <c r="X135" s="29"/>
@@ -6085,22 +6583,22 @@
       <c r="Z135" s="29"/>
     </row>
     <row r="136" spans="17:26" x14ac:dyDescent="0.2">
-      <c r="Q136" s="83">
+      <c r="Q136" s="73">
         <v>20</v>
       </c>
-      <c r="R136" s="68">
+      <c r="R136" s="59">
         <v>1216.0425</v>
       </c>
-      <c r="S136" s="66">
+      <c r="S136" s="58">
         <v>16.432700000000001</v>
       </c>
-      <c r="T136" s="66">
+      <c r="T136" s="58">
         <v>-59.539700000000003</v>
       </c>
-      <c r="U136" s="66">
+      <c r="U136" s="58">
         <v>0.8246</v>
       </c>
-      <c r="V136" s="81">
+      <c r="V136" s="71">
         <v>677654.12</v>
       </c>
       <c r="X136" s="29"/>
@@ -6108,22 +6606,22 @@
       <c r="Z136" s="29"/>
     </row>
     <row r="137" spans="17:26" x14ac:dyDescent="0.2">
-      <c r="Q137" s="83">
+      <c r="Q137" s="73">
         <v>25</v>
       </c>
-      <c r="R137" s="68">
+      <c r="R137" s="59">
         <v>1162.3788999999999</v>
       </c>
-      <c r="S137" s="66">
+      <c r="S137" s="58">
         <v>16.113099999999999</v>
       </c>
-      <c r="T137" s="66">
+      <c r="T137" s="58">
         <v>-59.669699999999999</v>
       </c>
-      <c r="U137" s="66">
+      <c r="U137" s="58">
         <v>0.80869999999999997</v>
       </c>
-      <c r="V137" s="81">
+      <c r="V137" s="71">
         <v>819193.68</v>
       </c>
       <c r="X137" s="29"/>
@@ -6131,22 +6629,22 @@
       <c r="Z137" s="29"/>
     </row>
     <row r="138" spans="17:26" x14ac:dyDescent="0.2">
-      <c r="Q138" s="84">
+      <c r="Q138" s="74">
         <v>50</v>
       </c>
-      <c r="R138" s="70">
+      <c r="R138" s="61">
         <v>922.31169999999997</v>
       </c>
-      <c r="S138" s="71">
+      <c r="S138" s="62">
         <v>14.4886</v>
       </c>
-      <c r="T138" s="71">
+      <c r="T138" s="62">
         <v>-59.857700000000001</v>
       </c>
-      <c r="U138" s="71">
+      <c r="U138" s="62">
         <v>0.72809999999999997</v>
       </c>
-      <c r="V138" s="82">
+      <c r="V138" s="72">
         <v>1385620.4</v>
       </c>
       <c r="X138" s="29"/>
@@ -6154,22 +6652,22 @@
       <c r="Z138" s="29"/>
     </row>
     <row r="139" spans="17:26" x14ac:dyDescent="0.2">
-      <c r="Q139" s="65" t="s">
+      <c r="Q139" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="R139" s="68">
+      <c r="R139" s="59">
         <v>358.53039999999999</v>
       </c>
-      <c r="S139" s="66">
+      <c r="S139" s="58">
         <v>8.0864999999999991</v>
       </c>
-      <c r="T139" s="66">
+      <c r="T139" s="58">
         <v>-58.866799999999998</v>
       </c>
-      <c r="U139" s="66">
+      <c r="U139" s="58">
         <v>0.39779999999999999</v>
       </c>
-      <c r="V139" s="81">
+      <c r="V139" s="71">
         <v>0</v>
       </c>
     </row>
@@ -6179,57 +6677,57 @@
       </c>
     </row>
     <row r="143" spans="17:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q143" s="94"/>
-      <c r="R143" s="90" t="s">
+      <c r="Q143" s="80"/>
+      <c r="R143" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="S143" s="90"/>
-      <c r="T143" s="91"/>
-      <c r="U143" s="92" t="s">
+      <c r="S143" s="131"/>
+      <c r="T143" s="132"/>
+      <c r="U143" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="V143" s="90"/>
-      <c r="W143" s="91"/>
-      <c r="X143" s="93" t="s">
+      <c r="V143" s="131"/>
+      <c r="W143" s="132"/>
+      <c r="X143" s="128" t="s">
         <v>139</v>
       </c>
-      <c r="Y143" s="93"/>
-      <c r="Z143" s="93"/>
+      <c r="Y143" s="128"/>
+      <c r="Z143" s="128"/>
     </row>
     <row r="144" spans="17:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q144" s="96" t="s">
+      <c r="Q144" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="R144" s="96" t="s">
+      <c r="R144" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="S144" s="96" t="s">
+      <c r="S144" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="T144" s="97" t="s">
+      <c r="T144" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="U144" s="98" t="s">
+      <c r="U144" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="V144" s="96" t="s">
+      <c r="V144" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="W144" s="97" t="s">
+      <c r="W144" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="X144" s="96" t="s">
+      <c r="X144" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="Y144" s="96" t="s">
+      <c r="Y144" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="Z144" s="96" t="s">
+      <c r="Z144" s="82" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="145" spans="17:29" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="Q145" s="83" t="s">
+      <c r="Q145" s="73" t="s">
         <v>134</v>
       </c>
       <c r="R145" s="39">
@@ -6241,7 +6739,7 @@
       <c r="T145" s="41">
         <v>0.88859999999999995</v>
       </c>
-      <c r="U145" s="89">
+      <c r="U145" s="79">
         <v>17.043099999999999</v>
       </c>
       <c r="V145" s="39">
@@ -6262,7 +6760,7 @@
       <c r="AC145" s="29"/>
     </row>
     <row r="146" spans="17:29" x14ac:dyDescent="0.2">
-      <c r="Q146" s="83">
+      <c r="Q146" s="73">
         <v>5</v>
       </c>
       <c r="R146" s="39">
@@ -6274,7 +6772,7 @@
       <c r="T146" s="41">
         <v>0.87170000000000003</v>
       </c>
-      <c r="U146" s="89">
+      <c r="U146" s="79">
         <v>16.584099999999999</v>
       </c>
       <c r="V146" s="39">
@@ -6295,7 +6793,7 @@
       <c r="AC146" s="29"/>
     </row>
     <row r="147" spans="17:29" x14ac:dyDescent="0.2">
-      <c r="Q147" s="83">
+      <c r="Q147" s="73">
         <v>10</v>
       </c>
       <c r="R147" s="39">
@@ -6307,7 +6805,7 @@
       <c r="T147" s="41">
         <v>0.8569</v>
       </c>
-      <c r="U147" s="89">
+      <c r="U147" s="79">
         <v>16.105899999999998</v>
       </c>
       <c r="V147" s="39">
@@ -6328,40 +6826,40 @@
       <c r="AC147" s="29"/>
     </row>
     <row r="148" spans="17:29" x14ac:dyDescent="0.2">
-      <c r="Q148" s="85">
+      <c r="Q148" s="75">
         <v>14</v>
       </c>
-      <c r="R148" s="99">
+      <c r="R148" s="85">
         <v>16.797000000000001</v>
       </c>
-      <c r="S148" s="99">
+      <c r="S148" s="85">
         <v>-59.4771</v>
       </c>
-      <c r="T148" s="100">
+      <c r="T148" s="86">
         <v>0.8427</v>
       </c>
-      <c r="U148" s="101">
+      <c r="U148" s="87">
         <v>15.7462</v>
       </c>
-      <c r="V148" s="99">
+      <c r="V148" s="85">
         <v>-53.552599999999998</v>
       </c>
-      <c r="W148" s="100">
+      <c r="W148" s="86">
         <v>0.75190000000000001</v>
       </c>
-      <c r="X148" s="102">
+      <c r="X148" s="88">
         <v>16.381499999999999</v>
       </c>
-      <c r="Y148" s="102">
+      <c r="Y148" s="88">
         <v>-54.8996</v>
       </c>
-      <c r="Z148" s="102">
+      <c r="Z148" s="88">
         <v>0.78939999999999999</v>
       </c>
       <c r="AC148" s="29"/>
     </row>
     <row r="149" spans="17:29" x14ac:dyDescent="0.2">
-      <c r="Q149" s="83">
+      <c r="Q149" s="73">
         <v>20</v>
       </c>
       <c r="R149" s="39">
@@ -6373,7 +6871,7 @@
       <c r="T149" s="41">
         <v>0.8246</v>
       </c>
-      <c r="U149" s="89">
+      <c r="U149" s="79">
         <v>15.216100000000001</v>
       </c>
       <c r="V149" s="39">
@@ -6394,7 +6892,7 @@
       <c r="AC149" s="29"/>
     </row>
     <row r="150" spans="17:29" x14ac:dyDescent="0.2">
-      <c r="Q150" s="83">
+      <c r="Q150" s="73">
         <v>25</v>
       </c>
       <c r="R150" s="39">
@@ -6406,7 +6904,7 @@
       <c r="T150" s="41">
         <v>0.80869999999999997</v>
       </c>
-      <c r="U150" s="89">
+      <c r="U150" s="79">
         <v>14.752000000000001</v>
       </c>
       <c r="V150" s="39">
@@ -6427,7 +6925,7 @@
       <c r="AC150" s="29"/>
     </row>
     <row r="151" spans="17:29" x14ac:dyDescent="0.2">
-      <c r="Q151" s="95">
+      <c r="Q151" s="81">
         <v>50</v>
       </c>
       <c r="R151" s="39">
@@ -6439,7 +6937,7 @@
       <c r="T151" s="41">
         <v>0.72809999999999997</v>
       </c>
-      <c r="U151" s="89">
+      <c r="U151" s="79">
         <v>12.529</v>
       </c>
       <c r="V151" s="39">
@@ -6523,12 +7021,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="X143:Z143"/>
-    <mergeCell ref="Q84:U84"/>
-    <mergeCell ref="Q118:V118"/>
-    <mergeCell ref="Q130:V130"/>
-    <mergeCell ref="R143:T143"/>
-    <mergeCell ref="U143:W143"/>
     <mergeCell ref="R52:T52"/>
     <mergeCell ref="U52:W52"/>
     <mergeCell ref="B3:G3"/>
@@ -6536,6 +7028,12 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="I18:N18"/>
     <mergeCell ref="P51:W51"/>
+    <mergeCell ref="X143:Z143"/>
+    <mergeCell ref="Q84:U84"/>
+    <mergeCell ref="Q118:V118"/>
+    <mergeCell ref="Q130:V130"/>
+    <mergeCell ref="R143:T143"/>
+    <mergeCell ref="U143:W143"/>
   </mergeCells>
   <conditionalFormatting sqref="V54:V78">
     <cfRule type="top10" dxfId="7" priority="5" rank="10"/>
@@ -6555,6 +7053,1009 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9766B5B-76F9-B546-8B23-29C02866714F}">
+  <dimension ref="B3:M54"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B3" s="144" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+    </row>
+    <row r="4" spans="2:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="108"/>
+      <c r="C4" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="110"/>
+    </row>
+    <row r="5" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="109"/>
+      <c r="C5" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="67">
+        <v>1280.0467000000001</v>
+      </c>
+      <c r="E5" s="46">
+        <v>16.797000000000001</v>
+      </c>
+      <c r="F5" s="46">
+        <v>19.933299999999999</v>
+      </c>
+      <c r="G5" s="46">
+        <v>-59.4771</v>
+      </c>
+      <c r="H5" s="46">
+        <v>0.8427</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="93">
+        <v>0.03</v>
+      </c>
+      <c r="D6" s="94">
+        <v>817.42769999999996</v>
+      </c>
+      <c r="E6" s="95">
+        <v>13.65</v>
+      </c>
+      <c r="F6" s="95">
+        <v>14.7714</v>
+      </c>
+      <c r="G6" s="95">
+        <v>-35.078400000000002</v>
+      </c>
+      <c r="H6" s="95">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="142"/>
+      <c r="C7" s="93">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="94">
+        <v>883.60929999999996</v>
+      </c>
+      <c r="E7" s="95">
+        <v>14.190099999999999</v>
+      </c>
+      <c r="F7" s="95">
+        <v>15.745799999999999</v>
+      </c>
+      <c r="G7" s="95">
+        <v>-39.559600000000003</v>
+      </c>
+      <c r="H7" s="95">
+        <v>0.9012</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="142"/>
+      <c r="C8" s="93">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="94">
+        <v>1262.1795999999999</v>
+      </c>
+      <c r="E8" s="95">
+        <v>16.696999999999999</v>
+      </c>
+      <c r="F8" s="96">
+        <v>17.274000000000001</v>
+      </c>
+      <c r="G8" s="97">
+        <v>-45.925600000000003</v>
+      </c>
+      <c r="H8" s="98">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="143"/>
+      <c r="C9" s="99">
+        <v>0.15</v>
+      </c>
+      <c r="D9" s="100">
+        <v>1270.2647999999999</v>
+      </c>
+      <c r="E9" s="101">
+        <v>16.7424</v>
+      </c>
+      <c r="F9" s="101">
+        <v>18.178999999999998</v>
+      </c>
+      <c r="G9" s="101">
+        <v>-54.246499999999997</v>
+      </c>
+      <c r="H9" s="101">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="141" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="93">
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="94">
+        <v>444.839</v>
+      </c>
+      <c r="E10" s="95">
+        <v>9.5157000000000007</v>
+      </c>
+      <c r="F10" s="95">
+        <v>13.7942</v>
+      </c>
+      <c r="G10" s="95">
+        <v>-28.4421</v>
+      </c>
+      <c r="H10" s="95">
+        <v>0.68979999999999997</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="142"/>
+      <c r="C11" s="93">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="94">
+        <v>606.51760000000002</v>
+      </c>
+      <c r="E11" s="95">
+        <v>11.6031</v>
+      </c>
+      <c r="F11" s="95">
+        <v>15.9076</v>
+      </c>
+      <c r="G11" s="95">
+        <v>-32.139099999999999</v>
+      </c>
+      <c r="H11" s="95">
+        <v>0.72940000000000005</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="142"/>
+      <c r="C12" s="93">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="104">
+        <v>1556.6387</v>
+      </c>
+      <c r="E12" s="105">
+        <v>18.1968</v>
+      </c>
+      <c r="F12" s="105">
+        <v>17.6023</v>
+      </c>
+      <c r="G12" s="105">
+        <v>-45.110799999999998</v>
+      </c>
+      <c r="H12" s="105">
+        <v>1.0338000000000001</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="143"/>
+      <c r="C13" s="99">
+        <v>0.15</v>
+      </c>
+      <c r="D13" s="106">
+        <v>1910.3957</v>
+      </c>
+      <c r="E13" s="107">
+        <v>19.680199999999999</v>
+      </c>
+      <c r="F13" s="107">
+        <v>18.101099999999999</v>
+      </c>
+      <c r="G13" s="107">
+        <v>-39.234200000000001</v>
+      </c>
+      <c r="H13" s="107">
+        <v>1.0871999999999999</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="102"/>
+      <c r="C14" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="92">
+        <v>358.53039999999999</v>
+      </c>
+      <c r="E14" s="89">
+        <v>8.0864999999999991</v>
+      </c>
+      <c r="F14" s="89">
+        <v>20.328600000000002</v>
+      </c>
+      <c r="G14" s="89">
+        <v>-58.866799999999998</v>
+      </c>
+      <c r="H14" s="89">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="2:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="C19" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="2:12" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="21" spans="2:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="94">
+        <v>1280.0467000000001</v>
+      </c>
+      <c r="E21" s="95">
+        <v>16.797000000000001</v>
+      </c>
+      <c r="F21" s="95">
+        <v>19.933299999999999</v>
+      </c>
+      <c r="G21" s="95">
+        <v>-59.4771</v>
+      </c>
+      <c r="H21" s="95">
+        <v>0.8427</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C22" s="112" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="118">
+        <v>1274.3039000000001</v>
+      </c>
+      <c r="E22" s="119">
+        <v>16.765000000000001</v>
+      </c>
+      <c r="F22" s="119">
+        <v>19.483799999999999</v>
+      </c>
+      <c r="G22" s="119">
+        <v>-57.017000000000003</v>
+      </c>
+      <c r="H22" s="119">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C23" s="112" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="94">
+        <v>1120.1632</v>
+      </c>
+      <c r="E23" s="95">
+        <v>15.851800000000001</v>
+      </c>
+      <c r="F23" s="95">
+        <v>21.687000000000001</v>
+      </c>
+      <c r="G23" s="95">
+        <v>-60.798400000000001</v>
+      </c>
+      <c r="H23" s="95">
+        <v>0.73089999999999999</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C24" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="94">
+        <v>1431.2670000000001</v>
+      </c>
+      <c r="E24" s="95">
+        <v>17.593900000000001</v>
+      </c>
+      <c r="F24" s="95">
+        <v>22.9345</v>
+      </c>
+      <c r="G24" s="95">
+        <v>-62.256500000000003</v>
+      </c>
+      <c r="H24" s="95">
+        <v>0.7671</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C25" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="94">
+        <v>874.97810000000004</v>
+      </c>
+      <c r="E25" s="95">
+        <v>14.1219</v>
+      </c>
+      <c r="F25" s="95">
+        <v>21.1968</v>
+      </c>
+      <c r="G25" s="95">
+        <v>-60.451599999999999</v>
+      </c>
+      <c r="H25" s="95">
+        <v>0.66620000000000001</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C26" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="94">
+        <v>1249.8747000000001</v>
+      </c>
+      <c r="E26" s="95">
+        <v>16.627400000000002</v>
+      </c>
+      <c r="F26" s="95">
+        <v>22.394400000000001</v>
+      </c>
+      <c r="G26" s="95">
+        <v>-60.730600000000003</v>
+      </c>
+      <c r="H26" s="95">
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C27" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="100">
+        <v>1809.6655000000001</v>
+      </c>
+      <c r="E27" s="117">
+        <v>19.286000000000001</v>
+      </c>
+      <c r="F27" s="101">
+        <v>23.1143</v>
+      </c>
+      <c r="G27" s="101">
+        <v>-60.890099999999997</v>
+      </c>
+      <c r="H27" s="101">
+        <v>0.83440000000000003</v>
+      </c>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C28" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="67">
+        <v>358.53039999999999</v>
+      </c>
+      <c r="E28" s="46">
+        <v>8.0864999999999991</v>
+      </c>
+      <c r="F28" s="46">
+        <v>20.328600000000002</v>
+      </c>
+      <c r="G28" s="46">
+        <v>-58.866799999999998</v>
+      </c>
+      <c r="H28" s="46">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="29"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="29"/>
+      <c r="C30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="29"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="C33" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+    </row>
+    <row r="34" spans="2:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="113"/>
+      <c r="D34" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+    </row>
+    <row r="35" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="112" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="94">
+        <v>1898.99</v>
+      </c>
+      <c r="E35" s="95">
+        <v>19.636500000000002</v>
+      </c>
+      <c r="F35" s="95">
+        <v>25.349299999999999</v>
+      </c>
+      <c r="G35" s="95">
+        <v>-62.967700000000001</v>
+      </c>
+      <c r="H35" s="95">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C36" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="94">
+        <v>1387.5165</v>
+      </c>
+      <c r="E36" s="95">
+        <v>17.3718</v>
+      </c>
+      <c r="F36" s="95">
+        <v>22.433900000000001</v>
+      </c>
+      <c r="G36" s="95">
+        <v>-59.535899999999998</v>
+      </c>
+      <c r="H36" s="95">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C37" s="112" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="94">
+        <v>1280.0467000000001</v>
+      </c>
+      <c r="E37" s="95">
+        <v>16.797000000000001</v>
+      </c>
+      <c r="F37" s="95">
+        <v>19.933299999999999</v>
+      </c>
+      <c r="G37" s="95">
+        <v>-59.4771</v>
+      </c>
+      <c r="H37" s="95">
+        <v>0.8427</v>
+      </c>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C38" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="120">
+        <v>1802.5238999999999</v>
+      </c>
+      <c r="E38" s="121">
+        <v>19.257300000000001</v>
+      </c>
+      <c r="F38" s="121">
+        <v>18.663699999999999</v>
+      </c>
+      <c r="G38" s="121">
+        <v>-52.020600000000002</v>
+      </c>
+      <c r="H38" s="121">
+        <v>1.0318000000000001</v>
+      </c>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C39" s="114" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="100">
+        <v>1740.9661000000001</v>
+      </c>
+      <c r="E39" s="101">
+        <v>19.005199999999999</v>
+      </c>
+      <c r="F39" s="101">
+        <v>18.201000000000001</v>
+      </c>
+      <c r="G39" s="101">
+        <v>-52.800899999999999</v>
+      </c>
+      <c r="H39" s="101">
+        <v>1.0442</v>
+      </c>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C40" s="123" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="124">
+        <v>358.53039999999999</v>
+      </c>
+      <c r="E40" s="125">
+        <v>8.0864999999999991</v>
+      </c>
+      <c r="F40" s="125">
+        <v>20.328600000000002</v>
+      </c>
+      <c r="G40" s="125">
+        <v>-58.866799999999998</v>
+      </c>
+      <c r="H40" s="125">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C42" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B45" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+    </row>
+    <row r="46" spans="2:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+    </row>
+    <row r="47" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="145" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="146" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="94">
+        <v>1280.0467000000001</v>
+      </c>
+      <c r="E47" s="95">
+        <v>16.797000000000001</v>
+      </c>
+      <c r="F47" s="95">
+        <v>19.933299999999999</v>
+      </c>
+      <c r="G47" s="95">
+        <v>-59.4771</v>
+      </c>
+      <c r="H47" s="95">
+        <v>0.8427</v>
+      </c>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48" s="145" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="146" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="94">
+        <v>1642.4110000000001</v>
+      </c>
+      <c r="E48" s="95">
+        <v>18.583600000000001</v>
+      </c>
+      <c r="F48" s="95">
+        <v>20.161100000000001</v>
+      </c>
+      <c r="G48" s="95">
+        <v>-58.773600000000002</v>
+      </c>
+      <c r="H48" s="95">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B49" s="145" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="146" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="94">
+        <v>1401.5581</v>
+      </c>
+      <c r="E49" s="95">
+        <v>17.4438</v>
+      </c>
+      <c r="F49" s="95">
+        <v>20.4815</v>
+      </c>
+      <c r="G49" s="95">
+        <v>-58.543999999999997</v>
+      </c>
+      <c r="H49" s="95">
+        <v>0.85170000000000001</v>
+      </c>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B50" s="153" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="154" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="151">
+        <v>2706.6318999999999</v>
+      </c>
+      <c r="E50" s="152">
+        <v>22.246600000000001</v>
+      </c>
+      <c r="F50" s="152">
+        <v>20.357700000000001</v>
+      </c>
+      <c r="G50" s="152">
+        <v>-57.412399999999998</v>
+      </c>
+      <c r="H50" s="152">
+        <v>1.0928</v>
+      </c>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B51" s="147" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="148" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="100">
+        <v>1189.5998999999999</v>
+      </c>
+      <c r="E51" s="101">
+        <v>16.276900000000001</v>
+      </c>
+      <c r="F51" s="101">
+        <v>19.068000000000001</v>
+      </c>
+      <c r="G51" s="101">
+        <v>-57.213999999999999</v>
+      </c>
+      <c r="H51" s="101">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B52" s="149" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="150"/>
+      <c r="D52" s="100">
+        <v>358.53039999999999</v>
+      </c>
+      <c r="E52" s="101">
+        <v>8.0864999999999991</v>
+      </c>
+      <c r="F52" s="101">
+        <v>20.328600000000002</v>
+      </c>
+      <c r="G52" s="101">
+        <v>-58.866799999999998</v>
+      </c>
+      <c r="H52" s="101">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B54" s="122" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="C19:H19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5503420-18E7-3445-9600-19C8C9F65792}">
   <dimension ref="G23"/>
   <sheetViews>

--- a/data/analysisFiles/Momentum-Series1.xlsx
+++ b/data/analysisFiles/Momentum-Series1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitgupta/Documents/STUDY/git/anks/github_page/data/analysisFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98E01FF-C91A-E544-90CC-A1E466A6C65F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AAD0E6-C926-E644-931A-423749C5B4B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{002A3E7F-AFC8-3B44-ABFB-1DAEE9CF9586}"/>
   </bookViews>
@@ -20,6 +20,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Article-2'!$I$4:$J$52</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Article-2'!$B$58</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Article-2'!$B$59</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Article-2'!$B$60</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Article-2'!$C$57:$H$57</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Article-2'!$C$58:$H$58</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Article-2'!$C$59:$H$59</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Article-2'!$C$60:$H$60</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="181">
   <si>
     <t>Nifty 200 Momentum 30 Index</t>
   </si>
@@ -863,6 +870,21 @@
     </r>
   </si>
   <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>12M_MoM+12M_Earn</t>
+  </si>
+  <si>
+    <t>12M_MoM+6M_Earn</t>
+  </si>
+  <si>
+    <t>12M_Earn</t>
+  </si>
+  <si>
+    <t>12M_RiskReturn+12M_Earn</t>
+  </si>
+  <si>
     <t>Price Momentum</t>
   </si>
   <si>
@@ -900,6 +922,15 @@
   </si>
   <si>
     <t>Inclusion of Earnings momentum helps improve portfolio performance</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>upper</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1866,6 +1897,17 @@
     <xf numFmtId="9" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7054,10 +7096,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9766B5B-76F9-B546-8B23-29C02866714F}">
-  <dimension ref="B3:M54"/>
+  <dimension ref="B3:M68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7829,7 +7871,7 @@
     </row>
     <row r="45" spans="2:13" ht="20" x14ac:dyDescent="0.2">
       <c r="B45" s="140" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C45" s="140"/>
       <c r="D45" s="140"/>
@@ -7842,10 +7884,10 @@
     </row>
     <row r="46" spans="2:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="82" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C46" s="83" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D46" s="82" t="s">
         <v>26</v>
@@ -7870,10 +7912,10 @@
     </row>
     <row r="47" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B47" s="145" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C47" s="146" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D47" s="94">
         <v>1280.0467000000001</v>
@@ -7898,10 +7940,10 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="145" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C48" s="146" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D48" s="94">
         <v>1642.4110000000001</v>
@@ -7926,10 +7968,10 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="145" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C49" s="146" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D49" s="94">
         <v>1401.5581</v>
@@ -7954,10 +7996,10 @@
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="153" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C50" s="154" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D50" s="151">
         <v>2706.6318999999999</v>
@@ -7982,10 +8024,10 @@
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="147" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C51" s="148" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D51" s="100">
         <v>1189.5998999999999</v>
@@ -8036,7 +8078,206 @@
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="122" t="s">
-        <v>171</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C57" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="G57" s="157" t="s">
+        <v>168</v>
+      </c>
+      <c r="H57" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B58" s="155" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="155">
+        <v>1.3302E-2</v>
+      </c>
+      <c r="D58" s="155">
+        <v>1.4277E-2</v>
+      </c>
+      <c r="E58" s="155">
+        <v>1.3331000000000001E-2</v>
+      </c>
+      <c r="F58" s="155">
+        <v>1.6993999999999999E-2</v>
+      </c>
+      <c r="G58" s="158">
+        <v>1.2723E-2</v>
+      </c>
+      <c r="H58" s="155">
+        <v>6.3879999999999996E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B59" s="156">
+        <v>0.25</v>
+      </c>
+      <c r="C59" s="155">
+        <v>-2.0320999999999999E-2</v>
+      </c>
+      <c r="D59" s="155">
+        <v>-1.5838000000000001E-2</v>
+      </c>
+      <c r="E59" s="155">
+        <v>-2.0240999999999999E-2</v>
+      </c>
+      <c r="F59" s="155">
+        <v>-1.7668E-2</v>
+      </c>
+      <c r="G59" s="158">
+        <v>-1.5483E-2</v>
+      </c>
+      <c r="H59" s="155">
+        <v>-2.4334000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B60" s="156">
+        <v>0.75</v>
+      </c>
+      <c r="C60" s="155">
+        <v>5.0395000000000002E-2</v>
+      </c>
+      <c r="D60" s="155">
+        <v>4.9473000000000003E-2</v>
+      </c>
+      <c r="E60" s="155">
+        <v>5.0271999999999997E-2</v>
+      </c>
+      <c r="F60" s="155">
+        <v>5.2144000000000003E-2</v>
+      </c>
+      <c r="G60" s="158">
+        <v>4.7579000000000003E-2</v>
+      </c>
+      <c r="H60" s="155">
+        <v>3.9981000000000003E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="159">
+        <f>C58</f>
+        <v>1.3302E-2</v>
+      </c>
+      <c r="D63" s="159">
+        <f t="shared" ref="D63:H63" si="0">D58</f>
+        <v>1.4277E-2</v>
+      </c>
+      <c r="E63" s="159">
+        <f t="shared" si="0"/>
+        <v>1.3331000000000001E-2</v>
+      </c>
+      <c r="F63" s="159">
+        <f t="shared" si="0"/>
+        <v>1.6993999999999999E-2</v>
+      </c>
+      <c r="G63" s="159">
+        <f t="shared" si="0"/>
+        <v>1.2723E-2</v>
+      </c>
+      <c r="H63" s="159">
+        <f t="shared" si="0"/>
+        <v>6.3879999999999996E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="159">
+        <f>C58-C59</f>
+        <v>3.3623E-2</v>
+      </c>
+      <c r="D64" s="159">
+        <f t="shared" ref="D64:H64" si="1">D58-D59</f>
+        <v>3.0115000000000003E-2</v>
+      </c>
+      <c r="E64" s="159">
+        <f t="shared" si="1"/>
+        <v>3.3571999999999998E-2</v>
+      </c>
+      <c r="F64" s="159">
+        <f t="shared" si="1"/>
+        <v>3.4661999999999998E-2</v>
+      </c>
+      <c r="G64" s="159">
+        <f t="shared" si="1"/>
+        <v>2.8206000000000002E-2</v>
+      </c>
+      <c r="H64" s="159">
+        <f t="shared" si="1"/>
+        <v>3.0721999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" s="159">
+        <f>C60-C58</f>
+        <v>3.7093000000000001E-2</v>
+      </c>
+      <c r="D65" s="159">
+        <f>D60-D58</f>
+        <v>3.5196000000000005E-2</v>
+      </c>
+      <c r="E65" s="159">
+        <f>E60-E58</f>
+        <v>3.6940999999999995E-2</v>
+      </c>
+      <c r="F65" s="159">
+        <f>F60-F58</f>
+        <v>3.5150000000000001E-2</v>
+      </c>
+      <c r="G65" s="159">
+        <f>G60-G58</f>
+        <v>3.4856000000000005E-2</v>
+      </c>
+      <c r="H65" s="159">
+        <f>H60-H58</f>
+        <v>3.3593000000000005E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="156">
+        <v>0.5</v>
+      </c>
+      <c r="C68" s="155">
+        <v>1.619E-2</v>
+      </c>
+      <c r="D68" s="155">
+        <v>1.5779999999999999E-2</v>
+      </c>
+      <c r="E68" s="155">
+        <v>1.1502E-2</v>
+      </c>
+      <c r="F68" s="155">
+        <v>1.5793000000000001E-2</v>
+      </c>
+      <c r="G68" s="158">
+        <v>1.4822E-2</v>
+      </c>
+      <c r="H68" s="155">
+        <v>5.4089999999999997E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysisFiles/Momentum-Series1.xlsx
+++ b/data/analysisFiles/Momentum-Series1.xlsx
@@ -8,25 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitgupta/Documents/STUDY/git/anks/github_page/data/analysisFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AAD0E6-C926-E644-931A-423749C5B4B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4409A201-8888-7F48-9D74-721479A057AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{002A3E7F-AFC8-3B44-ABFB-1DAEE9CF9586}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{002A3E7F-AFC8-3B44-ABFB-1DAEE9CF9586}"/>
   </bookViews>
   <sheets>
-    <sheet name="Article 0" sheetId="1" r:id="rId1"/>
-    <sheet name="Article-1" sheetId="3" r:id="rId2"/>
-    <sheet name="Article-2" sheetId="4" r:id="rId3"/>
-    <sheet name="Article - 1 Relative Momentum" sheetId="2" r:id="rId4"/>
+    <sheet name="Article 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Article-2" sheetId="3" r:id="rId2"/>
+    <sheet name="Article-3" sheetId="4" r:id="rId3"/>
+    <sheet name="Article-4" sheetId="5" r:id="rId4"/>
+    <sheet name="Article - 2 Relative Momentum" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Article-2'!$I$4:$J$52</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Article-2'!$B$58</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Article-2'!$B$59</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Article-2'!$B$60</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Article-2'!$C$57:$H$57</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Article-2'!$C$58:$H$58</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Article-2'!$C$59:$H$59</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Article-2'!$C$60:$H$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Article-3'!$I$4:$J$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="210">
   <si>
     <t>Nifty 200 Momentum 30 Index</t>
   </si>
@@ -481,9 +475,6 @@
     <t>MA Cross Over (1M,3M)</t>
   </si>
   <si>
-    <t xml:space="preserve">Base Momentum Prototype - 2010 Onwards					</t>
-  </si>
-  <si>
     <t>Performance of Momentum Strategies based on different Trend Indicators</t>
   </si>
   <si>
@@ -906,8 +897,23 @@
     <t>6M</t>
   </si>
   <si>
+    <t>Inclusion of Earnings momentum helps improve portfolio performance</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Momentum Prototype - FULL Period	</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Table 3: </t>
+      <t xml:space="preserve">Table 4: </t>
     </r>
     <r>
       <rPr>
@@ -921,16 +927,131 @@
     </r>
   </si>
   <si>
-    <t>Inclusion of Earnings momentum helps improve portfolio performance</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>upper</t>
+    <t>Single Factor</t>
+  </si>
+  <si>
+    <t>Multi Factor</t>
+  </si>
+  <si>
+    <t>Factors</t>
+  </si>
+  <si>
+    <t>Rebalancing Day</t>
+  </si>
+  <si>
+    <t>Stop Loss</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Asset Allocation</t>
+  </si>
+  <si>
+    <t>Equi-weighted</t>
+  </si>
+  <si>
+    <t>Risk Parity</t>
+  </si>
+  <si>
+    <t>Number of Assets</t>
+  </si>
+  <si>
+    <t>SL at 8%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Table 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Incremental improvement in Portfolio performance</t>
+    </r>
+  </si>
+  <si>
+    <t>Period: 1 Jan 2008 - 31 May 2024</t>
+  </si>
+  <si>
+    <t>Portfolio Performance improves at every step</t>
+  </si>
+  <si>
+    <t>Period: Last 1 year (till 31st May 2024)</t>
+  </si>
+  <si>
+    <t>Last 1 year performance comparison</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Table 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Incremental improvement in Portfolio performance</t>
+    </r>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>Last 1 Year Performance</t>
   </si>
 </sst>
 </file>
@@ -943,7 +1064,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="#\ &quot;bps&quot;"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1190,6 +1311,22 @@
     <font>
       <sz val="12"/>
       <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1473,7 +1610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1801,72 +1938,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1877,12 +1954,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1908,6 +1979,130 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3163,7 +3358,7 @@
   <dimension ref="B1:N15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3194,19 +3389,19 @@
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="127" t="s">
+      <c r="G2" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
     </row>
     <row r="3" spans="2:14" s="7" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -3623,8 +3818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322F6168-EE58-3140-8958-4F2142B3E126}">
   <dimension ref="B3:AC169"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="M126" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="Q130" sqref="Q130:V130"/>
+    <sheetView showGridLines="0" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3647,25 +3842,25 @@
     <col min="23" max="16384" width="16" style="16"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="I3" s="137" t="s">
+    <row r="3" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="142" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="I3" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
-    </row>
-    <row r="4" spans="2:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+    </row>
+    <row r="4" spans="2:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
       <c r="C4" s="20" t="s">
         <v>17</v>
@@ -3698,8 +3893,14 @@
       <c r="N4" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4"/>
+    </row>
+    <row r="5" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>26</v>
       </c>
@@ -3716,7 +3917,7 @@
         <v>769.09299999999996</v>
       </c>
       <c r="G5" s="30">
-        <v>358.53039999999999</v>
+        <v>362.1816</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>26</v>
@@ -3734,10 +3935,18 @@
         <v>556.53589999999997</v>
       </c>
       <c r="N5" s="30">
-        <v>422.26150000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+        <v>426.56169999999997</v>
+      </c>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29">
+        <v>133.15459999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
@@ -3754,7 +3963,7 @@
         <v>13.228899999999999</v>
       </c>
       <c r="G6" s="30">
-        <v>8.0864999999999991</v>
+        <v>8.1532</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>8</v>
@@ -3772,10 +3981,18 @@
         <v>12.641500000000001</v>
       </c>
       <c r="N6" s="30">
-        <v>10.5052</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+        <v>10.5829</v>
+      </c>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29">
+        <v>33.154600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
@@ -3792,7 +4009,7 @@
         <v>20.664100000000001</v>
       </c>
       <c r="G7" s="30">
-        <v>20.328600000000002</v>
+        <v>20.340800000000002</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>9</v>
@@ -3810,10 +4027,18 @@
         <v>17.818200000000001</v>
       </c>
       <c r="N7" s="30">
-        <v>16.356300000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+        <v>16.3735</v>
+      </c>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29">
+        <v>12.4384</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
@@ -3850,8 +4075,16 @@
       <c r="N8" s="30">
         <v>-38.114100000000001</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29">
+        <v>-7.0824999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
@@ -3868,7 +4101,7 @@
         <v>0.64019999999999999</v>
       </c>
       <c r="G9" s="30">
-        <v>0.39779999999999999</v>
+        <v>0.40079999999999999</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>11</v>
@@ -3886,10 +4119,18 @@
         <v>0.70950000000000002</v>
       </c>
       <c r="N9" s="30">
-        <v>0.64229999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29">
+        <v>2.6655000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
@@ -3906,7 +4147,7 @@
         <v>1.0009999999999999</v>
       </c>
       <c r="G10" s="30">
-        <v>0.60740000000000005</v>
+        <v>0.61219999999999997</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>12</v>
@@ -3924,10 +4165,18 @@
         <v>1.0880000000000001</v>
       </c>
       <c r="N10" s="30">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29">
+        <v>4.4790999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
@@ -3960,8 +4209,16 @@
         <v>0.88460000000000005</v>
       </c>
       <c r="N11" s="30"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
@@ -3994,8 +4251,16 @@
         <v>0.1057</v>
       </c>
       <c r="N12" s="30"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29">
+        <v>7.9299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
@@ -4028,8 +4293,28 @@
         <v>0.2021</v>
       </c>
       <c r="N13" s="30"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29">
+        <v>1.4376</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="G14" s="30"/>
+      <c r="N14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29">
+        <v>157444.35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B15" s="31" t="s">
         <v>29</v>
       </c>
@@ -4037,27 +4322,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
       <c r="I16" s="19"/>
     </row>
     <row r="18" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="I18" s="139" t="s">
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="I18" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="139"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
     </row>
     <row r="19" spans="2:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
@@ -4110,7 +4395,7 @@
         <v>274.26659999999998</v>
       </c>
       <c r="G20" s="30">
-        <v>257.46429999999998</v>
+        <v>260.08629999999999</v>
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="14" t="s">
@@ -4129,7 +4414,7 @@
         <v>133.15459999999999</v>
       </c>
       <c r="N20" s="30">
-        <v>120.5167</v>
+        <v>121.744</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
@@ -4149,7 +4434,7 @@
         <v>27.373000000000001</v>
       </c>
       <c r="G21" s="30">
-        <v>25.456499999999998</v>
+        <v>25.761700000000001</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="14" t="s">
@@ -4168,7 +4453,7 @@
         <v>33.154600000000002</v>
       </c>
       <c r="N21" s="30">
-        <v>20.5167</v>
+        <v>21.744</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
@@ -4188,7 +4473,7 @@
         <v>18.2851</v>
       </c>
       <c r="G22" s="30">
-        <v>16.0182</v>
+        <v>16.078399999999998</v>
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="14" t="s">
@@ -4207,7 +4492,7 @@
         <v>12.4384</v>
       </c>
       <c r="N22" s="30">
-        <v>9.6164000000000005</v>
+        <v>10.027900000000001</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
@@ -4266,7 +4551,7 @@
         <v>1.4970000000000001</v>
       </c>
       <c r="G24" s="30">
-        <v>1.5891999999999999</v>
+        <v>1.6023000000000001</v>
       </c>
       <c r="H24" s="29"/>
       <c r="I24" s="14" t="s">
@@ -4285,7 +4570,7 @@
         <v>2.6655000000000002</v>
       </c>
       <c r="N24" s="30">
-        <v>2.1335000000000002</v>
+        <v>2.1682999999999999</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
@@ -4305,7 +4590,7 @@
         <v>2.4014000000000002</v>
       </c>
       <c r="G25" s="30">
-        <v>2.5722</v>
+        <v>2.5954999999999999</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="14" t="s">
@@ -4324,7 +4609,7 @@
         <v>4.4790999999999999</v>
       </c>
       <c r="N25" s="30">
-        <v>3.4851999999999999</v>
+        <v>3.5474000000000001</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
@@ -4437,13 +4722,13 @@
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
+      <c r="G29" s="29"/>
       <c r="I29" s="14"/>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
+      <c r="N29" s="29"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="31" t="s">
@@ -4491,7 +4776,7 @@
       <c r="M32" s="30"/>
       <c r="N32" s="30"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="19"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -4505,7 +4790,7 @@
       <c r="M33" s="30"/>
       <c r="N33" s="30"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="19"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
@@ -4519,7 +4804,7 @@
       <c r="M34" s="30"/>
       <c r="N34" s="30"/>
     </row>
-    <row r="37" spans="2:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
         <v>23</v>
       </c>
@@ -4538,8 +4823,14 @@
       <c r="G37" s="21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37"/>
+    </row>
+    <row r="38" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B38" s="14" t="s">
         <v>17</v>
       </c>
@@ -4558,8 +4849,14 @@
       <c r="G38" s="12">
         <v>0.77960600000000002</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="14" t="s">
         <v>19</v>
       </c>
@@ -4578,8 +4875,14 @@
       <c r="G39" s="12">
         <v>0.79859500000000005</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="14" t="s">
         <v>20</v>
       </c>
@@ -4598,8 +4901,14 @@
       <c r="G40" s="12">
         <v>0.805728</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="14" t="s">
         <v>21</v>
       </c>
@@ -4618,8 +4927,14 @@
       <c r="G41" s="12">
         <v>0.81971700000000003</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+    </row>
+    <row r="42" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="23" t="s">
         <v>18</v>
       </c>
@@ -4638,8 +4953,14 @@
       <c r="G42" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+    </row>
+    <row r="43" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B43" s="14" t="s">
         <v>24</v>
       </c>
@@ -4659,7 +4980,7 @@
         <v>8.0864999999999991</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="14" t="s">
         <v>11</v>
       </c>
@@ -4679,7 +5000,7 @@
         <v>0.39779999999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="14" t="s">
         <v>25</v>
       </c>
@@ -4699,22 +5020,22 @@
         <v>-58.866799999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="51" spans="2:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P51" s="136" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q51" s="136"/>
-      <c r="R51" s="136"/>
-      <c r="S51" s="136"/>
-      <c r="T51" s="136"/>
-      <c r="U51" s="136"/>
-      <c r="V51" s="136"/>
-      <c r="W51" s="136"/>
+      <c r="P51" s="142" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q51" s="142"/>
+      <c r="R51" s="142"/>
+      <c r="S51" s="142"/>
+      <c r="T51" s="142"/>
+      <c r="U51" s="142"/>
+      <c r="V51" s="142"/>
+      <c r="W51" s="142"/>
     </row>
     <row r="52" spans="2:23" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="32"/>
@@ -4729,16 +5050,16 @@
       <c r="K52" s="33"/>
       <c r="P52" s="18"/>
       <c r="Q52" s="18"/>
-      <c r="R52" s="134" t="s">
+      <c r="R52" s="140" t="s">
+        <v>87</v>
+      </c>
+      <c r="S52" s="140"/>
+      <c r="T52" s="141"/>
+      <c r="U52" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="S52" s="134"/>
-      <c r="T52" s="135"/>
-      <c r="U52" s="134" t="s">
-        <v>89</v>
-      </c>
-      <c r="V52" s="134"/>
-      <c r="W52" s="134"/>
+      <c r="V52" s="140"/>
+      <c r="W52" s="140"/>
     </row>
     <row r="53" spans="2:23" ht="41" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="29"/>
@@ -4896,7 +5217,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="P57" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q57" s="45" t="s">
         <v>44</v>
@@ -5648,7 +5969,7 @@
         <v>34</v>
       </c>
       <c r="R78" s="54">
-        <v>8.0864999999999991</v>
+        <v>8.15</v>
       </c>
       <c r="S78" s="55">
         <v>-58.866799999999998</v>
@@ -5657,37 +5978,37 @@
         <v>0.39779999999999999</v>
       </c>
       <c r="U78" s="54">
-        <v>14.5596</v>
+        <v>14.82</v>
       </c>
       <c r="V78" s="55">
         <v>-38.114100000000001</v>
       </c>
       <c r="W78" s="54">
-        <v>0.76139999999999997</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="P80" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q80" s="51"/>
       <c r="R80" s="51"/>
       <c r="S80" s="51"/>
     </row>
     <row r="84" spans="17:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q84" s="129" t="s">
-        <v>122</v>
-      </c>
-      <c r="R84" s="129"/>
-      <c r="S84" s="129"/>
-      <c r="T84" s="129"/>
-      <c r="U84" s="129"/>
+      <c r="Q84" s="147" t="s">
+        <v>121</v>
+      </c>
+      <c r="R84" s="147"/>
+      <c r="S84" s="147"/>
+      <c r="T84" s="147"/>
+      <c r="U84" s="147"/>
       <c r="V84" s="32"/>
       <c r="W84" s="32"/>
     </row>
     <row r="85" spans="17:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q85" s="82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R85" s="82" t="s">
         <v>26</v>
@@ -5708,7 +6029,7 @@
     </row>
     <row r="86" spans="17:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="Q86" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R86" s="59">
         <v>1280.0467000000001</v>
@@ -5729,7 +6050,7 @@
     </row>
     <row r="87" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q87" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R87" s="59">
         <v>1481.1749</v>
@@ -5750,7 +6071,7 @@
     </row>
     <row r="88" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q88" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R88" s="59">
         <v>1616.5634</v>
@@ -5771,7 +6092,7 @@
     </row>
     <row r="89" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q89" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R89" s="59">
         <v>1489.4135000000001</v>
@@ -5792,7 +6113,7 @@
     </row>
     <row r="90" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q90" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R90" s="59">
         <v>1647.4135000000001</v>
@@ -5813,7 +6134,7 @@
     </row>
     <row r="91" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q91" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R91" s="59">
         <v>1965.4463000000001</v>
@@ -5834,7 +6155,7 @@
     </row>
     <row r="92" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q92" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R92" s="59">
         <v>1733</v>
@@ -5855,7 +6176,7 @@
     </row>
     <row r="93" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q93" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R93" s="59">
         <v>1899.2085999999999</v>
@@ -5876,7 +6197,7 @@
     </row>
     <row r="94" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q94" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R94" s="59">
         <v>2031.5968</v>
@@ -5897,7 +6218,7 @@
     </row>
     <row r="95" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q95" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R95" s="59">
         <v>1861.4405999999999</v>
@@ -5918,7 +6239,7 @@
     </row>
     <row r="96" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q96" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R96" s="59">
         <v>1889.8798999999999</v>
@@ -5939,7 +6260,7 @@
     </row>
     <row r="97" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q97" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R97" s="59">
         <v>2138.0920000000001</v>
@@ -5960,7 +6281,7 @@
     </row>
     <row r="98" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q98" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R98" s="59">
         <v>1833.6665</v>
@@ -5981,7 +6302,7 @@
     </row>
     <row r="99" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q99" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R99" s="59">
         <v>1816.4376</v>
@@ -6002,7 +6323,7 @@
     </row>
     <row r="100" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q100" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R100" s="59">
         <v>1761.2787000000001</v>
@@ -6023,7 +6344,7 @@
     </row>
     <row r="101" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q101" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R101" s="59">
         <v>1582.6862000000001</v>
@@ -6044,7 +6365,7 @@
     </row>
     <row r="102" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q102" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R102" s="59">
         <v>1522.5139999999999</v>
@@ -6065,7 +6386,7 @@
     </row>
     <row r="103" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q103" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R103" s="59">
         <v>1603.866</v>
@@ -6086,7 +6407,7 @@
     </row>
     <row r="104" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q104" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R104" s="59">
         <v>1803.8217999999999</v>
@@ -6107,7 +6428,7 @@
     </row>
     <row r="105" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q105" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R105" s="59">
         <v>1564.1967999999999</v>
@@ -6128,7 +6449,7 @@
     </row>
     <row r="106" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q106" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R106" s="59">
         <v>1524.4858999999999</v>
@@ -6149,7 +6470,7 @@
     </row>
     <row r="107" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q107" s="57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R107" s="59">
         <v>1572.0039999999999</v>
@@ -6170,7 +6491,7 @@
     </row>
     <row r="108" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q108" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R108" s="59">
         <v>1592.4448</v>
@@ -6191,7 +6512,7 @@
     </row>
     <row r="109" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q109" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R109" s="59">
         <v>1645.1275000000001</v>
@@ -6212,7 +6533,7 @@
     </row>
     <row r="110" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q110" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R110" s="59">
         <v>1504.3507</v>
@@ -6233,7 +6554,7 @@
     </row>
     <row r="111" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q111" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R111" s="59">
         <v>1434.2762</v>
@@ -6254,7 +6575,7 @@
     </row>
     <row r="112" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Q112" s="57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R112" s="59">
         <v>1865.6903</v>
@@ -6275,7 +6596,7 @@
     </row>
     <row r="113" spans="17:26" x14ac:dyDescent="0.2">
       <c r="Q113" s="60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R113" s="61">
         <v>1544.0732</v>
@@ -6317,25 +6638,25 @@
     </row>
     <row r="116" spans="17:26" x14ac:dyDescent="0.2">
       <c r="Q116" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="17:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q118" s="130" t="s">
-        <v>129</v>
-      </c>
-      <c r="R118" s="130"/>
-      <c r="S118" s="130"/>
-      <c r="T118" s="130"/>
-      <c r="U118" s="130"/>
-      <c r="V118" s="130"/>
+      <c r="Q118" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="R118" s="148"/>
+      <c r="S118" s="148"/>
+      <c r="T118" s="148"/>
+      <c r="U118" s="148"/>
+      <c r="V118" s="148"/>
       <c r="X118" s="32"/>
       <c r="Y118" s="32"/>
       <c r="Z118" s="32"/>
     </row>
     <row r="119" spans="17:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q119" s="82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R119" s="82" t="s">
         <v>26</v>
@@ -6350,7 +6671,7 @@
         <v>11</v>
       </c>
       <c r="V119" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X119" s="29"/>
       <c r="Y119" s="29"/>
@@ -6358,7 +6679,7 @@
     </row>
     <row r="120" spans="17:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="Q120" s="68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R120" s="69">
         <v>1280.0467000000001</v>
@@ -6381,7 +6702,7 @@
     </row>
     <row r="121" spans="17:26" x14ac:dyDescent="0.2">
       <c r="Q121" s="65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R121" s="64">
         <v>962.03200000000004</v>
@@ -6404,7 +6725,7 @@
     </row>
     <row r="122" spans="17:26" x14ac:dyDescent="0.2">
       <c r="Q122" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R122" s="69">
         <v>1274.7348999999999</v>
@@ -6427,7 +6748,7 @@
     </row>
     <row r="123" spans="17:26" x14ac:dyDescent="0.2">
       <c r="Q123" s="65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R123" s="64">
         <v>1112.3502000000001</v>
@@ -6450,7 +6771,7 @@
     </row>
     <row r="124" spans="17:26" x14ac:dyDescent="0.2">
       <c r="Q124" s="66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R124" s="67">
         <v>868.08090000000004</v>
@@ -6493,25 +6814,25 @@
     </row>
     <row r="127" spans="17:26" x14ac:dyDescent="0.2">
       <c r="Q127" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="17:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q130" s="130" t="s">
-        <v>135</v>
-      </c>
-      <c r="R130" s="130"/>
-      <c r="S130" s="130"/>
-      <c r="T130" s="130"/>
-      <c r="U130" s="130"/>
-      <c r="V130" s="130"/>
+      <c r="Q130" s="148" t="s">
+        <v>134</v>
+      </c>
+      <c r="R130" s="148"/>
+      <c r="S130" s="148"/>
+      <c r="T130" s="148"/>
+      <c r="U130" s="148"/>
+      <c r="V130" s="148"/>
       <c r="X130" s="32"/>
       <c r="Y130" s="32"/>
       <c r="Z130" s="32"/>
     </row>
     <row r="131" spans="17:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q131" s="82" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R131" s="82" t="s">
         <v>26</v>
@@ -6526,7 +6847,7 @@
         <v>11</v>
       </c>
       <c r="V131" s="82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X131" s="29"/>
       <c r="Y131" s="29"/>
@@ -6534,7 +6855,7 @@
     </row>
     <row r="132" spans="17:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="Q132" s="73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R132" s="59">
         <v>1458.3308</v>
@@ -6715,30 +7036,30 @@
     </row>
     <row r="141" spans="17:26" x14ac:dyDescent="0.2">
       <c r="Q141" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143" spans="17:26" ht="19" x14ac:dyDescent="0.25">
       <c r="Q143" s="80"/>
-      <c r="R143" s="131" t="s">
+      <c r="R143" s="149" t="s">
+        <v>137</v>
+      </c>
+      <c r="S143" s="149"/>
+      <c r="T143" s="150"/>
+      <c r="U143" s="151" t="s">
+        <v>136</v>
+      </c>
+      <c r="V143" s="149"/>
+      <c r="W143" s="150"/>
+      <c r="X143" s="146" t="s">
         <v>138</v>
       </c>
-      <c r="S143" s="131"/>
-      <c r="T143" s="132"/>
-      <c r="U143" s="133" t="s">
-        <v>137</v>
-      </c>
-      <c r="V143" s="131"/>
-      <c r="W143" s="132"/>
-      <c r="X143" s="128" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y143" s="128"/>
-      <c r="Z143" s="128"/>
+      <c r="Y143" s="146"/>
+      <c r="Z143" s="146"/>
     </row>
     <row r="144" spans="17:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q144" s="82" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R144" s="82" t="s">
         <v>8</v>
@@ -6770,7 +7091,7 @@
     </row>
     <row r="145" spans="17:29" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="Q145" s="73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R145" s="39">
         <v>17.728200000000001</v>
@@ -7001,7 +7322,7 @@
     </row>
     <row r="153" spans="17:29" x14ac:dyDescent="0.2">
       <c r="Q153" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="159" spans="17:29" x14ac:dyDescent="0.2">
@@ -7063,6 +7384,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="X143:Z143"/>
+    <mergeCell ref="Q84:U84"/>
+    <mergeCell ref="Q118:V118"/>
+    <mergeCell ref="Q130:V130"/>
+    <mergeCell ref="R143:T143"/>
+    <mergeCell ref="U143:W143"/>
     <mergeCell ref="R52:T52"/>
     <mergeCell ref="U52:W52"/>
     <mergeCell ref="B3:G3"/>
@@ -7070,12 +7397,6 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="I18:N18"/>
     <mergeCell ref="P51:W51"/>
-    <mergeCell ref="X143:Z143"/>
-    <mergeCell ref="Q84:U84"/>
-    <mergeCell ref="Q118:V118"/>
-    <mergeCell ref="Q130:V130"/>
-    <mergeCell ref="R143:T143"/>
-    <mergeCell ref="U143:W143"/>
   </mergeCells>
   <conditionalFormatting sqref="V54:V78">
     <cfRule type="top10" dxfId="7" priority="5" rank="10"/>
@@ -7098,13 +7419,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9766B5B-76F9-B546-8B23-29C02866714F}">
   <dimension ref="B3:M68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" customWidth="1"/>
@@ -7113,20 +7434,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="B3" s="144" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
+      <c r="B3" s="158" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
     </row>
     <row r="4" spans="2:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="108"/>
       <c r="C4" s="82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="82" t="s">
         <v>26</v>
@@ -7135,7 +7456,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G4" s="82" t="s">
         <v>25</v>
@@ -7149,7 +7470,7 @@
     <row r="5" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B5" s="109"/>
       <c r="C5" s="74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="67">
         <v>1280.0467000000001</v>
@@ -7170,8 +7491,8 @@
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="141" t="s">
-        <v>145</v>
+      <c r="B6" s="155" t="s">
+        <v>144</v>
       </c>
       <c r="C6" s="93">
         <v>0.03</v>
@@ -7195,7 +7516,7 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="142"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="93">
         <v>0.05</v>
       </c>
@@ -7218,7 +7539,7 @@
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="142"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="93">
         <v>0.1</v>
       </c>
@@ -7241,7 +7562,7 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="143"/>
+      <c r="B9" s="157"/>
       <c r="C9" s="99">
         <v>0.15</v>
       </c>
@@ -7264,8 +7585,8 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="141" t="s">
-        <v>146</v>
+      <c r="B10" s="155" t="s">
+        <v>145</v>
       </c>
       <c r="C10" s="93">
         <v>0.03</v>
@@ -7289,7 +7610,7 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="142"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="93">
         <v>0.05</v>
       </c>
@@ -7312,7 +7633,7 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="142"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="93">
         <v>0.1</v>
       </c>
@@ -7335,7 +7656,7 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="143"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="99">
         <v>0.15</v>
       </c>
@@ -7363,13 +7684,13 @@
         <v>34</v>
       </c>
       <c r="D14" s="92">
-        <v>358.53039999999999</v>
+        <v>362</v>
       </c>
       <c r="E14" s="89">
-        <v>8.0864999999999991</v>
+        <v>8.15</v>
       </c>
       <c r="F14" s="89">
-        <v>20.328600000000002</v>
+        <v>20.34</v>
       </c>
       <c r="G14" s="89">
         <v>-58.866799999999998</v>
@@ -7387,39 +7708,39 @@
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="29"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" s="29"/>
+        <v>143</v>
+      </c>
+      <c r="I16" s="30"/>
       <c r="J16" s="29"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I17" s="29"/>
+      <c r="I17" s="30"/>
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I18" s="29"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="29"/>
     </row>
     <row r="19" spans="2:12" ht="20" x14ac:dyDescent="0.2">
-      <c r="C19" s="140" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="29"/>
+      <c r="C19" s="154" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="29"/>
     </row>
     <row r="20" spans="2:12" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" s="82" t="s">
         <v>26</v>
@@ -7428,7 +7749,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20" s="82" t="s">
         <v>25</v>
@@ -7436,14 +7757,14 @@
       <c r="H20" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="32"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="2:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C21" s="112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="94">
         <v>1280.0467000000001</v>
@@ -7467,7 +7788,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C22" s="112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="118">
         <v>1274.3039000000001</v>
@@ -7491,7 +7812,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C23" s="112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D23" s="94">
         <v>1120.1632</v>
@@ -7515,7 +7836,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C24" s="112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" s="94">
         <v>1431.2670000000001</v>
@@ -7539,7 +7860,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C25" s="112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D25" s="94">
         <v>874.97810000000004</v>
@@ -7563,7 +7884,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C26" s="112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D26" s="94">
         <v>1249.8747000000001</v>
@@ -7587,7 +7908,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C27" s="116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="100">
         <v>1809.6655000000001</v>
@@ -7613,19 +7934,19 @@
       <c r="C28" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="67">
-        <v>358.53039999999999</v>
-      </c>
-      <c r="E28" s="46">
-        <v>8.0864999999999991</v>
-      </c>
-      <c r="F28" s="46">
-        <v>20.328600000000002</v>
-      </c>
-      <c r="G28" s="46">
+      <c r="D28" s="92">
+        <v>362</v>
+      </c>
+      <c r="E28" s="89">
+        <v>8.15</v>
+      </c>
+      <c r="F28" s="89">
+        <v>20.34</v>
+      </c>
+      <c r="G28" s="89">
         <v>-58.866799999999998</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="89">
         <v>0.39779999999999999</v>
       </c>
       <c r="I28" s="29"/>
@@ -7641,7 +7962,7 @@
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="29"/>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
@@ -7666,14 +7987,14 @@
       <c r="J32" s="29"/>
     </row>
     <row r="33" spans="2:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="C33" s="140" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
+      <c r="C33" s="154" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
     </row>
@@ -7702,7 +8023,7 @@
     </row>
     <row r="35" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C35" s="112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D35" s="94">
         <v>1898.99</v>
@@ -7727,7 +8048,7 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C36" s="112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D36" s="94">
         <v>1387.5165</v>
@@ -7752,7 +8073,7 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C37" s="112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" s="94">
         <v>1280.0467000000001</v>
@@ -7777,7 +8098,7 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" s="120">
         <v>1802.5238999999999</v>
@@ -7802,7 +8123,7 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39" s="100">
         <v>1740.9661000000001</v>
@@ -7826,22 +8147,22 @@
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C40" s="123" t="s">
+      <c r="C40" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="124">
-        <v>358.53039999999999</v>
-      </c>
-      <c r="E40" s="125">
-        <v>8.0864999999999991</v>
-      </c>
-      <c r="F40" s="125">
-        <v>20.328600000000002</v>
-      </c>
-      <c r="G40" s="125">
+      <c r="D40" s="92">
+        <v>362</v>
+      </c>
+      <c r="E40" s="89">
+        <v>8.15</v>
+      </c>
+      <c r="F40" s="89">
+        <v>20.34</v>
+      </c>
+      <c r="G40" s="89">
         <v>-58.866799999999998</v>
       </c>
-      <c r="H40" s="125">
+      <c r="H40" s="89">
         <v>0.39779999999999999</v>
       </c>
       <c r="I40" s="29"/>
@@ -7856,7 +8177,7 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
@@ -7870,24 +8191,24 @@
       <c r="J44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="B45" s="140" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
+      <c r="B45" s="154" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="154"/>
+      <c r="D45" s="154"/>
+      <c r="E45" s="154"/>
+      <c r="F45" s="154"/>
+      <c r="G45" s="154"/>
+      <c r="H45" s="154"/>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="83" t="s">
         <v>169</v>
-      </c>
-      <c r="C46" s="83" t="s">
-        <v>170</v>
       </c>
       <c r="D46" s="82" t="s">
         <v>26</v>
@@ -7911,11 +8232,11 @@
       <c r="M46" s="32"/>
     </row>
     <row r="47" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="145" t="s">
-        <v>172</v>
-      </c>
-      <c r="C47" s="146" t="s">
+      <c r="B47" s="125" t="s">
         <v>171</v>
+      </c>
+      <c r="C47" s="126" t="s">
+        <v>170</v>
       </c>
       <c r="D47" s="94">
         <v>1280.0467000000001</v>
@@ -7939,11 +8260,11 @@
       <c r="M47" s="29"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B48" s="145" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="146" t="s">
-        <v>174</v>
+      <c r="B48" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="126" t="s">
+        <v>173</v>
       </c>
       <c r="D48" s="94">
         <v>1642.4110000000001</v>
@@ -7967,11 +8288,11 @@
       <c r="M48" s="29"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B49" s="145" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" s="146" t="s">
-        <v>175</v>
+      <c r="B49" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="126" t="s">
+        <v>174</v>
       </c>
       <c r="D49" s="94">
         <v>1401.5581</v>
@@ -7995,25 +8316,25 @@
       <c r="M49" s="29"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B50" s="153" t="s">
-        <v>171</v>
-      </c>
-      <c r="C50" s="154" t="s">
-        <v>174</v>
-      </c>
-      <c r="D50" s="151">
+      <c r="B50" s="131" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="129">
         <v>2706.6318999999999</v>
       </c>
-      <c r="E50" s="152">
+      <c r="E50" s="130">
         <v>22.246600000000001</v>
       </c>
-      <c r="F50" s="152">
+      <c r="F50" s="130">
         <v>20.357700000000001</v>
       </c>
-      <c r="G50" s="152">
+      <c r="G50" s="130">
         <v>-57.412399999999998</v>
       </c>
-      <c r="H50" s="152">
+      <c r="H50" s="130">
         <v>1.0928</v>
       </c>
       <c r="I50" s="29"/>
@@ -8023,11 +8344,11 @@
       <c r="M50" s="29"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B51" s="147" t="s">
+      <c r="B51" s="127" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="128" t="s">
         <v>173</v>
-      </c>
-      <c r="C51" s="148" t="s">
-        <v>174</v>
       </c>
       <c r="D51" s="100">
         <v>1189.5998999999999</v>
@@ -8051,23 +8372,23 @@
       <c r="M51" s="29"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B52" s="149" t="s">
+      <c r="B52" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="150"/>
-      <c r="D52" s="100">
-        <v>358.53039999999999</v>
-      </c>
-      <c r="E52" s="101">
-        <v>8.0864999999999991</v>
-      </c>
-      <c r="F52" s="101">
-        <v>20.328600000000002</v>
-      </c>
-      <c r="G52" s="101">
+      <c r="C52" s="153"/>
+      <c r="D52" s="92">
+        <v>362</v>
+      </c>
+      <c r="E52" s="89">
+        <v>8.15</v>
+      </c>
+      <c r="F52" s="89">
+        <v>20.34</v>
+      </c>
+      <c r="G52" s="89">
         <v>-58.866799999999998</v>
       </c>
-      <c r="H52" s="101">
+      <c r="H52" s="89">
         <v>0.39779999999999999</v>
       </c>
       <c r="I52" s="29"/>
@@ -8078,217 +8399,217 @@
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="122" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C57" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="E57" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="F57" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="G57" s="135" t="s">
         <v>167</v>
-      </c>
-      <c r="G57" s="157" t="s">
-        <v>168</v>
       </c>
       <c r="H57" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B58" s="155" t="s">
-        <v>178</v>
-      </c>
-      <c r="C58" s="155">
+      <c r="B58" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="133">
         <v>1.3302E-2</v>
       </c>
-      <c r="D58" s="155">
+      <c r="D58" s="133">
         <v>1.4277E-2</v>
       </c>
-      <c r="E58" s="155">
+      <c r="E58" s="133">
         <v>1.3331000000000001E-2</v>
       </c>
-      <c r="F58" s="155">
+      <c r="F58" s="133">
         <v>1.6993999999999999E-2</v>
       </c>
-      <c r="G58" s="158">
+      <c r="G58" s="136">
         <v>1.2723E-2</v>
       </c>
-      <c r="H58" s="155">
+      <c r="H58" s="133">
         <v>6.3879999999999996E-3</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B59" s="156">
+      <c r="B59" s="134">
         <v>0.25</v>
       </c>
-      <c r="C59" s="155">
+      <c r="C59" s="133">
         <v>-2.0320999999999999E-2</v>
       </c>
-      <c r="D59" s="155">
+      <c r="D59" s="133">
         <v>-1.5838000000000001E-2</v>
       </c>
-      <c r="E59" s="155">
+      <c r="E59" s="133">
         <v>-2.0240999999999999E-2</v>
       </c>
-      <c r="F59" s="155">
+      <c r="F59" s="133">
         <v>-1.7668E-2</v>
       </c>
-      <c r="G59" s="158">
+      <c r="G59" s="136">
         <v>-1.5483E-2</v>
       </c>
-      <c r="H59" s="155">
+      <c r="H59" s="133">
         <v>-2.4334000000000001E-2</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B60" s="156">
+      <c r="B60" s="134">
         <v>0.75</v>
       </c>
-      <c r="C60" s="155">
+      <c r="C60" s="133">
         <v>5.0395000000000002E-2</v>
       </c>
-      <c r="D60" s="155">
+      <c r="D60" s="133">
         <v>4.9473000000000003E-2</v>
       </c>
-      <c r="E60" s="155">
+      <c r="E60" s="133">
         <v>5.0271999999999997E-2</v>
       </c>
-      <c r="F60" s="155">
+      <c r="F60" s="133">
         <v>5.2144000000000003E-2</v>
       </c>
-      <c r="G60" s="158">
+      <c r="G60" s="136">
         <v>4.7579000000000003E-2</v>
       </c>
-      <c r="H60" s="155">
+      <c r="H60" s="133">
         <v>3.9981000000000003E-2</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>178</v>
-      </c>
-      <c r="C63" s="159">
+        <v>176</v>
+      </c>
+      <c r="C63" s="137">
         <f>C58</f>
         <v>1.3302E-2</v>
       </c>
-      <c r="D63" s="159">
+      <c r="D63" s="137">
         <f t="shared" ref="D63:H63" si="0">D58</f>
         <v>1.4277E-2</v>
       </c>
-      <c r="E63" s="159">
+      <c r="E63" s="137">
         <f t="shared" si="0"/>
         <v>1.3331000000000001E-2</v>
       </c>
-      <c r="F63" s="159">
+      <c r="F63" s="137">
         <f t="shared" si="0"/>
         <v>1.6993999999999999E-2</v>
       </c>
-      <c r="G63" s="159">
+      <c r="G63" s="137">
         <f t="shared" si="0"/>
         <v>1.2723E-2</v>
       </c>
-      <c r="H63" s="159">
+      <c r="H63" s="137">
         <f t="shared" si="0"/>
         <v>6.3879999999999996E-3</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64" s="159">
+        <v>177</v>
+      </c>
+      <c r="C64" s="137">
         <f>C58-C59</f>
         <v>3.3623E-2</v>
       </c>
-      <c r="D64" s="159">
+      <c r="D64" s="137">
         <f t="shared" ref="D64:H64" si="1">D58-D59</f>
         <v>3.0115000000000003E-2</v>
       </c>
-      <c r="E64" s="159">
+      <c r="E64" s="137">
         <f t="shared" si="1"/>
         <v>3.3571999999999998E-2</v>
       </c>
-      <c r="F64" s="159">
+      <c r="F64" s="137">
         <f t="shared" si="1"/>
         <v>3.4661999999999998E-2</v>
       </c>
-      <c r="G64" s="159">
+      <c r="G64" s="137">
         <f t="shared" si="1"/>
         <v>2.8206000000000002E-2</v>
       </c>
-      <c r="H64" s="159">
+      <c r="H64" s="137">
         <f t="shared" si="1"/>
         <v>3.0721999999999999E-2</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>180</v>
-      </c>
-      <c r="C65" s="159">
-        <f>C60-C58</f>
+        <v>178</v>
+      </c>
+      <c r="C65" s="137">
+        <f t="shared" ref="C65:H65" si="2">C60-C58</f>
         <v>3.7093000000000001E-2</v>
       </c>
-      <c r="D65" s="159">
-        <f>D60-D58</f>
+      <c r="D65" s="137">
+        <f t="shared" si="2"/>
         <v>3.5196000000000005E-2</v>
       </c>
-      <c r="E65" s="159">
-        <f>E60-E58</f>
+      <c r="E65" s="137">
+        <f t="shared" si="2"/>
         <v>3.6940999999999995E-2</v>
       </c>
-      <c r="F65" s="159">
-        <f>F60-F58</f>
+      <c r="F65" s="137">
+        <f t="shared" si="2"/>
         <v>3.5150000000000001E-2</v>
       </c>
-      <c r="G65" s="159">
-        <f>G60-G58</f>
+      <c r="G65" s="137">
+        <f t="shared" si="2"/>
         <v>3.4856000000000005E-2</v>
       </c>
-      <c r="H65" s="159">
-        <f>H60-H58</f>
+      <c r="H65" s="137">
+        <f t="shared" si="2"/>
         <v>3.3593000000000005E-2</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="156">
+      <c r="B68" s="134">
         <v>0.5</v>
       </c>
-      <c r="C68" s="155">
+      <c r="C68" s="133">
         <v>1.619E-2</v>
       </c>
-      <c r="D68" s="155">
+      <c r="D68" s="133">
         <v>1.5779999999999999E-2</v>
       </c>
-      <c r="E68" s="155">
+      <c r="E68" s="133">
         <v>1.1502E-2</v>
       </c>
-      <c r="F68" s="155">
+      <c r="F68" s="133">
         <v>1.5793000000000001E-2</v>
       </c>
-      <c r="G68" s="158">
+      <c r="G68" s="136">
         <v>1.4822E-2</v>
       </c>
-      <c r="H68" s="155">
+      <c r="H68" s="133">
         <v>5.4089999999999997E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="C19:H19"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B45:H45"/>
     <mergeCell ref="C33:H33"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="C19:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8297,6 +8618,925 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88F1879-0EC9-344E-9176-1F660F7D5593}">
+  <dimension ref="B3:M35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="109" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="13" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B3" s="154" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+    </row>
+    <row r="4" spans="2:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="161" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="161" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="159" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="160">
+        <v>10</v>
+      </c>
+      <c r="H5" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="94">
+        <v>1280.0467000000001</v>
+      </c>
+      <c r="J5" s="95">
+        <v>16.797000000000001</v>
+      </c>
+      <c r="K5" s="95">
+        <v>19.933299999999999</v>
+      </c>
+      <c r="L5" s="95">
+        <v>-59.4771</v>
+      </c>
+      <c r="M5" s="95">
+        <v>0.8427</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="161" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="161" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="161" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="159" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="160">
+        <v>10</v>
+      </c>
+      <c r="H6" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="I6" s="94">
+        <v>1323.7808</v>
+      </c>
+      <c r="J6" s="95">
+        <v>17.036200000000001</v>
+      </c>
+      <c r="K6" s="95">
+        <v>20.192299999999999</v>
+      </c>
+      <c r="L6" s="95">
+        <v>-54.633600000000001</v>
+      </c>
+      <c r="M6" s="95">
+        <v>0.84370000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="161" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="161" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="159" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="160">
+        <v>10</v>
+      </c>
+      <c r="H7" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="I7" s="94">
+        <v>1596.6939</v>
+      </c>
+      <c r="J7" s="95">
+        <v>18.379899999999999</v>
+      </c>
+      <c r="K7" s="95">
+        <v>20.1128</v>
+      </c>
+      <c r="L7" s="95">
+        <v>-58</v>
+      </c>
+      <c r="M7" s="95">
+        <v>0.91379999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="161" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="161" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="159" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="160">
+        <v>10</v>
+      </c>
+      <c r="H8" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="I8" s="94">
+        <v>1496.9179999999999</v>
+      </c>
+      <c r="J8" s="95">
+        <v>17.915600000000001</v>
+      </c>
+      <c r="K8" s="95">
+        <v>17.566199999999998</v>
+      </c>
+      <c r="L8" s="95">
+        <v>-39.565300000000001</v>
+      </c>
+      <c r="M8" s="95">
+        <v>1.0199</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="161" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="161" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="159" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="159" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9" s="160">
+        <v>10</v>
+      </c>
+      <c r="H9" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="I9" s="94">
+        <v>1284.7816</v>
+      </c>
+      <c r="J9" s="95">
+        <v>16.8232</v>
+      </c>
+      <c r="K9" s="95">
+        <v>17.1997</v>
+      </c>
+      <c r="L9" s="95">
+        <v>-47.763300000000001</v>
+      </c>
+      <c r="M9" s="95">
+        <v>0.97809999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="161" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="161" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="159" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="159" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" s="160">
+        <v>15</v>
+      </c>
+      <c r="H10" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="I10" s="94">
+        <v>1617.9333999999999</v>
+      </c>
+      <c r="J10" s="95">
+        <v>18.475200000000001</v>
+      </c>
+      <c r="K10" s="95">
+        <v>15.7498</v>
+      </c>
+      <c r="L10" s="95">
+        <v>-34.8476</v>
+      </c>
+      <c r="M10" s="95">
+        <v>1.173</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="167" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="167" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="167" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="166" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="166" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="168">
+        <v>15</v>
+      </c>
+      <c r="H11" s="169" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="168">
+        <v>2371.3400999999999</v>
+      </c>
+      <c r="J11" s="170">
+        <v>21.265999999999998</v>
+      </c>
+      <c r="K11" s="170">
+        <v>15.256600000000001</v>
+      </c>
+      <c r="L11" s="170">
+        <v>-29.661100000000001</v>
+      </c>
+      <c r="M11" s="171">
+        <v>1.3938999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="161" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="161" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="159" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="160">
+        <v>15</v>
+      </c>
+      <c r="H12" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="I12" s="94">
+        <v>1637.5983000000001</v>
+      </c>
+      <c r="J12" s="95">
+        <v>18.5624</v>
+      </c>
+      <c r="K12" s="95">
+        <v>16.4361</v>
+      </c>
+      <c r="L12" s="95">
+        <v>-37.3523</v>
+      </c>
+      <c r="M12" s="95">
+        <v>1.1294</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="173" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="173" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="173" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="172" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="172" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="174">
+        <v>15</v>
+      </c>
+      <c r="H13" s="175" t="s">
+        <v>186</v>
+      </c>
+      <c r="I13" s="174">
+        <v>2133.1572999999999</v>
+      </c>
+      <c r="J13" s="176">
+        <v>20.486699999999999</v>
+      </c>
+      <c r="K13" s="176">
+        <v>16.193000000000001</v>
+      </c>
+      <c r="L13" s="176">
+        <v>-33.660499999999999</v>
+      </c>
+      <c r="M13" s="177">
+        <v>1.2652000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="164" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="164" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="164"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="123">
+        <v>362.1816</v>
+      </c>
+      <c r="J14" s="124">
+        <v>8.1532</v>
+      </c>
+      <c r="K14" s="124">
+        <v>20.340800000000002</v>
+      </c>
+      <c r="L14" s="124">
+        <v>-58.866799999999998</v>
+      </c>
+      <c r="M14" s="124">
+        <v>0.40079999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="178" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B21" s="179" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="179" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="179"/>
+      <c r="M21" s="179"/>
+    </row>
+    <row r="22" spans="2:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="161" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="161" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="159" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="160">
+        <v>10</v>
+      </c>
+      <c r="H23" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="I23" s="94">
+        <v>138.5583</v>
+      </c>
+      <c r="J23" s="95">
+        <v>38.558300000000003</v>
+      </c>
+      <c r="K23" s="95">
+        <v>13.270899999999999</v>
+      </c>
+      <c r="L23" s="95">
+        <v>-6.8754999999999997</v>
+      </c>
+      <c r="M23" s="95">
+        <v>2.9055</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="161" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="161" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="161" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="159" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="160">
+        <v>10</v>
+      </c>
+      <c r="H24" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="I24" s="94">
+        <v>134.71850000000001</v>
+      </c>
+      <c r="J24" s="95">
+        <v>34.718499999999999</v>
+      </c>
+      <c r="K24" s="95">
+        <v>13.4992</v>
+      </c>
+      <c r="L24" s="95">
+        <v>-6.6997</v>
+      </c>
+      <c r="M24" s="95">
+        <v>2.5718999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="161" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="161" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="159" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="160">
+        <v>10</v>
+      </c>
+      <c r="H25" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" s="94">
+        <v>138.7056</v>
+      </c>
+      <c r="J25" s="95">
+        <v>38.705599999999997</v>
+      </c>
+      <c r="K25" s="95">
+        <v>13.585800000000001</v>
+      </c>
+      <c r="L25" s="95">
+        <v>-6.6425999999999998</v>
+      </c>
+      <c r="M25" s="95">
+        <v>2.8490000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" s="161" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="161" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="159" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="160">
+        <v>10</v>
+      </c>
+      <c r="H26" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="I26" s="94">
+        <v>138.71430000000001</v>
+      </c>
+      <c r="J26" s="95">
+        <v>38.714300000000001</v>
+      </c>
+      <c r="K26" s="95">
+        <v>13.5854</v>
+      </c>
+      <c r="L26" s="95">
+        <v>-6.6440999999999999</v>
+      </c>
+      <c r="M26" s="95">
+        <v>2.8496999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="161" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="161" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="159" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="159" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="160">
+        <v>10</v>
+      </c>
+      <c r="H27" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="I27" s="94">
+        <v>137.7261</v>
+      </c>
+      <c r="J27" s="95">
+        <v>37.726100000000002</v>
+      </c>
+      <c r="K27" s="95">
+        <v>13.039300000000001</v>
+      </c>
+      <c r="L27" s="95">
+        <v>-6.6237000000000004</v>
+      </c>
+      <c r="M27" s="95">
+        <v>2.8933</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="161" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="161" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="159" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="159" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="160">
+        <v>15</v>
+      </c>
+      <c r="H28" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="I28" s="94">
+        <v>134.93219999999999</v>
+      </c>
+      <c r="J28" s="95">
+        <v>34.932200000000002</v>
+      </c>
+      <c r="K28" s="95">
+        <v>11.494400000000001</v>
+      </c>
+      <c r="L28" s="95">
+        <v>-5.0618999999999996</v>
+      </c>
+      <c r="M28" s="95">
+        <v>3.0390999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="167" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="167" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="167" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="166" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="166" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="168">
+        <v>15</v>
+      </c>
+      <c r="H29" s="169" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" s="168">
+        <v>138.40799999999999</v>
+      </c>
+      <c r="J29" s="170">
+        <v>38.408000000000001</v>
+      </c>
+      <c r="K29" s="170">
+        <v>10.960699999999999</v>
+      </c>
+      <c r="L29" s="170">
+        <v>-4.5826000000000002</v>
+      </c>
+      <c r="M29" s="171">
+        <v>3.5041000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="161" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="161" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="159" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" s="160">
+        <v>15</v>
+      </c>
+      <c r="H30" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="I30" s="94">
+        <v>137.28380000000001</v>
+      </c>
+      <c r="J30" s="95">
+        <v>37.283799999999999</v>
+      </c>
+      <c r="K30" s="95">
+        <v>12.0115</v>
+      </c>
+      <c r="L30" s="95">
+        <v>-5.3243999999999998</v>
+      </c>
+      <c r="M30" s="95">
+        <v>3.1040000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="173" t="s">
+        <v>208</v>
+      </c>
+      <c r="C31" s="173" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="173" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="172" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" s="172" t="s">
+        <v>189</v>
+      </c>
+      <c r="G31" s="174">
+        <v>15</v>
+      </c>
+      <c r="H31" s="175" t="s">
+        <v>186</v>
+      </c>
+      <c r="I31" s="174">
+        <v>140.4691</v>
+      </c>
+      <c r="J31" s="176">
+        <v>40.469099999999997</v>
+      </c>
+      <c r="K31" s="176">
+        <v>11.499599999999999</v>
+      </c>
+      <c r="L31" s="176">
+        <v>-5.0632000000000001</v>
+      </c>
+      <c r="M31" s="177">
+        <v>3.5192000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="164" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="164" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="164"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="123">
+        <v>121.4393</v>
+      </c>
+      <c r="J32" s="124">
+        <v>21.439299999999999</v>
+      </c>
+      <c r="K32" s="124">
+        <v>10.0312</v>
+      </c>
+      <c r="L32" s="124">
+        <v>-6.5774999999999997</v>
+      </c>
+      <c r="M32" s="124">
+        <v>2.1373000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="178" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B21:M21"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M5:M13">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23:M31">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5503420-18E7-3445-9600-19C8C9F65792}">
   <dimension ref="G23"/>
   <sheetViews>
@@ -8308,7 +9548,7 @@
   <sheetData>
     <row r="23" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
